--- a/maquette-type.xlsx
+++ b/maquette-type.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\apereir\Desktop\En cours\En cours Maquettes\scripts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\apereir\Desktop\En cours\En cours Maquettes\scripts\maquettes-xl2json\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD163A74-670C-4135-B427-E185DE41FA8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40A64A62-46DE-448C-8F75-1947171534A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{A6F31FBE-6D40-488E-B868-E7547D61F047}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{A6F31FBE-6D40-488E-B868-E7547D61F047}"/>
   </bookViews>
   <sheets>
     <sheet name="Exemple Licence Roumain" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="252">
   <si>
     <t>FORMATION</t>
   </si>
@@ -863,6 +863,9 @@
   </si>
   <si>
     <t>ECO-B340-GR</t>
+  </si>
+  <si>
+    <t>Mutualisé</t>
   </si>
 </sst>
 </file>
@@ -1379,7 +1382,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1487,9 +1490,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
@@ -1617,6 +1617,12 @@
     <xf numFmtId="0" fontId="11" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1624,6 +1630,1842 @@
     <cellStyle name="Normal 3" xfId="2" xr:uid="{C656DFBD-827A-4B5D-BF01-85786D996F9F}"/>
   </cellStyles>
   <dxfs count="200">
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -1909,38 +3751,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -2128,1810 +3938,6 @@
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -3946,37 +3952,38 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0D2EC97E-B4BD-40B4-B2ED-132933047CDD}" name="Tableau13" displayName="Tableau13" ref="B4:H99" totalsRowShown="0" headerRowDxfId="31" dataDxfId="29" headerRowBorderDxfId="30" tableBorderDxfId="28" totalsRowBorderDxfId="27">
-  <autoFilter ref="B4:H99" xr:uid="{0D2EC97E-B4BD-40B4-B2ED-132933047CDD}"/>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{DEB2FB12-0527-49A2-9B36-836B78EAE91E}" name="Type objet" dataDxfId="26"/>
-    <tableColumn id="2" xr3:uid="{AD30C2BE-A5ED-4BA9-B6D8-E55D8B04E157}" name="Code objet" dataDxfId="25"/>
-    <tableColumn id="6" xr3:uid="{A0AD4F5A-C958-4364-B3C4-7501C95CA8A4}" name="Libellé" dataDxfId="24"/>
-    <tableColumn id="9" xr3:uid="{538897E2-29B3-4558-93E5-F2A8668671A0}" name="ECTS objet" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{9CC6E2CD-8BE0-4616-BC23-79B3F1B3D565}" name="Plage MIN" dataDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{284F6D8F-F090-4394-8E4D-E129C3D31F2E}" name="Plage MAX" dataDxfId="21"/>
-    <tableColumn id="10" xr3:uid="{92834D59-3432-46C9-9FAE-7B803C4E1C01}" name="Code parent" dataDxfId="20"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0D2EC97E-B4BD-40B4-B2ED-132933047CDD}" name="Tableau13" displayName="Tableau13" ref="B4:I99" totalsRowShown="0" headerRowDxfId="199" dataDxfId="197" headerRowBorderDxfId="198" tableBorderDxfId="196" totalsRowBorderDxfId="195">
+  <autoFilter ref="B4:I99" xr:uid="{0D2EC97E-B4BD-40B4-B2ED-132933047CDD}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{DEB2FB12-0527-49A2-9B36-836B78EAE91E}" name="Type objet" dataDxfId="194"/>
+    <tableColumn id="2" xr3:uid="{AD30C2BE-A5ED-4BA9-B6D8-E55D8B04E157}" name="Code objet" dataDxfId="193"/>
+    <tableColumn id="6" xr3:uid="{A0AD4F5A-C958-4364-B3C4-7501C95CA8A4}" name="Libellé" dataDxfId="192"/>
+    <tableColumn id="9" xr3:uid="{538897E2-29B3-4558-93E5-F2A8668671A0}" name="ECTS objet" dataDxfId="191"/>
+    <tableColumn id="3" xr3:uid="{79E4A5A4-8D52-480C-943F-70B9D2F49C3B}" name="Mutualisé"/>
+    <tableColumn id="4" xr3:uid="{9CC6E2CD-8BE0-4616-BC23-79B3F1B3D565}" name="Plage MIN" dataDxfId="190"/>
+    <tableColumn id="5" xr3:uid="{284F6D8F-F090-4394-8E4D-E129C3D31F2E}" name="Plage MAX" dataDxfId="189"/>
+    <tableColumn id="10" xr3:uid="{92834D59-3432-46C9-9FAE-7B803C4E1C01}" name="Code parent" dataDxfId="188"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0F039B8D-4F73-4F71-816E-79D8DD07FF1D}" name="Tableau1" displayName="Tableau1" ref="A1:L76" totalsRowShown="0" headerRowDxfId="16" dataDxfId="14" headerRowBorderDxfId="15" tableBorderDxfId="13" totalsRowBorderDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0F039B8D-4F73-4F71-816E-79D8DD07FF1D}" name="Tableau1" displayName="Tableau1" ref="A1:L76" totalsRowShown="0" headerRowDxfId="187" dataDxfId="185" headerRowBorderDxfId="186" tableBorderDxfId="184" totalsRowBorderDxfId="183">
   <autoFilter ref="A1:L76" xr:uid="{0F039B8D-4F73-4F71-816E-79D8DD07FF1D}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{BA1FF67E-A285-4DC9-A88A-D3161AF85CDF}" name="Type objet" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{7504398C-07C2-4F18-9E4F-B24B0EEFC607}" name="Nature objet" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{9465B86C-1C8A-47C9-8DE0-27C5143473B9}" name="Code objet" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{01197EF2-8F7E-416D-87BE-211104178B19}" name="Libellé" dataDxfId="8"/>
-    <tableColumn id="8" xr3:uid="{178F97CB-CD98-4DF4-9B3B-88D67784A1AA}" name="Libellé long" dataDxfId="7"/>
-    <tableColumn id="9" xr3:uid="{F8670986-ECED-46AC-BE3A-65280B926387}" name="ECTS objet" dataDxfId="6"/>
-    <tableColumn id="10" xr3:uid="{492B8453-2431-4BA1-9E89-D32C0957EDE0}" name="Code parent" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{6813EE45-5417-475E-AC92-8D2734747C05}" name="Plage MIN" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{387629FB-EF79-4A94-AF68-1297523114CB}" name="Plage MAX" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{6487F377-EED9-48BA-A0F8-4A81D873DD01}" name="Distanciel" dataDxfId="2"/>
-    <tableColumn id="11" xr3:uid="{73D73693-FBE4-447E-87A3-B8013A93014D}" name="Stage" dataDxfId="1"/>
-    <tableColumn id="12" xr3:uid="{079EC281-2E43-49C5-BB70-8E623D48D2BB}" name="Capacité accueil" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{BA1FF67E-A285-4DC9-A88A-D3161AF85CDF}" name="Type objet" dataDxfId="182"/>
+    <tableColumn id="3" xr3:uid="{7504398C-07C2-4F18-9E4F-B24B0EEFC607}" name="Nature objet" dataDxfId="181"/>
+    <tableColumn id="2" xr3:uid="{9465B86C-1C8A-47C9-8DE0-27C5143473B9}" name="Code objet" dataDxfId="180"/>
+    <tableColumn id="6" xr3:uid="{01197EF2-8F7E-416D-87BE-211104178B19}" name="Libellé" dataDxfId="179"/>
+    <tableColumn id="8" xr3:uid="{178F97CB-CD98-4DF4-9B3B-88D67784A1AA}" name="Libellé long" dataDxfId="178"/>
+    <tableColumn id="9" xr3:uid="{F8670986-ECED-46AC-BE3A-65280B926387}" name="ECTS objet" dataDxfId="177"/>
+    <tableColumn id="10" xr3:uid="{492B8453-2431-4BA1-9E89-D32C0957EDE0}" name="Code parent" dataDxfId="176"/>
+    <tableColumn id="4" xr3:uid="{6813EE45-5417-475E-AC92-8D2734747C05}" name="Plage MIN" dataDxfId="175"/>
+    <tableColumn id="5" xr3:uid="{387629FB-EF79-4A94-AF68-1297523114CB}" name="Plage MAX" dataDxfId="174"/>
+    <tableColumn id="7" xr3:uid="{6487F377-EED9-48BA-A0F8-4A81D873DD01}" name="Distanciel" dataDxfId="173"/>
+    <tableColumn id="11" xr3:uid="{73D73693-FBE4-447E-87A3-B8013A93014D}" name="Stage" dataDxfId="172"/>
+    <tableColumn id="12" xr3:uid="{079EC281-2E43-49C5-BB70-8E623D48D2BB}" name="Capacité accueil" dataDxfId="171"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4279,29 +4286,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13FDEF39-6E44-4E69-A861-92E47A468CEA}">
-  <dimension ref="A1:H100"/>
+  <dimension ref="A1:I100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.109375" customWidth="1"/>
-    <col min="2" max="2" width="17.44140625" customWidth="1"/>
+    <col min="1" max="1" width="4.140625" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
     <col min="3" max="3" width="26" customWidth="1"/>
-    <col min="4" max="4" width="57.6640625" customWidth="1"/>
-    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.44140625" customWidth="1"/>
-    <col min="7" max="7" width="8" customWidth="1"/>
-    <col min="8" max="8" width="30.44140625" style="40" customWidth="1"/>
-    <col min="9" max="9" width="22.109375" customWidth="1"/>
+    <col min="4" max="4" width="57.7109375" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" customWidth="1"/>
+    <col min="8" max="8" width="8" customWidth="1"/>
+    <col min="9" max="9" width="30.42578125" style="40" customWidth="1"/>
+    <col min="10" max="10" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>131</v>
       </c>
@@ -4315,25 +4323,29 @@
         <v>136</v>
       </c>
       <c r="F4" s="19" t="s">
+        <v>251</v>
+      </c>
+      <c r="G4" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="H4" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="H4" s="41" t="s">
+      <c r="I4" s="41" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="31"/>
       <c r="C5" s="24"/>
       <c r="D5" s="24"/>
       <c r="E5" s="27"/>
       <c r="F5" s="27"/>
       <c r="G5" s="27"/>
-      <c r="H5" s="42"/>
-    </row>
-    <row r="6" spans="1:8" s="28" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="H5" s="27"/>
+      <c r="I5" s="42"/>
+    </row>
+    <row r="6" spans="1:9" s="28" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B6" s="34" t="s">
         <v>0</v>
       </c>
@@ -4346,20 +4358,22 @@
       <c r="E6" s="37">
         <v>180</v>
       </c>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-    </row>
-    <row r="7" spans="1:8" s="28" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
+    </row>
+    <row r="7" spans="1:9" s="28" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="31"/>
       <c r="C7" s="24"/>
       <c r="D7" s="24"/>
       <c r="E7" s="27"/>
       <c r="F7" s="27"/>
       <c r="G7" s="27"/>
-      <c r="H7" s="42"/>
-    </row>
-    <row r="8" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H7" s="27"/>
+      <c r="I7" s="42"/>
+    </row>
+    <row r="8" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="25" t="s">
         <v>167</v>
       </c>
@@ -4368,9 +4382,10 @@
       <c r="E8" s="33"/>
       <c r="F8" s="33"/>
       <c r="G8" s="33"/>
-      <c r="H8" s="44"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H8" s="33"/>
+      <c r="I8" s="43"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" s="25" t="s">
         <v>166</v>
       </c>
@@ -4379,58 +4394,62 @@
       <c r="E9" s="33"/>
       <c r="F9" s="33"/>
       <c r="G9" s="33"/>
-      <c r="H9" s="44"/>
-    </row>
-    <row r="10" spans="1:8" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H9" s="33"/>
+      <c r="I9" s="43"/>
+    </row>
+    <row r="10" spans="1:9" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="32"/>
-      <c r="C10" s="49"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="69"/>
-      <c r="F10" s="69"/>
-      <c r="G10" s="69"/>
-      <c r="H10" s="50"/>
-    </row>
-    <row r="11" spans="1:8" s="29" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="70"/>
-      <c r="B11" s="71" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="57" t="s">
+      <c r="C10" s="48"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="68"/>
+      <c r="G10" s="68"/>
+      <c r="H10" s="68"/>
+      <c r="I10" s="49"/>
+    </row>
+    <row r="11" spans="1:9" s="29" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="69"/>
+      <c r="B11" s="70" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="58" t="s">
+      <c r="D11" s="57" t="s">
         <v>170</v>
       </c>
-      <c r="E11" s="59">
+      <c r="E11" s="58">
         <v>60</v>
       </c>
-      <c r="F11" s="59"/>
-      <c r="G11" s="59"/>
-      <c r="H11" s="85" t="s">
+      <c r="F11" s="58"/>
+      <c r="G11" s="58"/>
+      <c r="H11" s="58"/>
+      <c r="I11" s="84" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="78" t="s">
+    <row r="12" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="76" t="s">
+      <c r="C12" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="76" t="s">
+      <c r="D12" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="77">
+      <c r="E12" s="76">
         <v>30</v>
       </c>
       <c r="F12" s="76"/>
-      <c r="G12" s="76"/>
-      <c r="H12" s="79" t="s">
+      <c r="G12" s="75"/>
+      <c r="H12" s="75"/>
+      <c r="I12" s="78" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B13" s="60" t="s">
+    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B13" s="59" t="s">
         <v>9</v>
       </c>
       <c r="C13" s="39" t="s">
@@ -4444,107 +4463,113 @@
       </c>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
-      <c r="H13" s="86" t="s">
+      <c r="H13" s="11"/>
+      <c r="I13" s="85" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B14" s="61" t="s">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="62" t="s">
+      <c r="C14" s="61" t="s">
         <v>173</v>
       </c>
       <c r="D14" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="81">
-        <v>3</v>
-      </c>
-      <c r="F14" s="13"/>
+      <c r="E14" s="80">
+        <v>3</v>
+      </c>
+      <c r="F14" s="80"/>
       <c r="G14" s="13"/>
-      <c r="H14" s="63" t="s">
+      <c r="H14" s="13"/>
+      <c r="I14" s="62" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B15" s="61" t="s">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="62" t="s">
+      <c r="C15" s="61" t="s">
         <v>175</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="82">
-        <v>3</v>
-      </c>
-      <c r="F15" s="15"/>
+      <c r="E15" s="81">
+        <v>3</v>
+      </c>
+      <c r="F15" s="81"/>
       <c r="G15" s="15"/>
-      <c r="H15" s="63" t="s">
+      <c r="H15" s="15"/>
+      <c r="I15" s="62" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B16" s="61" t="s">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="62" t="s">
+      <c r="C16" s="61" t="s">
         <v>176</v>
       </c>
       <c r="D16" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="82">
-        <v>3</v>
-      </c>
-      <c r="F16" s="15"/>
+      <c r="E16" s="81">
+        <v>3</v>
+      </c>
+      <c r="F16" s="81"/>
       <c r="G16" s="15"/>
-      <c r="H16" s="63" t="s">
+      <c r="H16" s="15"/>
+      <c r="I16" s="62" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B17" s="61" t="s">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="62" t="s">
+      <c r="C17" s="61" t="s">
         <v>177</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="E17" s="82">
-        <v>3</v>
-      </c>
-      <c r="F17" s="15"/>
+      <c r="E17" s="81">
+        <v>3</v>
+      </c>
+      <c r="F17" s="81"/>
       <c r="G17" s="15"/>
-      <c r="H17" s="63" t="s">
+      <c r="H17" s="15"/>
+      <c r="I17" s="62" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B18" s="61" t="s">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="62" t="s">
+      <c r="C18" s="61" t="s">
         <v>178</v>
       </c>
       <c r="D18" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="E18" s="83">
-        <v>3</v>
-      </c>
-      <c r="F18" s="17"/>
+      <c r="E18" s="82">
+        <v>3</v>
+      </c>
+      <c r="F18" s="82"/>
       <c r="G18" s="17"/>
-      <c r="H18" s="63" t="s">
+      <c r="H18" s="17"/>
+      <c r="I18" s="62" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="19" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B19" s="60" t="s">
+    <row r="19" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B19" s="59" t="s">
         <v>9</v>
       </c>
       <c r="C19" s="39" t="s">
@@ -4558,50 +4583,53 @@
       </c>
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
-      <c r="H19" s="86" t="s">
+      <c r="H19" s="11"/>
+      <c r="I19" s="85" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B20" s="61" t="s">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="64" t="s">
+      <c r="C20" s="63" t="s">
         <v>180</v>
       </c>
       <c r="D20" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="E20" s="81">
-        <v>3</v>
-      </c>
-      <c r="F20" s="13"/>
+      <c r="E20" s="80">
+        <v>3</v>
+      </c>
+      <c r="F20" s="80"/>
       <c r="G20" s="13"/>
-      <c r="H20" s="63" t="s">
+      <c r="H20" s="13"/>
+      <c r="I20" s="62" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B21" s="61" t="s">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="64" t="s">
+      <c r="C21" s="63" t="s">
         <v>181</v>
       </c>
       <c r="D21" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="E21" s="82">
-        <v>3</v>
-      </c>
-      <c r="F21" s="15"/>
+      <c r="E21" s="81">
+        <v>3</v>
+      </c>
+      <c r="F21" s="81"/>
       <c r="G21" s="15"/>
-      <c r="H21" s="63" t="s">
+      <c r="H21" s="15"/>
+      <c r="I21" s="62" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="22" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B22" s="60" t="s">
+    <row r="22" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B22" s="59" t="s">
         <v>9</v>
       </c>
       <c r="C22" s="39" t="s">
@@ -4613,82 +4641,93 @@
       <c r="E22" s="21">
         <v>9</v>
       </c>
-      <c r="F22" s="21"/>
+      <c r="F22" s="21" t="b">
+        <v>1</v>
+      </c>
       <c r="G22" s="21"/>
-      <c r="H22" s="86" t="s">
+      <c r="H22" s="21"/>
+      <c r="I22" s="85" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B23" s="61" t="s">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B23" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="64" t="s">
+      <c r="C23" s="63" t="s">
         <v>236</v>
       </c>
       <c r="D23" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="E23" s="80">
-        <v>3</v>
-      </c>
-      <c r="F23" s="23"/>
+      <c r="E23" s="79">
+        <v>3</v>
+      </c>
+      <c r="F23" s="79" t="b">
+        <v>1</v>
+      </c>
       <c r="G23" s="23"/>
-      <c r="H23" s="63" t="s">
+      <c r="H23" s="23"/>
+      <c r="I23" s="62" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B24" s="61" t="s">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B24" s="60" t="s">
         <v>172</v>
       </c>
-      <c r="C24" s="64" t="s">
+      <c r="C24" s="63" t="s">
         <v>237</v>
       </c>
-      <c r="D24" s="72" t="s">
+      <c r="D24" s="71" t="s">
         <v>239</v>
       </c>
-      <c r="E24" s="73"/>
-      <c r="F24" s="73">
+      <c r="E24" s="72"/>
+      <c r="F24" s="72" t="b">
         <v>1</v>
       </c>
-      <c r="G24" s="73">
+      <c r="G24" s="72">
         <v>1</v>
       </c>
-      <c r="H24" s="63" t="s">
+      <c r="H24" s="72">
+        <v>1</v>
+      </c>
+      <c r="I24" s="62" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B25" s="74"/>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="73"/>
       <c r="C25" s="26"/>
-      <c r="D25" s="53"/>
-      <c r="E25" s="54"/>
-      <c r="F25" s="54"/>
-      <c r="G25" s="54"/>
-      <c r="H25" s="63"/>
-    </row>
-    <row r="26" spans="2:8" s="30" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="78" t="s">
+      <c r="D25" s="52"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="53"/>
+      <c r="G25" s="53"/>
+      <c r="H25" s="53"/>
+      <c r="I25" s="62"/>
+    </row>
+    <row r="26" spans="2:9" s="30" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="C26" s="76" t="s">
+      <c r="C26" s="75" t="s">
         <v>30</v>
       </c>
-      <c r="D26" s="76" t="s">
+      <c r="D26" s="75" t="s">
         <v>31</v>
       </c>
-      <c r="E26" s="77">
+      <c r="E26" s="76">
         <v>30</v>
       </c>
       <c r="F26" s="76"/>
-      <c r="G26" s="76"/>
-      <c r="H26" s="79" t="s">
+      <c r="G26" s="75"/>
+      <c r="H26" s="75"/>
+      <c r="I26" s="78" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="2:8" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B27" s="75" t="s">
+    <row r="27" spans="2:9" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B27" s="74" t="s">
         <v>9</v>
       </c>
       <c r="C27" s="39" t="s">
@@ -4702,107 +4741,113 @@
       </c>
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
-      <c r="H27" s="86" t="s">
+      <c r="H27" s="11"/>
+      <c r="I27" s="85" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B28" s="61" t="s">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B28" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="62" t="s">
+      <c r="C28" s="61" t="s">
         <v>184</v>
       </c>
       <c r="D28" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="E28" s="82">
-        <v>3</v>
-      </c>
-      <c r="F28" s="15"/>
+      <c r="E28" s="81">
+        <v>3</v>
+      </c>
+      <c r="F28" s="81"/>
       <c r="G28" s="15"/>
-      <c r="H28" s="63" t="s">
+      <c r="H28" s="15"/>
+      <c r="I28" s="62" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B29" s="61" t="s">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B29" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="C29" s="62" t="s">
+      <c r="C29" s="61" t="s">
         <v>185</v>
       </c>
       <c r="D29" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="E29" s="82">
-        <v>3</v>
-      </c>
-      <c r="F29" s="15"/>
+      <c r="E29" s="81">
+        <v>3</v>
+      </c>
+      <c r="F29" s="81"/>
       <c r="G29" s="15"/>
-      <c r="H29" s="63" t="s">
+      <c r="H29" s="15"/>
+      <c r="I29" s="62" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B30" s="61" t="s">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B30" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="C30" s="62" t="s">
+      <c r="C30" s="61" t="s">
         <v>186</v>
       </c>
       <c r="D30" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="E30" s="82">
-        <v>3</v>
-      </c>
-      <c r="F30" s="15"/>
+      <c r="E30" s="81">
+        <v>3</v>
+      </c>
+      <c r="F30" s="81"/>
       <c r="G30" s="15"/>
-      <c r="H30" s="63" t="s">
+      <c r="H30" s="15"/>
+      <c r="I30" s="62" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B31" s="61" t="s">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B31" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="C31" s="62" t="s">
+      <c r="C31" s="61" t="s">
         <v>187</v>
       </c>
       <c r="D31" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="E31" s="82">
-        <v>3</v>
-      </c>
-      <c r="F31" s="15"/>
+      <c r="E31" s="81">
+        <v>3</v>
+      </c>
+      <c r="F31" s="81"/>
       <c r="G31" s="15"/>
-      <c r="H31" s="63" t="s">
+      <c r="H31" s="15"/>
+      <c r="I31" s="62" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B32" s="61" t="s">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B32" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="C32" s="62" t="s">
+      <c r="C32" s="61" t="s">
         <v>188</v>
       </c>
       <c r="D32" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="E32" s="82">
-        <v>3</v>
-      </c>
-      <c r="F32" s="15"/>
+      <c r="E32" s="81">
+        <v>3</v>
+      </c>
+      <c r="F32" s="81"/>
       <c r="G32" s="15"/>
-      <c r="H32" s="63" t="s">
+      <c r="H32" s="15"/>
+      <c r="I32" s="62" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="33" spans="2:8" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B33" s="60" t="s">
+    <row r="33" spans="2:9" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B33" s="59" t="s">
         <v>9</v>
       </c>
       <c r="C33" s="39" t="s">
@@ -4816,69 +4861,73 @@
       </c>
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
-      <c r="H33" s="86" t="s">
+      <c r="H33" s="11"/>
+      <c r="I33" s="85" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B34" s="61" t="s">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B34" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="C34" s="62" t="s">
+      <c r="C34" s="61" t="s">
         <v>190</v>
       </c>
       <c r="D34" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="E34" s="82">
-        <v>3</v>
-      </c>
-      <c r="F34" s="15"/>
+      <c r="E34" s="81">
+        <v>3</v>
+      </c>
+      <c r="F34" s="81"/>
       <c r="G34" s="15"/>
-      <c r="H34" s="63" t="s">
+      <c r="H34" s="15"/>
+      <c r="I34" s="62" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B35" s="61" t="s">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B35" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="C35" s="62" t="s">
+      <c r="C35" s="61" t="s">
         <v>191</v>
       </c>
       <c r="D35" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="E35" s="82">
-        <v>3</v>
-      </c>
-      <c r="F35" s="15"/>
+      <c r="E35" s="81">
+        <v>3</v>
+      </c>
+      <c r="F35" s="81"/>
       <c r="G35" s="15"/>
-      <c r="H35" s="63" t="s">
+      <c r="H35" s="15"/>
+      <c r="I35" s="62" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B36" s="61" t="s">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B36" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="C36" s="62" t="s">
+      <c r="C36" s="61" t="s">
         <v>192</v>
       </c>
       <c r="D36" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="E36" s="82">
+      <c r="E36" s="81">
         <v>0</v>
       </c>
-      <c r="F36" s="15"/>
+      <c r="F36" s="81"/>
       <c r="G36" s="15"/>
-      <c r="H36" s="63" t="s">
+      <c r="H36" s="15"/>
+      <c r="I36" s="62" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="37" spans="2:8" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B37" s="60" t="s">
+    <row r="37" spans="2:9" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B37" s="59" t="s">
         <v>9</v>
       </c>
       <c r="C37" s="39" t="s">
@@ -4890,110 +4939,123 @@
       <c r="E37" s="21">
         <v>9</v>
       </c>
-      <c r="F37" s="21"/>
+      <c r="F37" s="21" t="b">
+        <v>1</v>
+      </c>
       <c r="G37" s="21"/>
-      <c r="H37" s="86" t="s">
+      <c r="H37" s="21"/>
+      <c r="I37" s="85" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B38" s="61" t="s">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B38" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="C38" s="64" t="s">
+      <c r="C38" s="63" t="s">
         <v>238</v>
       </c>
       <c r="D38" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="E38" s="80">
-        <v>3</v>
-      </c>
-      <c r="F38" s="23"/>
+      <c r="E38" s="79">
+        <v>3</v>
+      </c>
+      <c r="F38" s="79" t="b">
+        <v>1</v>
+      </c>
       <c r="G38" s="23"/>
-      <c r="H38" s="63" t="s">
+      <c r="H38" s="23"/>
+      <c r="I38" s="62" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="39" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="65" t="s">
+    <row r="39" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="64" t="s">
         <v>172</v>
       </c>
-      <c r="C39" s="66" t="s">
+      <c r="C39" s="65" t="s">
         <v>240</v>
       </c>
-      <c r="D39" s="67" t="s">
+      <c r="D39" s="66" t="s">
         <v>239</v>
       </c>
-      <c r="E39" s="84"/>
-      <c r="F39" s="84">
+      <c r="E39" s="83"/>
+      <c r="F39" s="83" t="b">
         <v>1</v>
       </c>
-      <c r="G39" s="84">
+      <c r="G39" s="83">
         <v>1</v>
       </c>
-      <c r="H39" s="68" t="s">
+      <c r="H39" s="83">
+        <v>1</v>
+      </c>
+      <c r="I39" s="67" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B40" s="51"/>
-      <c r="C40" s="52"/>
-      <c r="D40" s="53"/>
-      <c r="E40" s="54"/>
-      <c r="F40" s="54"/>
-      <c r="G40" s="54"/>
-      <c r="H40" s="55"/>
-    </row>
-    <row r="41" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="45"/>
-      <c r="C41" s="46"/>
-      <c r="D41" s="47"/>
-      <c r="E41" s="48"/>
-      <c r="F41" s="48"/>
-      <c r="G41" s="48"/>
-      <c r="H41" s="50"/>
-    </row>
-    <row r="42" spans="2:8" s="30" customFormat="1" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="B42" s="56" t="s">
-        <v>3</v>
-      </c>
-      <c r="C42" s="57" t="s">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B40" s="50"/>
+      <c r="C40" s="51"/>
+      <c r="D40" s="52"/>
+      <c r="E40" s="53"/>
+      <c r="F40" s="53"/>
+      <c r="G40" s="53"/>
+      <c r="H40" s="53"/>
+      <c r="I40" s="54"/>
+    </row>
+    <row r="41" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="44"/>
+      <c r="C41" s="45"/>
+      <c r="D41" s="46"/>
+      <c r="E41" s="47"/>
+      <c r="F41" s="47"/>
+      <c r="G41" s="47"/>
+      <c r="H41" s="47"/>
+      <c r="I41" s="49"/>
+    </row>
+    <row r="42" spans="2:9" s="30" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="B42" s="55" t="s">
+        <v>3</v>
+      </c>
+      <c r="C42" s="56" t="s">
         <v>53</v>
       </c>
-      <c r="D42" s="58" t="s">
+      <c r="D42" s="57" t="s">
         <v>169</v>
       </c>
-      <c r="E42" s="59">
+      <c r="E42" s="58">
         <v>60</v>
       </c>
-      <c r="F42" s="59"/>
-      <c r="G42" s="59"/>
-      <c r="H42" s="85" t="s">
+      <c r="F42" s="58"/>
+      <c r="G42" s="58"/>
+      <c r="H42" s="58"/>
+      <c r="I42" s="84" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="2:8" s="30" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="78" t="s">
+    <row r="43" spans="2:9" s="30" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="C43" s="76" t="s">
+      <c r="C43" s="75" t="s">
         <v>55</v>
       </c>
-      <c r="D43" s="76" t="s">
+      <c r="D43" s="75" t="s">
         <v>56</v>
       </c>
-      <c r="E43" s="77">
+      <c r="E43" s="76">
         <v>30</v>
       </c>
       <c r="F43" s="76"/>
-      <c r="G43" s="76"/>
-      <c r="H43" s="79" t="s">
+      <c r="G43" s="75"/>
+      <c r="H43" s="75"/>
+      <c r="I43" s="78" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="44" spans="2:8" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B44" s="60" t="s">
+    <row r="44" spans="2:9" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B44" s="59" t="s">
         <v>9</v>
       </c>
       <c r="C44" s="39" t="s">
@@ -5007,107 +5069,113 @@
       </c>
       <c r="F44" s="11"/>
       <c r="G44" s="11"/>
-      <c r="H44" s="86" t="s">
+      <c r="H44" s="11"/>
+      <c r="I44" s="85" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B45" s="61" t="s">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B45" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="C45" s="62" t="s">
+      <c r="C45" s="61" t="s">
         <v>195</v>
       </c>
       <c r="D45" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="E45" s="82">
-        <v>3</v>
-      </c>
-      <c r="F45" s="15"/>
+      <c r="E45" s="81">
+        <v>3</v>
+      </c>
+      <c r="F45" s="81"/>
       <c r="G45" s="15"/>
-      <c r="H45" s="63" t="s">
+      <c r="H45" s="15"/>
+      <c r="I45" s="62" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B46" s="61" t="s">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B46" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="C46" s="62" t="s">
+      <c r="C46" s="61" t="s">
         <v>196</v>
       </c>
       <c r="D46" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="E46" s="82">
-        <v>3</v>
-      </c>
-      <c r="F46" s="15"/>
+      <c r="E46" s="81">
+        <v>3</v>
+      </c>
+      <c r="F46" s="81"/>
       <c r="G46" s="15"/>
-      <c r="H46" s="63" t="s">
+      <c r="H46" s="15"/>
+      <c r="I46" s="62" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B47" s="61" t="s">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B47" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="C47" s="62" t="s">
+      <c r="C47" s="61" t="s">
         <v>197</v>
       </c>
       <c r="D47" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="E47" s="82">
-        <v>3</v>
-      </c>
-      <c r="F47" s="15"/>
+      <c r="E47" s="81">
+        <v>3</v>
+      </c>
+      <c r="F47" s="81"/>
       <c r="G47" s="15"/>
-      <c r="H47" s="63" t="s">
+      <c r="H47" s="15"/>
+      <c r="I47" s="62" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B48" s="61" t="s">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B48" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="C48" s="62" t="s">
+      <c r="C48" s="61" t="s">
         <v>198</v>
       </c>
       <c r="D48" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="E48" s="82">
-        <v>3</v>
-      </c>
-      <c r="F48" s="15"/>
+      <c r="E48" s="81">
+        <v>3</v>
+      </c>
+      <c r="F48" s="81"/>
       <c r="G48" s="15"/>
-      <c r="H48" s="63" t="s">
+      <c r="H48" s="15"/>
+      <c r="I48" s="62" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B49" s="61" t="s">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B49" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="C49" s="62" t="s">
+      <c r="C49" s="61" t="s">
         <v>199</v>
       </c>
       <c r="D49" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="E49" s="82">
-        <v>3</v>
-      </c>
-      <c r="F49" s="15"/>
+      <c r="E49" s="81">
+        <v>3</v>
+      </c>
+      <c r="F49" s="81"/>
       <c r="G49" s="15"/>
-      <c r="H49" s="63" t="s">
+      <c r="H49" s="15"/>
+      <c r="I49" s="62" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="50" spans="2:8" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B50" s="60" t="s">
+    <row r="50" spans="2:9" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B50" s="59" t="s">
         <v>9</v>
       </c>
       <c r="C50" s="39" t="s">
@@ -5121,50 +5189,53 @@
       </c>
       <c r="F50" s="11"/>
       <c r="G50" s="11"/>
-      <c r="H50" s="86" t="s">
+      <c r="H50" s="11"/>
+      <c r="I50" s="85" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B51" s="61" t="s">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B51" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="C51" s="62" t="s">
+      <c r="C51" s="61" t="s">
         <v>201</v>
       </c>
       <c r="D51" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="E51" s="82">
-        <v>3</v>
-      </c>
-      <c r="F51" s="15"/>
+      <c r="E51" s="81">
+        <v>3</v>
+      </c>
+      <c r="F51" s="81"/>
       <c r="G51" s="15"/>
-      <c r="H51" s="63" t="s">
+      <c r="H51" s="15"/>
+      <c r="I51" s="62" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B52" s="61" t="s">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B52" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="C52" s="62" t="s">
+      <c r="C52" s="61" t="s">
         <v>202</v>
       </c>
       <c r="D52" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="E52" s="82">
-        <v>3</v>
-      </c>
-      <c r="F52" s="15"/>
+      <c r="E52" s="81">
+        <v>3</v>
+      </c>
+      <c r="F52" s="81"/>
       <c r="G52" s="15"/>
-      <c r="H52" s="63" t="s">
+      <c r="H52" s="15"/>
+      <c r="I52" s="62" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="53" spans="2:8" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B53" s="60" t="s">
+    <row r="53" spans="2:9" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B53" s="59" t="s">
         <v>9</v>
       </c>
       <c r="C53" s="39" t="s">
@@ -5176,35 +5247,41 @@
       <c r="E53" s="21">
         <v>3</v>
       </c>
-      <c r="F53" s="21"/>
+      <c r="F53" s="21" t="b">
+        <v>1</v>
+      </c>
       <c r="G53" s="21"/>
-      <c r="H53" s="86" t="s">
+      <c r="H53" s="21"/>
+      <c r="I53" s="85" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="54" spans="2:8" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="61" t="s">
+    <row r="54" spans="2:9" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="60" t="s">
         <v>172</v>
       </c>
-      <c r="C54" s="64" t="s">
+      <c r="C54" s="63" t="s">
         <v>241</v>
       </c>
-      <c r="D54" s="72" t="s">
+      <c r="D54" s="71" t="s">
         <v>239</v>
       </c>
-      <c r="E54" s="73"/>
-      <c r="F54" s="73">
+      <c r="E54" s="72"/>
+      <c r="F54" s="72" t="b">
         <v>1</v>
       </c>
-      <c r="G54" s="73">
+      <c r="G54" s="72">
         <v>1</v>
       </c>
-      <c r="H54" s="63" t="s">
+      <c r="H54" s="72">
+        <v>1</v>
+      </c>
+      <c r="I54" s="62" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="55" spans="2:8" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B55" s="60" t="s">
+    <row r="55" spans="2:9" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B55" s="59" t="s">
         <v>9</v>
       </c>
       <c r="C55" s="39" t="s">
@@ -5216,54 +5293,61 @@
       <c r="E55" s="21">
         <v>6</v>
       </c>
-      <c r="F55" s="21"/>
+      <c r="F55" s="21" t="b">
+        <v>1</v>
+      </c>
       <c r="G55" s="21"/>
-      <c r="H55" s="86" t="s">
+      <c r="H55" s="21"/>
+      <c r="I55" s="85" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="56" spans="2:8" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="61" t="s">
+    <row r="56" spans="2:9" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="60" t="s">
         <v>172</v>
       </c>
-      <c r="C56" s="64" t="s">
+      <c r="C56" s="63" t="s">
         <v>243</v>
       </c>
-      <c r="D56" s="72" t="s">
+      <c r="D56" s="71" t="s">
         <v>244</v>
       </c>
-      <c r="E56" s="73"/>
-      <c r="F56" s="73">
+      <c r="E56" s="72"/>
+      <c r="F56" s="72" t="b">
         <v>1</v>
       </c>
-      <c r="G56" s="73">
+      <c r="G56" s="72">
         <v>1</v>
       </c>
-      <c r="H56" s="63" t="s">
+      <c r="H56" s="72">
+        <v>1</v>
+      </c>
+      <c r="I56" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="57" spans="2:8" s="30" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="78" t="s">
+    <row r="57" spans="2:9" s="30" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="C57" s="76" t="s">
+      <c r="C57" s="75" t="s">
         <v>75</v>
       </c>
-      <c r="D57" s="76" t="s">
+      <c r="D57" s="75" t="s">
         <v>76</v>
       </c>
-      <c r="E57" s="77">
+      <c r="E57" s="76">
         <v>30</v>
       </c>
       <c r="F57" s="76"/>
-      <c r="G57" s="76"/>
-      <c r="H57" s="79" t="s">
+      <c r="G57" s="75"/>
+      <c r="H57" s="75"/>
+      <c r="I57" s="78" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="58" spans="2:8" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B58" s="60" t="s">
+    <row r="58" spans="2:9" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B58" s="59" t="s">
         <v>9</v>
       </c>
       <c r="C58" s="39" t="s">
@@ -5277,107 +5361,113 @@
       </c>
       <c r="F58" s="11"/>
       <c r="G58" s="11"/>
-      <c r="H58" s="86" t="s">
+      <c r="H58" s="11"/>
+      <c r="I58" s="85" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B59" s="61" t="s">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B59" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="C59" s="62" t="s">
+      <c r="C59" s="61" t="s">
         <v>206</v>
       </c>
       <c r="D59" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="E59" s="82">
-        <v>3</v>
-      </c>
-      <c r="F59" s="15"/>
+      <c r="E59" s="81">
+        <v>3</v>
+      </c>
+      <c r="F59" s="81"/>
       <c r="G59" s="15"/>
-      <c r="H59" s="63" t="s">
+      <c r="H59" s="15"/>
+      <c r="I59" s="62" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B60" s="61" t="s">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B60" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="C60" s="62" t="s">
+      <c r="C60" s="61" t="s">
         <v>207</v>
       </c>
       <c r="D60" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="E60" s="82">
-        <v>3</v>
-      </c>
-      <c r="F60" s="15"/>
+      <c r="E60" s="81">
+        <v>3</v>
+      </c>
+      <c r="F60" s="81"/>
       <c r="G60" s="15"/>
-      <c r="H60" s="63" t="s">
+      <c r="H60" s="15"/>
+      <c r="I60" s="62" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B61" s="61" t="s">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B61" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="C61" s="62" t="s">
+      <c r="C61" s="61" t="s">
         <v>208</v>
       </c>
       <c r="D61" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="E61" s="82">
-        <v>3</v>
-      </c>
-      <c r="F61" s="15"/>
+      <c r="E61" s="81">
+        <v>3</v>
+      </c>
+      <c r="F61" s="81"/>
       <c r="G61" s="15"/>
-      <c r="H61" s="63" t="s">
+      <c r="H61" s="15"/>
+      <c r="I61" s="62" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B62" s="61" t="s">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B62" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="C62" s="62" t="s">
+      <c r="C62" s="61" t="s">
         <v>209</v>
       </c>
       <c r="D62" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="E62" s="82">
-        <v>3</v>
-      </c>
-      <c r="F62" s="15"/>
+      <c r="E62" s="81">
+        <v>3</v>
+      </c>
+      <c r="F62" s="81"/>
       <c r="G62" s="15"/>
-      <c r="H62" s="63" t="s">
+      <c r="H62" s="15"/>
+      <c r="I62" s="62" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B63" s="61" t="s">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B63" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="C63" s="62" t="s">
+      <c r="C63" s="61" t="s">
         <v>210</v>
       </c>
       <c r="D63" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="E63" s="82">
-        <v>3</v>
-      </c>
-      <c r="F63" s="15"/>
+      <c r="E63" s="81">
+        <v>3</v>
+      </c>
+      <c r="F63" s="81"/>
       <c r="G63" s="15"/>
-      <c r="H63" s="63" t="s">
+      <c r="H63" s="15"/>
+      <c r="I63" s="62" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="64" spans="2:8" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B64" s="60" t="s">
+    <row r="64" spans="2:9" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B64" s="59" t="s">
         <v>9</v>
       </c>
       <c r="C64" s="39" t="s">
@@ -5391,69 +5481,73 @@
       </c>
       <c r="F64" s="11"/>
       <c r="G64" s="11"/>
-      <c r="H64" s="86" t="s">
+      <c r="H64" s="11"/>
+      <c r="I64" s="85" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B65" s="61" t="s">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B65" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="C65" s="62" t="s">
+      <c r="C65" s="61" t="s">
         <v>212</v>
       </c>
       <c r="D65" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="E65" s="82">
-        <v>3</v>
-      </c>
-      <c r="F65" s="15"/>
+      <c r="E65" s="81">
+        <v>3</v>
+      </c>
+      <c r="F65" s="81"/>
       <c r="G65" s="15"/>
-      <c r="H65" s="63" t="s">
+      <c r="H65" s="15"/>
+      <c r="I65" s="62" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B66" s="61" t="s">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B66" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="C66" s="62" t="s">
+      <c r="C66" s="61" t="s">
         <v>213</v>
       </c>
       <c r="D66" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="E66" s="82">
-        <v>3</v>
-      </c>
-      <c r="F66" s="15"/>
+      <c r="E66" s="81">
+        <v>3</v>
+      </c>
+      <c r="F66" s="81"/>
       <c r="G66" s="15"/>
-      <c r="H66" s="63" t="s">
+      <c r="H66" s="15"/>
+      <c r="I66" s="62" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B67" s="61" t="s">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B67" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="C67" s="62" t="s">
+      <c r="C67" s="61" t="s">
         <v>214</v>
       </c>
       <c r="D67" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="E67" s="82">
+      <c r="E67" s="81">
         <v>0</v>
       </c>
-      <c r="F67" s="15"/>
+      <c r="F67" s="81"/>
       <c r="G67" s="15"/>
-      <c r="H67" s="63" t="s">
+      <c r="H67" s="15"/>
+      <c r="I67" s="62" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="68" spans="2:8" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B68" s="60" t="s">
+    <row r="68" spans="2:9" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B68" s="59" t="s">
         <v>9</v>
       </c>
       <c r="C68" s="39" t="s">
@@ -5465,35 +5559,41 @@
       <c r="E68" s="21">
         <v>3</v>
       </c>
-      <c r="F68" s="21"/>
+      <c r="F68" s="21" t="b">
+        <v>1</v>
+      </c>
       <c r="G68" s="21"/>
-      <c r="H68" s="86" t="s">
+      <c r="H68" s="21"/>
+      <c r="I68" s="85" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="69" spans="2:8" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="61" t="s">
+    <row r="69" spans="2:9" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B69" s="60" t="s">
         <v>172</v>
       </c>
-      <c r="C69" s="64" t="s">
+      <c r="C69" s="63" t="s">
         <v>242</v>
       </c>
-      <c r="D69" s="72" t="s">
+      <c r="D69" s="86" t="s">
         <v>239</v>
       </c>
-      <c r="E69" s="73"/>
-      <c r="F69" s="73">
+      <c r="E69" s="72"/>
+      <c r="F69" s="87" t="b">
         <v>1</v>
       </c>
-      <c r="G69" s="73">
+      <c r="G69" s="72">
         <v>1</v>
       </c>
-      <c r="H69" s="63" t="s">
+      <c r="H69" s="72">
+        <v>1</v>
+      </c>
+      <c r="I69" s="62" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="70" spans="2:8" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B70" s="60" t="s">
+    <row r="70" spans="2:9" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B70" s="59" t="s">
         <v>9</v>
       </c>
       <c r="C70" s="39" t="s">
@@ -5505,91 +5605,101 @@
       <c r="E70" s="21">
         <v>6</v>
       </c>
-      <c r="F70" s="21"/>
+      <c r="F70" s="21" t="b">
+        <v>1</v>
+      </c>
       <c r="G70" s="21"/>
-      <c r="H70" s="86" t="s">
+      <c r="H70" s="21"/>
+      <c r="I70" s="85" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="71" spans="2:8" s="30" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B71" s="65" t="s">
+    <row r="71" spans="2:9" s="30" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B71" s="64" t="s">
         <v>172</v>
       </c>
-      <c r="C71" s="66" t="s">
+      <c r="C71" s="65" t="s">
         <v>249</v>
       </c>
-      <c r="D71" s="72" t="s">
+      <c r="D71" s="71" t="s">
         <v>244</v>
       </c>
-      <c r="E71" s="84"/>
-      <c r="F71" s="84">
+      <c r="E71" s="83"/>
+      <c r="F71" s="83" t="b">
         <v>1</v>
       </c>
-      <c r="G71" s="84">
+      <c r="G71" s="83">
         <v>1</v>
       </c>
-      <c r="H71" s="68" t="s">
+      <c r="H71" s="83">
+        <v>1</v>
+      </c>
+      <c r="I71" s="67" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B72" s="51"/>
-      <c r="C72" s="52"/>
-      <c r="D72" s="53"/>
-      <c r="E72" s="54"/>
-      <c r="F72" s="54"/>
-      <c r="G72" s="54"/>
-      <c r="H72" s="55"/>
-    </row>
-    <row r="73" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B73" s="45"/>
-      <c r="C73" s="46"/>
-      <c r="D73" s="47"/>
-      <c r="E73" s="48"/>
-      <c r="F73" s="48"/>
-      <c r="G73" s="48"/>
-      <c r="H73" s="50"/>
-    </row>
-    <row r="74" spans="2:8" s="30" customFormat="1" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="B74" s="56" t="s">
-        <v>3</v>
-      </c>
-      <c r="C74" s="57" t="s">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B72" s="50"/>
+      <c r="C72" s="51"/>
+      <c r="D72" s="52"/>
+      <c r="E72" s="53"/>
+      <c r="F72" s="53"/>
+      <c r="G72" s="53"/>
+      <c r="H72" s="53"/>
+      <c r="I72" s="54"/>
+    </row>
+    <row r="73" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B73" s="44"/>
+      <c r="C73" s="45"/>
+      <c r="D73" s="46"/>
+      <c r="E73" s="47"/>
+      <c r="F73" s="47"/>
+      <c r="G73" s="47"/>
+      <c r="H73" s="47"/>
+      <c r="I73" s="49"/>
+    </row>
+    <row r="74" spans="2:9" s="30" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="B74" s="55" t="s">
+        <v>3</v>
+      </c>
+      <c r="C74" s="56" t="s">
         <v>96</v>
       </c>
-      <c r="D74" s="58" t="s">
+      <c r="D74" s="57" t="s">
         <v>171</v>
       </c>
-      <c r="E74" s="59">
+      <c r="E74" s="58">
         <v>60</v>
       </c>
-      <c r="F74" s="59"/>
-      <c r="G74" s="59"/>
-      <c r="H74" s="85" t="s">
+      <c r="F74" s="58"/>
+      <c r="G74" s="58"/>
+      <c r="H74" s="58"/>
+      <c r="I74" s="84" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="2:8" s="30" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="78" t="s">
+    <row r="75" spans="2:9" s="30" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="C75" s="76" t="s">
+      <c r="C75" s="75" t="s">
         <v>98</v>
       </c>
-      <c r="D75" s="76" t="s">
+      <c r="D75" s="75" t="s">
         <v>99</v>
       </c>
-      <c r="E75" s="77">
+      <c r="E75" s="76">
         <v>30</v>
       </c>
       <c r="F75" s="76"/>
-      <c r="G75" s="76"/>
-      <c r="H75" s="79" t="s">
+      <c r="G75" s="75"/>
+      <c r="H75" s="75"/>
+      <c r="I75" s="78" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="76" spans="2:8" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B76" s="60" t="s">
+    <row r="76" spans="2:9" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B76" s="59" t="s">
         <v>9</v>
       </c>
       <c r="C76" s="39" t="s">
@@ -5603,88 +5713,93 @@
       </c>
       <c r="F76" s="11"/>
       <c r="G76" s="11"/>
-      <c r="H76" s="86" t="s">
+      <c r="H76" s="11"/>
+      <c r="I76" s="85" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="77" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B77" s="61" t="s">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B77" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="C77" s="62" t="s">
+      <c r="C77" s="61" t="s">
         <v>218</v>
       </c>
       <c r="D77" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="E77" s="82">
-        <v>3</v>
-      </c>
-      <c r="F77" s="15"/>
+      <c r="E77" s="81">
+        <v>3</v>
+      </c>
+      <c r="F77" s="81"/>
       <c r="G77" s="15"/>
-      <c r="H77" s="63" t="s">
+      <c r="H77" s="15"/>
+      <c r="I77" s="62" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="78" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B78" s="61" t="s">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B78" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="C78" s="62" t="s">
+      <c r="C78" s="61" t="s">
         <v>219</v>
       </c>
       <c r="D78" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="E78" s="82">
-        <v>3</v>
-      </c>
-      <c r="F78" s="15"/>
+      <c r="E78" s="81">
+        <v>3</v>
+      </c>
+      <c r="F78" s="81"/>
       <c r="G78" s="15"/>
-      <c r="H78" s="63" t="s">
+      <c r="H78" s="15"/>
+      <c r="I78" s="62" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="79" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B79" s="61" t="s">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B79" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="C79" s="62" t="s">
+      <c r="C79" s="61" t="s">
         <v>220</v>
       </c>
       <c r="D79" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="E79" s="82">
-        <v>3</v>
-      </c>
-      <c r="F79" s="15"/>
+      <c r="E79" s="81">
+        <v>3</v>
+      </c>
+      <c r="F79" s="81"/>
       <c r="G79" s="15"/>
-      <c r="H79" s="63" t="s">
+      <c r="H79" s="15"/>
+      <c r="I79" s="62" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="80" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B80" s="61" t="s">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B80" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="C80" s="62" t="s">
+      <c r="C80" s="61" t="s">
         <v>221</v>
       </c>
       <c r="D80" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="E80" s="82">
-        <v>3</v>
-      </c>
-      <c r="F80" s="15"/>
+      <c r="E80" s="81">
+        <v>3</v>
+      </c>
+      <c r="F80" s="81"/>
       <c r="G80" s="15"/>
-      <c r="H80" s="63" t="s">
+      <c r="H80" s="15"/>
+      <c r="I80" s="62" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="81" spans="2:8" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B81" s="60" t="s">
+    <row r="81" spans="2:9" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B81" s="59" t="s">
         <v>9</v>
       </c>
       <c r="C81" s="39" t="s">
@@ -5698,31 +5813,33 @@
       </c>
       <c r="F81" s="11"/>
       <c r="G81" s="11"/>
-      <c r="H81" s="86" t="s">
+      <c r="H81" s="11"/>
+      <c r="I81" s="85" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B82" s="61" t="s">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B82" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="C82" s="62" t="s">
+      <c r="C82" s="61" t="s">
         <v>223</v>
       </c>
       <c r="D82" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="E82" s="82">
-        <v>3</v>
-      </c>
-      <c r="F82" s="15"/>
+      <c r="E82" s="81">
+        <v>3</v>
+      </c>
+      <c r="F82" s="81"/>
       <c r="G82" s="15"/>
-      <c r="H82" s="63" t="s">
+      <c r="H82" s="15"/>
+      <c r="I82" s="62" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="83" spans="2:8" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B83" s="60" t="s">
+    <row r="83" spans="2:9" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B83" s="59" t="s">
         <v>9</v>
       </c>
       <c r="C83" s="39" t="s">
@@ -5734,35 +5851,41 @@
       <c r="E83" s="21">
         <v>9</v>
       </c>
-      <c r="F83" s="21"/>
+      <c r="F83" s="21" t="b">
+        <v>1</v>
+      </c>
       <c r="G83" s="21"/>
-      <c r="H83" s="86" t="s">
+      <c r="H83" s="21"/>
+      <c r="I83" s="85" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="84" spans="2:8" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B84" s="61" t="s">
+    <row r="84" spans="2:9" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B84" s="60" t="s">
         <v>172</v>
       </c>
-      <c r="C84" s="64" t="s">
+      <c r="C84" s="63" t="s">
         <v>245</v>
       </c>
-      <c r="D84" s="72" t="s">
+      <c r="D84" s="71" t="s">
         <v>247</v>
       </c>
-      <c r="E84" s="73"/>
-      <c r="F84" s="73">
-        <v>3</v>
-      </c>
-      <c r="G84" s="73">
-        <v>3</v>
-      </c>
-      <c r="H84" s="63" t="s">
+      <c r="E84" s="72"/>
+      <c r="F84" s="72" t="b">
+        <v>1</v>
+      </c>
+      <c r="G84" s="72">
+        <v>3</v>
+      </c>
+      <c r="H84" s="72">
+        <v>3</v>
+      </c>
+      <c r="I84" s="62" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="85" spans="2:8" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B85" s="60" t="s">
+    <row r="85" spans="2:9" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B85" s="59" t="s">
         <v>9</v>
       </c>
       <c r="C85" s="39" t="s">
@@ -5774,50 +5897,57 @@
       <c r="E85" s="21">
         <v>6</v>
       </c>
-      <c r="F85" s="21"/>
+      <c r="F85" s="21" t="b">
+        <v>1</v>
+      </c>
       <c r="G85" s="21"/>
-      <c r="H85" s="86" t="s">
+      <c r="H85" s="21"/>
+      <c r="I85" s="85" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="86" spans="2:8" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B86" s="61" t="s">
+    <row r="86" spans="2:9" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B86" s="60" t="s">
         <v>172</v>
       </c>
-      <c r="C86" s="64" t="s">
+      <c r="C86" s="63" t="s">
         <v>246</v>
       </c>
-      <c r="D86" s="72" t="s">
+      <c r="D86" s="71" t="s">
         <v>244</v>
       </c>
-      <c r="E86" s="73"/>
-      <c r="F86" s="73"/>
-      <c r="G86" s="73"/>
-      <c r="H86" s="63" t="s">
+      <c r="E86" s="72"/>
+      <c r="F86" s="72" t="b">
+        <v>1</v>
+      </c>
+      <c r="G86" s="72"/>
+      <c r="H86" s="72"/>
+      <c r="I86" s="62" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="87" spans="2:8" s="30" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B87" s="78" t="s">
+    <row r="87" spans="2:9" s="30" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B87" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="C87" s="76" t="s">
+      <c r="C87" s="75" t="s">
         <v>114</v>
       </c>
-      <c r="D87" s="76" t="s">
+      <c r="D87" s="75" t="s">
         <v>115</v>
       </c>
-      <c r="E87" s="77">
+      <c r="E87" s="76">
         <v>30</v>
       </c>
       <c r="F87" s="76"/>
-      <c r="G87" s="76"/>
-      <c r="H87" s="79" t="s">
+      <c r="G87" s="75"/>
+      <c r="H87" s="75"/>
+      <c r="I87" s="78" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="88" spans="2:8" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B88" s="60" t="s">
+    <row r="88" spans="2:9" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B88" s="59" t="s">
         <v>9</v>
       </c>
       <c r="C88" s="39" t="s">
@@ -5831,88 +5961,93 @@
       </c>
       <c r="F88" s="11"/>
       <c r="G88" s="11"/>
-      <c r="H88" s="86" t="s">
+      <c r="H88" s="11"/>
+      <c r="I88" s="85" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="89" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B89" s="61" t="s">
+    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B89" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="C89" s="62" t="s">
+      <c r="C89" s="61" t="s">
         <v>227</v>
       </c>
       <c r="D89" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="E89" s="82">
-        <v>3</v>
-      </c>
-      <c r="F89" s="15"/>
+      <c r="E89" s="81">
+        <v>3</v>
+      </c>
+      <c r="F89" s="81"/>
       <c r="G89" s="15"/>
-      <c r="H89" s="63" t="s">
+      <c r="H89" s="15"/>
+      <c r="I89" s="62" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="90" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B90" s="61" t="s">
+    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B90" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="C90" s="62" t="s">
+      <c r="C90" s="61" t="s">
         <v>228</v>
       </c>
       <c r="D90" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="E90" s="82">
-        <v>3</v>
-      </c>
-      <c r="F90" s="15"/>
+      <c r="E90" s="81">
+        <v>3</v>
+      </c>
+      <c r="F90" s="81"/>
       <c r="G90" s="15"/>
-      <c r="H90" s="63" t="s">
+      <c r="H90" s="15"/>
+      <c r="I90" s="62" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="91" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B91" s="61" t="s">
+    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B91" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="C91" s="62" t="s">
+      <c r="C91" s="61" t="s">
         <v>229</v>
       </c>
       <c r="D91" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="E91" s="82">
-        <v>3</v>
-      </c>
-      <c r="F91" s="15"/>
+      <c r="E91" s="81">
+        <v>3</v>
+      </c>
+      <c r="F91" s="81"/>
       <c r="G91" s="15"/>
-      <c r="H91" s="63" t="s">
+      <c r="H91" s="15"/>
+      <c r="I91" s="62" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="92" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B92" s="61" t="s">
+    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B92" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="C92" s="62" t="s">
+      <c r="C92" s="61" t="s">
         <v>230</v>
       </c>
       <c r="D92" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="E92" s="82">
-        <v>3</v>
-      </c>
-      <c r="F92" s="15"/>
+      <c r="E92" s="81">
+        <v>3</v>
+      </c>
+      <c r="F92" s="81"/>
       <c r="G92" s="15"/>
-      <c r="H92" s="63" t="s">
+      <c r="H92" s="15"/>
+      <c r="I92" s="62" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="93" spans="2:8" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B93" s="60" t="s">
+    <row r="93" spans="2:9" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B93" s="59" t="s">
         <v>9</v>
       </c>
       <c r="C93" s="39" t="s">
@@ -5926,50 +6061,53 @@
       </c>
       <c r="F93" s="11"/>
       <c r="G93" s="11"/>
-      <c r="H93" s="86" t="s">
+      <c r="H93" s="11"/>
+      <c r="I93" s="85" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="94" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B94" s="61" t="s">
+    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B94" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="C94" s="62" t="s">
+      <c r="C94" s="61" t="s">
         <v>232</v>
       </c>
       <c r="D94" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="E94" s="82">
-        <v>3</v>
-      </c>
-      <c r="F94" s="15"/>
+      <c r="E94" s="81">
+        <v>3</v>
+      </c>
+      <c r="F94" s="81"/>
       <c r="G94" s="15"/>
-      <c r="H94" s="63" t="s">
+      <c r="H94" s="15"/>
+      <c r="I94" s="62" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="95" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B95" s="61" t="s">
+    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B95" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="C95" s="62" t="s">
+      <c r="C95" s="61" t="s">
         <v>233</v>
       </c>
       <c r="D95" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="E95" s="82">
+      <c r="E95" s="81">
         <v>0</v>
       </c>
-      <c r="F95" s="15"/>
+      <c r="F95" s="81"/>
       <c r="G95" s="15"/>
-      <c r="H95" s="63" t="s">
+      <c r="H95" s="15"/>
+      <c r="I95" s="62" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="96" spans="2:8" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B96" s="60" t="s">
+    <row r="96" spans="2:9" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B96" s="59" t="s">
         <v>9</v>
       </c>
       <c r="C96" s="39" t="s">
@@ -5981,35 +6119,41 @@
       <c r="E96" s="21">
         <v>9</v>
       </c>
-      <c r="F96" s="21"/>
+      <c r="F96" s="21" t="b">
+        <v>1</v>
+      </c>
       <c r="G96" s="21"/>
-      <c r="H96" s="86" t="s">
+      <c r="H96" s="21"/>
+      <c r="I96" s="85" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="97" spans="2:8" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B97" s="61" t="s">
+    <row r="97" spans="2:9" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B97" s="60" t="s">
         <v>172</v>
       </c>
-      <c r="C97" s="64" t="s">
+      <c r="C97" s="63" t="s">
         <v>248</v>
       </c>
-      <c r="D97" s="72" t="s">
+      <c r="D97" s="71" t="s">
         <v>247</v>
       </c>
-      <c r="E97" s="73"/>
-      <c r="F97" s="73">
-        <v>3</v>
-      </c>
-      <c r="G97" s="73">
-        <v>3</v>
-      </c>
-      <c r="H97" s="63" t="s">
+      <c r="E97" s="72"/>
+      <c r="F97" s="72" t="b">
+        <v>1</v>
+      </c>
+      <c r="G97" s="72">
+        <v>3</v>
+      </c>
+      <c r="H97" s="72">
+        <v>3</v>
+      </c>
+      <c r="I97" s="62" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="98" spans="2:8" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B98" s="60" t="s">
+    <row r="98" spans="2:9" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B98" s="59" t="s">
         <v>9</v>
       </c>
       <c r="C98" s="39" t="s">
@@ -6021,666 +6165,673 @@
       <c r="E98" s="21">
         <v>6</v>
       </c>
-      <c r="F98" s="21"/>
+      <c r="F98" s="21" t="b">
+        <v>1</v>
+      </c>
       <c r="G98" s="21"/>
-      <c r="H98" s="86" t="s">
+      <c r="H98" s="21"/>
+      <c r="I98" s="85" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="99" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B99" s="61" t="s">
+    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B99" s="60" t="s">
         <v>172</v>
       </c>
-      <c r="C99" s="64" t="s">
+      <c r="C99" s="63" t="s">
         <v>250</v>
       </c>
-      <c r="D99" s="72" t="s">
+      <c r="D99" s="71" t="s">
         <v>244</v>
       </c>
-      <c r="E99" s="73"/>
-      <c r="F99" s="73"/>
-      <c r="G99" s="73"/>
-      <c r="H99" s="63" t="s">
+      <c r="E99" s="72"/>
+      <c r="F99" s="72" t="b">
+        <v>1</v>
+      </c>
+      <c r="G99" s="72"/>
+      <c r="H99" s="72"/>
+      <c r="I99" s="62" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="100" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B100" s="7"/>
       <c r="C100" s="7"/>
       <c r="D100" s="7"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
-      <c r="H100" s="38"/>
+      <c r="H100" s="8"/>
+      <c r="I100" s="38"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="H20:H23 H28:H32 H45:H49 H59:H63 H77:H80 H82:H83 H89:H92 H11 Q19:V19 Z19:AE19 AI19:AN19 AR19:AW19 BA19:BF19 BJ19:BO19 BS19:BX19 CB19:CG19 CK19:CP19 CT19:CY19 DC19:DH19 DL19:DQ19 DU19:DZ19 ED19:EI19 EM19:ER19 EV19:FA19 FE19:FJ19 FN19:FS19 FW19:GB19 GF19:GK19 GO19:GT19 GX19:HC19 HG19:HL19 HP19:HU19 HY19:ID19 IH19:IM19 IQ19:IV19 IZ19:JE19 JI19:JN19 JR19:JW19 KA19:KF19 KJ19:KO19 KS19:KX19 LB19:LG19 LK19:LP19 LT19:LY19 MC19:MH19 ML19:MQ19 MU19:MZ19 ND19:NI19 NM19:NR19 NV19:OA19 OE19:OJ19 ON19:OS19 OW19:PB19 PF19:PK19 PO19:PT19 PX19:QC19 QG19:QL19 QP19:QU19 QY19:RD19 RH19:RM19 RQ19:RV19 RZ19:SE19 SI19:SN19 SR19:SW19 TA19:TF19 TJ19:TO19 TS19:TX19 UB19:UG19 UK19:UP19 UT19:UY19 VC19:VH19 VL19:VQ19 VU19:VZ19 WD19:WI19 WM19:WR19 WV19:XA19 XE19:XJ19 XN19:XS19 XW19:YB19 YF19:YK19 YO19:YT19 YX19:ZC19 ZG19:ZL19 ZP19:ZU19 ZY19:AAD19 AAH19:AAM19 AAQ19:AAV19 AAZ19:ABE19 ABI19:ABN19 ABR19:ABW19 ACA19:ACF19 ACJ19:ACO19 ACS19:ACX19 ADB19:ADG19 ADK19:ADP19 ADT19:ADY19 AEC19:AEH19 AEL19:AEQ19 AEU19:AEZ19 AFD19:AFI19 AFM19:AFR19 AFV19:AGA19 AGE19:AGJ19 AGN19:AGS19 AGW19:AHB19 AHF19:AHK19 AHO19:AHT19 AHX19:AIC19 AIG19:AIL19 AIP19:AIU19 AIY19:AJD19 AJH19:AJM19 AJQ19:AJV19 AJZ19:AKE19 AKI19:AKN19 AKR19:AKW19 ALA19:ALF19 ALJ19:ALO19 ALS19:ALX19 AMB19:AMG19 AMK19:AMP19 AMT19:AMY19 ANC19:ANH19 ANL19:ANQ19 ANU19:ANZ19 AOD19:AOI19 AOM19:AOR19 AOV19:APA19 APE19:APJ19 APN19:APS19 APW19:AQB19 AQF19:AQK19 AQO19:AQT19 AQX19:ARC19 ARG19:ARL19 ARP19:ARU19 ARY19:ASD19 ASH19:ASM19 ASQ19:ASV19 ASZ19:ATE19 ATI19:ATN19 ATR19:ATW19 AUA19:AUF19 AUJ19:AUO19 AUS19:AUX19 AVB19:AVG19 AVK19:AVP19 AVT19:AVY19 AWC19:AWH19 AWL19:AWQ19 AWU19:AWZ19 AXD19:AXI19 AXM19:AXR19 AXV19:AYA19 AYE19:AYJ19 AYN19:AYS19 AYW19:AZB19 AZF19:AZK19 AZO19:AZT19 AZX19:BAC19 BAG19:BAL19 BAP19:BAU19 BAY19:BBD19 BBH19:BBM19 BBQ19:BBV19 BBZ19:BCE19 BCI19:BCN19 BCR19:BCW19 BDA19:BDF19 BDJ19:BDO19 BDS19:BDX19 BEB19:BEG19 BEK19:BEP19 BET19:BEY19 BFC19:BFH19 BFL19:BFQ19 BFU19:BFZ19 BGD19:BGI19 BGM19:BGR19 BGV19:BHA19 BHE19:BHJ19 BHN19:BHS19 BHW19:BIB19 BIF19:BIK19 BIO19:BIT19 BIX19:BJC19 BJG19:BJL19 BJP19:BJU19 BJY19:BKD19 BKH19:BKM19 BKQ19:BKV19 BKZ19:BLE19 BLI19:BLN19 BLR19:BLW19 BMA19:BMF19 BMJ19:BMO19 BMS19:BMX19 BNB19:BNG19 BNK19:BNP19 BNT19:BNY19 BOC19:BOH19 BOL19:BOQ19 BOU19:BOZ19 BPD19:BPI19 BPM19:BPR19 BPV19:BQA19 BQE19:BQJ19 BQN19:BQS19 BQW19:BRB19 BRF19:BRK19 BRO19:BRT19 BRX19:BSC19 BSG19:BSL19 BSP19:BSU19 BSY19:BTD19 BTH19:BTM19 BTQ19:BTV19 BTZ19:BUE19 BUI19:BUN19 BUR19:BUW19 BVA19:BVF19 BVJ19:BVO19 BVS19:BVX19 BWB19:BWG19 BWK19:BWP19 BWT19:BWY19 BXC19:BXH19 BXL19:BXQ19 BXU19:BXZ19 BYD19:BYI19 BYM19:BYR19 BYV19:BZA19 BZE19:BZJ19 BZN19:BZS19 BZW19:CAB19 CAF19:CAK19 CAO19:CAT19 CAX19:CBC19 CBG19:CBL19 CBP19:CBU19 CBY19:CCD19 CCH19:CCM19 CCQ19:CCV19 CCZ19:CDE19 CDI19:CDN19 CDR19:CDW19 CEA19:CEF19 CEJ19:CEO19 CES19:CEX19 CFB19:CFG19 CFK19:CFP19 CFT19:CFY19 CGC19:CGH19 CGL19:CGQ19 CGU19:CGZ19 CHD19:CHI19 CHM19:CHR19 CHV19:CIA19 CIE19:CIJ19 CIN19:CIS19 CIW19:CJB19 CJF19:CJK19 CJO19:CJT19 CJX19:CKC19 CKG19:CKL19 CKP19:CKU19 CKY19:CLD19 CLH19:CLM19 CLQ19:CLV19 CLZ19:CME19 CMI19:CMN19 CMR19:CMW19 CNA19:CNF19 CNJ19:CNO19 CNS19:CNX19 COB19:COG19 COK19:COP19 COT19:COY19 CPC19:CPH19 CPL19:CPQ19 CPU19:CPZ19 CQD19:CQI19 CQM19:CQR19 CQV19:CRA19 CRE19:CRJ19 CRN19:CRS19 CRW19:CSB19 CSF19:CSK19 CSO19:CST19 CSX19:CTC19 CTG19:CTL19 CTP19:CTU19 CTY19:CUD19 CUH19:CUM19 CUQ19:CUV19 CUZ19:CVE19 CVI19:CVN19 CVR19:CVW19 CWA19:CWF19 CWJ19:CWO19 CWS19:CWX19 CXB19:CXG19 CXK19:CXP19 CXT19:CXY19 CYC19:CYH19 CYL19:CYQ19 CYU19:CYZ19 CZD19:CZI19 CZM19:CZR19 CZV19:DAA19 DAE19:DAJ19 DAN19:DAS19 DAW19:DBB19 DBF19:DBK19 DBO19:DBT19 DBX19:DCC19 DCG19:DCL19 DCP19:DCU19 DCY19:DDD19 DDH19:DDM19 DDQ19:DDV19 DDZ19:DEE19 DEI19:DEN19 DER19:DEW19 DFA19:DFF19 DFJ19:DFO19 DFS19:DFX19 DGB19:DGG19 DGK19:DGP19 DGT19:DGY19 DHC19:DHH19 DHL19:DHQ19 DHU19:DHZ19 DID19:DII19 DIM19:DIR19 DIV19:DJA19 DJE19:DJJ19 DJN19:DJS19 DJW19:DKB19 DKF19:DKK19 DKO19:DKT19 DKX19:DLC19 DLG19:DLL19 DLP19:DLU19 DLY19:DMD19 DMH19:DMM19 DMQ19:DMV19 DMZ19:DNE19 DNI19:DNN19 DNR19:DNW19 DOA19:DOF19 DOJ19:DOO19 DOS19:DOX19 DPB19:DPG19 DPK19:DPP19 DPT19:DPY19 DQC19:DQH19 DQL19:DQQ19 DQU19:DQZ19 DRD19:DRI19 DRM19:DRR19 DRV19:DSA19 DSE19:DSJ19 DSN19:DSS19 DSW19:DTB19 DTF19:DTK19 DTO19:DTT19 DTX19:DUC19 DUG19:DUL19 DUP19:DUU19 DUY19:DVD19 DVH19:DVM19 DVQ19:DVV19 DVZ19:DWE19 DWI19:DWN19 DWR19:DWW19 DXA19:DXF19 DXJ19:DXO19 DXS19:DXX19 DYB19:DYG19 DYK19:DYP19 DYT19:DYY19 DZC19:DZH19 DZL19:DZQ19 DZU19:DZZ19 EAD19:EAI19 EAM19:EAR19 EAV19:EBA19 EBE19:EBJ19 EBN19:EBS19 EBW19:ECB19 ECF19:ECK19 ECO19:ECT19 ECX19:EDC19 EDG19:EDL19 EDP19:EDU19 EDY19:EED19 EEH19:EEM19 EEQ19:EEV19 EEZ19:EFE19 EFI19:EFN19 EFR19:EFW19 EGA19:EGF19 EGJ19:EGO19 EGS19:EGX19 EHB19:EHG19 EHK19:EHP19 EHT19:EHY19 EIC19:EIH19 EIL19:EIQ19 EIU19:EIZ19 EJD19:EJI19 EJM19:EJR19 EJV19:EKA19 EKE19:EKJ19 EKN19:EKS19 EKW19:ELB19 ELF19:ELK19 ELO19:ELT19 ELX19:EMC19 EMG19:EML19 EMP19:EMU19 EMY19:END19 ENH19:ENM19 ENQ19:ENV19 ENZ19:EOE19 EOI19:EON19 EOR19:EOW19 EPA19:EPF19 EPJ19:EPO19 EPS19:EPX19 EQB19:EQG19 EQK19:EQP19 EQT19:EQY19 ERC19:ERH19 ERL19:ERQ19 ERU19:ERZ19 ESD19:ESI19 ESM19:ESR19 ESV19:ETA19 ETE19:ETJ19 ETN19:ETS19 ETW19:EUB19 EUF19:EUK19 EUO19:EUT19 EUX19:EVC19 EVG19:EVL19 EVP19:EVU19 EVY19:EWD19 EWH19:EWM19 EWQ19:EWV19 EWZ19:EXE19 EXI19:EXN19 EXR19:EXW19 EYA19:EYF19 EYJ19:EYO19 EYS19:EYX19 EZB19:EZG19 EZK19:EZP19 EZT19:EZY19 FAC19:FAH19 FAL19:FAQ19 FAU19:FAZ19 FBD19:FBI19 FBM19:FBR19 FBV19:FCA19 FCE19:FCJ19 FCN19:FCS19 FCW19:FDB19 FDF19:FDK19 FDO19:FDT19 FDX19:FEC19 FEG19:FEL19 FEP19:FEU19 FEY19:FFD19 FFH19:FFM19 FFQ19:FFV19 FFZ19:FGE19 FGI19:FGN19 FGR19:FGW19 FHA19:FHF19 FHJ19:FHO19 FHS19:FHX19 FIB19:FIG19 FIK19:FIP19 FIT19:FIY19 FJC19:FJH19 FJL19:FJQ19 FJU19:FJZ19 FKD19:FKI19 FKM19:FKR19 FKV19:FLA19 FLE19:FLJ19 FLN19:FLS19 FLW19:FMB19 FMF19:FMK19 FMO19:FMT19 FMX19:FNC19 FNG19:FNL19 FNP19:FNU19 FNY19:FOD19 FOH19:FOM19 FOQ19:FOV19 FOZ19:FPE19 FPI19:FPN19 FPR19:FPW19 FQA19:FQF19 FQJ19:FQO19 FQS19:FQX19 FRB19:FRG19 FRK19:FRP19 FRT19:FRY19 FSC19:FSH19 FSL19:FSQ19 FSU19:FSZ19 FTD19:FTI19 FTM19:FTR19 FTV19:FUA19 FUE19:FUJ19 FUN19:FUS19 FUW19:FVB19 FVF19:FVK19 FVO19:FVT19 FVX19:FWC19 FWG19:FWL19 FWP19:FWU19 FWY19:FXD19 FXH19:FXM19 FXQ19:FXV19 FXZ19:FYE19 FYI19:FYN19 FYR19:FYW19 FZA19:FZF19 FZJ19:FZO19 FZS19:FZX19 GAB19:GAG19 GAK19:GAP19 GAT19:GAY19 GBC19:GBH19 GBL19:GBQ19 GBU19:GBZ19 GCD19:GCI19 GCM19:GCR19 GCV19:GDA19 GDE19:GDJ19 GDN19:GDS19 GDW19:GEB19 GEF19:GEK19 GEO19:GET19 GEX19:GFC19 GFG19:GFL19 GFP19:GFU19 GFY19:GGD19 GGH19:GGM19 GGQ19:GGV19 GGZ19:GHE19 GHI19:GHN19 GHR19:GHW19 GIA19:GIF19 GIJ19:GIO19 GIS19:GIX19 GJB19:GJG19 GJK19:GJP19 GJT19:GJY19 GKC19:GKH19 GKL19:GKQ19 GKU19:GKZ19 GLD19:GLI19 GLM19:GLR19 GLV19:GMA19 GME19:GMJ19 GMN19:GMS19 GMW19:GNB19 GNF19:GNK19 GNO19:GNT19 GNX19:GOC19 GOG19:GOL19 GOP19:GOU19 GOY19:GPD19 GPH19:GPM19 GPQ19:GPV19 GPZ19:GQE19 GQI19:GQN19 GQR19:GQW19 GRA19:GRF19 GRJ19:GRO19 GRS19:GRX19 GSB19:GSG19 GSK19:GSP19 GST19:GSY19 GTC19:GTH19 GTL19:GTQ19 GTU19:GTZ19 GUD19:GUI19 GUM19:GUR19 GUV19:GVA19 GVE19:GVJ19 GVN19:GVS19 GVW19:GWB19 GWF19:GWK19 GWO19:GWT19 GWX19:GXC19 GXG19:GXL19 GXP19:GXU19 GXY19:GYD19 GYH19:GYM19 GYQ19:GYV19 GYZ19:GZE19 GZI19:GZN19 GZR19:GZW19 HAA19:HAF19 HAJ19:HAO19 HAS19:HAX19 HBB19:HBG19 HBK19:HBP19 HBT19:HBY19 HCC19:HCH19 HCL19:HCQ19 HCU19:HCZ19 HDD19:HDI19 HDM19:HDR19 HDV19:HEA19 HEE19:HEJ19 HEN19:HES19 HEW19:HFB19 HFF19:HFK19 HFO19:HFT19 HFX19:HGC19 HGG19:HGL19 HGP19:HGU19 HGY19:HHD19 HHH19:HHM19 HHQ19:HHV19 HHZ19:HIE19 HII19:HIN19 HIR19:HIW19 HJA19:HJF19 HJJ19:HJO19 HJS19:HJX19 HKB19:HKG19 HKK19:HKP19 HKT19:HKY19 HLC19:HLH19 HLL19:HLQ19 HLU19:HLZ19 HMD19:HMI19 HMM19:HMR19 HMV19:HNA19 HNE19:HNJ19 HNN19:HNS19 HNW19:HOB19 HOF19:HOK19 HOO19:HOT19 HOX19:HPC19 HPG19:HPL19 HPP19:HPU19 HPY19:HQD19 HQH19:HQM19 HQQ19:HQV19 HQZ19:HRE19 HRI19:HRN19 HRR19:HRW19 HSA19:HSF19 HSJ19:HSO19 HSS19:HSX19 HTB19:HTG19 HTK19:HTP19 HTT19:HTY19 HUC19:HUH19 HUL19:HUQ19 HUU19:HUZ19 HVD19:HVI19 HVM19:HVR19 HVV19:HWA19 HWE19:HWJ19 HWN19:HWS19 HWW19:HXB19 HXF19:HXK19 HXO19:HXT19 HXX19:HYC19 HYG19:HYL19 HYP19:HYU19 HYY19:HZD19 HZH19:HZM19 HZQ19:HZV19 HZZ19:IAE19 IAI19:IAN19 IAR19:IAW19 IBA19:IBF19 IBJ19:IBO19 IBS19:IBX19 ICB19:ICG19 ICK19:ICP19 ICT19:ICY19 IDC19:IDH19 IDL19:IDQ19 IDU19:IDZ19 IED19:IEI19 IEM19:IER19 IEV19:IFA19 IFE19:IFJ19 IFN19:IFS19 IFW19:IGB19 IGF19:IGK19 IGO19:IGT19 IGX19:IHC19 IHG19:IHL19 IHP19:IHU19 IHY19:IID19 IIH19:IIM19 IIQ19:IIV19 IIZ19:IJE19 IJI19:IJN19 IJR19:IJW19 IKA19:IKF19 IKJ19:IKO19 IKS19:IKX19 ILB19:ILG19 ILK19:ILP19 ILT19:ILY19 IMC19:IMH19 IML19:IMQ19 IMU19:IMZ19 IND19:INI19 INM19:INR19 INV19:IOA19 IOE19:IOJ19 ION19:IOS19 IOW19:IPB19 IPF19:IPK19 IPO19:IPT19 IPX19:IQC19 IQG19:IQL19 IQP19:IQU19 IQY19:IRD19 IRH19:IRM19 IRQ19:IRV19 IRZ19:ISE19 ISI19:ISN19 ISR19:ISW19 ITA19:ITF19 ITJ19:ITO19 ITS19:ITX19 IUB19:IUG19 IUK19:IUP19 IUT19:IUY19 IVC19:IVH19 IVL19:IVQ19 IVU19:IVZ19 IWD19:IWI19 IWM19:IWR19 IWV19:IXA19 IXE19:IXJ19 IXN19:IXS19 IXW19:IYB19 IYF19:IYK19 IYO19:IYT19 IYX19:IZC19 IZG19:IZL19 IZP19:IZU19 IZY19:JAD19 JAH19:JAM19 JAQ19:JAV19 JAZ19:JBE19 JBI19:JBN19 JBR19:JBW19 JCA19:JCF19 JCJ19:JCO19 JCS19:JCX19 JDB19:JDG19 JDK19:JDP19 JDT19:JDY19 JEC19:JEH19 JEL19:JEQ19 JEU19:JEZ19 JFD19:JFI19 JFM19:JFR19 JFV19:JGA19 JGE19:JGJ19 JGN19:JGS19 JGW19:JHB19 JHF19:JHK19 JHO19:JHT19 JHX19:JIC19 JIG19:JIL19 JIP19:JIU19 JIY19:JJD19 JJH19:JJM19 JJQ19:JJV19 JJZ19:JKE19 JKI19:JKN19 JKR19:JKW19 JLA19:JLF19 JLJ19:JLO19 JLS19:JLX19 JMB19:JMG19 JMK19:JMP19 JMT19:JMY19 JNC19:JNH19 JNL19:JNQ19 JNU19:JNZ19 JOD19:JOI19 JOM19:JOR19 JOV19:JPA19 JPE19:JPJ19 JPN19:JPS19 JPW19:JQB19 JQF19:JQK19 JQO19:JQT19 JQX19:JRC19 JRG19:JRL19 JRP19:JRU19 JRY19:JSD19 JSH19:JSM19 JSQ19:JSV19 JSZ19:JTE19 JTI19:JTN19 JTR19:JTW19 JUA19:JUF19 JUJ19:JUO19 JUS19:JUX19 JVB19:JVG19 JVK19:JVP19 JVT19:JVY19 JWC19:JWH19 JWL19:JWQ19 JWU19:JWZ19 JXD19:JXI19 JXM19:JXR19 JXV19:JYA19 JYE19:JYJ19 JYN19:JYS19 JYW19:JZB19 JZF19:JZK19 JZO19:JZT19 JZX19:KAC19 KAG19:KAL19 KAP19:KAU19 KAY19:KBD19 KBH19:KBM19 KBQ19:KBV19 KBZ19:KCE19 KCI19:KCN19 KCR19:KCW19 KDA19:KDF19 KDJ19:KDO19 KDS19:KDX19 KEB19:KEG19 KEK19:KEP19 KET19:KEY19 KFC19:KFH19 KFL19:KFQ19 KFU19:KFZ19 KGD19:KGI19 KGM19:KGR19 KGV19:KHA19 KHE19:KHJ19 KHN19:KHS19 KHW19:KIB19 KIF19:KIK19 KIO19:KIT19 KIX19:KJC19 KJG19:KJL19 KJP19:KJU19 KJY19:KKD19 KKH19:KKM19 KKQ19:KKV19 KKZ19:KLE19 KLI19:KLN19 KLR19:KLW19 KMA19:KMF19 KMJ19:KMO19 KMS19:KMX19 KNB19:KNG19 KNK19:KNP19 KNT19:KNY19 KOC19:KOH19 KOL19:KOQ19 KOU19:KOZ19 KPD19:KPI19 KPM19:KPR19 KPV19:KQA19 KQE19:KQJ19 KQN19:KQS19 KQW19:KRB19 KRF19:KRK19 KRO19:KRT19 KRX19:KSC19 KSG19:KSL19 KSP19:KSU19 KSY19:KTD19 KTH19:KTM19 KTQ19:KTV19 KTZ19:KUE19 KUI19:KUN19 KUR19:KUW19 KVA19:KVF19 KVJ19:KVO19 KVS19:KVX19 KWB19:KWG19 KWK19:KWP19 KWT19:KWY19 KXC19:KXH19 KXL19:KXQ19 KXU19:KXZ19 KYD19:KYI19 KYM19:KYR19 KYV19:KZA19 KZE19:KZJ19 KZN19:KZS19 KZW19:LAB19 LAF19:LAK19 LAO19:LAT19 LAX19:LBC19 LBG19:LBL19 LBP19:LBU19 LBY19:LCD19 LCH19:LCM19 LCQ19:LCV19 LCZ19:LDE19 LDI19:LDN19 LDR19:LDW19 LEA19:LEF19 LEJ19:LEO19 LES19:LEX19 LFB19:LFG19 LFK19:LFP19 LFT19:LFY19 LGC19:LGH19 LGL19:LGQ19 LGU19:LGZ19 LHD19:LHI19 LHM19:LHR19 LHV19:LIA19 LIE19:LIJ19 LIN19:LIS19 LIW19:LJB19 LJF19:LJK19 LJO19:LJT19 LJX19:LKC19 LKG19:LKL19 LKP19:LKU19 LKY19:LLD19 LLH19:LLM19 LLQ19:LLV19 LLZ19:LME19 LMI19:LMN19 LMR19:LMW19 LNA19:LNF19 LNJ19:LNO19 LNS19:LNX19 LOB19:LOG19 LOK19:LOP19 LOT19:LOY19 LPC19:LPH19 LPL19:LPQ19 LPU19:LPZ19 LQD19:LQI19 LQM19:LQR19 LQV19:LRA19 LRE19:LRJ19 LRN19:LRS19 LRW19:LSB19 LSF19:LSK19 LSO19:LST19 LSX19:LTC19 LTG19:LTL19 LTP19:LTU19 LTY19:LUD19 LUH19:LUM19 LUQ19:LUV19 LUZ19:LVE19 LVI19:LVN19 LVR19:LVW19 LWA19:LWF19 LWJ19:LWO19 LWS19:LWX19 LXB19:LXG19 LXK19:LXP19 LXT19:LXY19 LYC19:LYH19 LYL19:LYQ19 LYU19:LYZ19 LZD19:LZI19 LZM19:LZR19 LZV19:MAA19 MAE19:MAJ19 MAN19:MAS19 MAW19:MBB19 MBF19:MBK19 MBO19:MBT19 MBX19:MCC19 MCG19:MCL19 MCP19:MCU19 MCY19:MDD19 MDH19:MDM19 MDQ19:MDV19 MDZ19:MEE19 MEI19:MEN19 MER19:MEW19 MFA19:MFF19 MFJ19:MFO19 MFS19:MFX19 MGB19:MGG19 MGK19:MGP19 MGT19:MGY19 MHC19:MHH19 MHL19:MHQ19 MHU19:MHZ19 MID19:MII19 MIM19:MIR19 MIV19:MJA19 MJE19:MJJ19 MJN19:MJS19 MJW19:MKB19 MKF19:MKK19 MKO19:MKT19 MKX19:MLC19 MLG19:MLL19 MLP19:MLU19 MLY19:MMD19 MMH19:MMM19 MMQ19:MMV19 MMZ19:MNE19 MNI19:MNN19 MNR19:MNW19 MOA19:MOF19 MOJ19:MOO19 MOS19:MOX19 MPB19:MPG19 MPK19:MPP19 MPT19:MPY19 MQC19:MQH19 MQL19:MQQ19 MQU19:MQZ19 MRD19:MRI19 MRM19:MRR19 MRV19:MSA19 MSE19:MSJ19 MSN19:MSS19 MSW19:MTB19 MTF19:MTK19 MTO19:MTT19 MTX19:MUC19 MUG19:MUL19 MUP19:MUU19 MUY19:MVD19 MVH19:MVM19 MVQ19:MVV19 MVZ19:MWE19 MWI19:MWN19 MWR19:MWW19 MXA19:MXF19 MXJ19:MXO19 MXS19:MXX19 MYB19:MYG19 MYK19:MYP19 MYT19:MYY19 MZC19:MZH19 MZL19:MZQ19 MZU19:MZZ19 NAD19:NAI19 NAM19:NAR19 NAV19:NBA19 NBE19:NBJ19 NBN19:NBS19 NBW19:NCB19 NCF19:NCK19 NCO19:NCT19 NCX19:NDC19 NDG19:NDL19 NDP19:NDU19 NDY19:NED19 NEH19:NEM19 NEQ19:NEV19 NEZ19:NFE19 NFI19:NFN19 NFR19:NFW19 NGA19:NGF19 NGJ19:NGO19 NGS19:NGX19 NHB19:NHG19 NHK19:NHP19 NHT19:NHY19 NIC19:NIH19 NIL19:NIQ19 NIU19:NIZ19 NJD19:NJI19 NJM19:NJR19 NJV19:NKA19 NKE19:NKJ19 NKN19:NKS19 NKW19:NLB19 NLF19:NLK19 NLO19:NLT19 NLX19:NMC19 NMG19:NML19 NMP19:NMU19 NMY19:NND19 NNH19:NNM19 NNQ19:NNV19 NNZ19:NOE19 NOI19:NON19 NOR19:NOW19 NPA19:NPF19 NPJ19:NPO19 NPS19:NPX19 NQB19:NQG19 NQK19:NQP19 NQT19:NQY19 NRC19:NRH19 NRL19:NRQ19 NRU19:NRZ19 NSD19:NSI19 NSM19:NSR19 NSV19:NTA19 NTE19:NTJ19 NTN19:NTS19 NTW19:NUB19 NUF19:NUK19 NUO19:NUT19 NUX19:NVC19 NVG19:NVL19 NVP19:NVU19 NVY19:NWD19 NWH19:NWM19 NWQ19:NWV19 NWZ19:NXE19 NXI19:NXN19 NXR19:NXW19 NYA19:NYF19 NYJ19:NYO19 NYS19:NYX19 NZB19:NZG19 NZK19:NZP19 NZT19:NZY19 OAC19:OAH19 OAL19:OAQ19 OAU19:OAZ19 OBD19:OBI19 OBM19:OBR19 OBV19:OCA19 OCE19:OCJ19 OCN19:OCS19 OCW19:ODB19 ODF19:ODK19 ODO19:ODT19 ODX19:OEC19 OEG19:OEL19 OEP19:OEU19 OEY19:OFD19 OFH19:OFM19 OFQ19:OFV19 OFZ19:OGE19 OGI19:OGN19 OGR19:OGW19 OHA19:OHF19 OHJ19:OHO19 OHS19:OHX19 OIB19:OIG19 OIK19:OIP19 OIT19:OIY19 OJC19:OJH19 OJL19:OJQ19 OJU19:OJZ19 OKD19:OKI19 OKM19:OKR19 OKV19:OLA19 OLE19:OLJ19 OLN19:OLS19 OLW19:OMB19 OMF19:OMK19 OMO19:OMT19 OMX19:ONC19 ONG19:ONL19 ONP19:ONU19 ONY19:OOD19 OOH19:OOM19 OOQ19:OOV19 OOZ19:OPE19 OPI19:OPN19 OPR19:OPW19 OQA19:OQF19 OQJ19:OQO19 OQS19:OQX19 ORB19:ORG19 ORK19:ORP19 ORT19:ORY19 OSC19:OSH19 OSL19:OSQ19 OSU19:OSZ19 OTD19:OTI19 OTM19:OTR19 OTV19:OUA19 OUE19:OUJ19 OUN19:OUS19 OUW19:OVB19 OVF19:OVK19 OVO19:OVT19 OVX19:OWC19 OWG19:OWL19 OWP19:OWU19 OWY19:OXD19 OXH19:OXM19 OXQ19:OXV19 OXZ19:OYE19 OYI19:OYN19 OYR19:OYW19 OZA19:OZF19 OZJ19:OZO19 OZS19:OZX19 PAB19:PAG19 PAK19:PAP19 PAT19:PAY19 PBC19:PBH19 PBL19:PBQ19 PBU19:PBZ19 PCD19:PCI19 PCM19:PCR19 PCV19:PDA19 PDE19:PDJ19 PDN19:PDS19 PDW19:PEB19 PEF19:PEK19 PEO19:PET19 PEX19:PFC19 PFG19:PFL19 PFP19:PFU19 PFY19:PGD19 PGH19:PGM19 PGQ19:PGV19 PGZ19:PHE19 PHI19:PHN19 PHR19:PHW19 PIA19:PIF19 PIJ19:PIO19 PIS19:PIX19 PJB19:PJG19 PJK19:PJP19 PJT19:PJY19 PKC19:PKH19 PKL19:PKQ19 PKU19:PKZ19 PLD19:PLI19 PLM19:PLR19 PLV19:PMA19 PME19:PMJ19 PMN19:PMS19 PMW19:PNB19 PNF19:PNK19 PNO19:PNT19 PNX19:POC19 POG19:POL19 POP19:POU19 POY19:PPD19 PPH19:PPM19 PPQ19:PPV19 PPZ19:PQE19 PQI19:PQN19 PQR19:PQW19 PRA19:PRF19 PRJ19:PRO19 PRS19:PRX19 PSB19:PSG19 PSK19:PSP19 PST19:PSY19 PTC19:PTH19 PTL19:PTQ19 PTU19:PTZ19 PUD19:PUI19 PUM19:PUR19 PUV19:PVA19 PVE19:PVJ19 PVN19:PVS19 PVW19:PWB19 PWF19:PWK19 PWO19:PWT19 PWX19:PXC19 PXG19:PXL19 PXP19:PXU19 PXY19:PYD19 PYH19:PYM19 PYQ19:PYV19 PYZ19:PZE19 PZI19:PZN19 PZR19:PZW19 QAA19:QAF19 QAJ19:QAO19 QAS19:QAX19 QBB19:QBG19 QBK19:QBP19 QBT19:QBY19 QCC19:QCH19 QCL19:QCQ19 QCU19:QCZ19 QDD19:QDI19 QDM19:QDR19 QDV19:QEA19 QEE19:QEJ19 QEN19:QES19 QEW19:QFB19 QFF19:QFK19 QFO19:QFT19 QFX19:QGC19 QGG19:QGL19 QGP19:QGU19 QGY19:QHD19 QHH19:QHM19 QHQ19:QHV19 QHZ19:QIE19 QII19:QIN19 QIR19:QIW19 QJA19:QJF19 QJJ19:QJO19 QJS19:QJX19 QKB19:QKG19 QKK19:QKP19 QKT19:QKY19 QLC19:QLH19 QLL19:QLQ19 QLU19:QLZ19 QMD19:QMI19 QMM19:QMR19 QMV19:QNA19 QNE19:QNJ19 QNN19:QNS19 QNW19:QOB19 QOF19:QOK19 QOO19:QOT19 QOX19:QPC19 QPG19:QPL19 QPP19:QPU19 QPY19:QQD19 QQH19:QQM19 QQQ19:QQV19 QQZ19:QRE19 QRI19:QRN19 QRR19:QRW19 QSA19:QSF19 QSJ19:QSO19 QSS19:QSX19 QTB19:QTG19 QTK19:QTP19 QTT19:QTY19 QUC19:QUH19 QUL19:QUQ19 QUU19:QUZ19 QVD19:QVI19 QVM19:QVR19 QVV19:QWA19 QWE19:QWJ19 QWN19:QWS19 QWW19:QXB19 QXF19:QXK19 QXO19:QXT19 QXX19:QYC19 QYG19:QYL19 QYP19:QYU19 QYY19:QZD19 QZH19:QZM19 QZQ19:QZV19 QZZ19:RAE19 RAI19:RAN19 RAR19:RAW19 RBA19:RBF19 RBJ19:RBO19 RBS19:RBX19 RCB19:RCG19 RCK19:RCP19 RCT19:RCY19 RDC19:RDH19 RDL19:RDQ19 RDU19:RDZ19 RED19:REI19 REM19:RER19 REV19:RFA19 RFE19:RFJ19 RFN19:RFS19 RFW19:RGB19 RGF19:RGK19 RGO19:RGT19 RGX19:RHC19 RHG19:RHL19 RHP19:RHU19 RHY19:RID19 RIH19:RIM19 RIQ19:RIV19 RIZ19:RJE19 RJI19:RJN19 RJR19:RJW19 RKA19:RKF19 RKJ19:RKO19 RKS19:RKX19 RLB19:RLG19 RLK19:RLP19 RLT19:RLY19 RMC19:RMH19 RML19:RMQ19 RMU19:RMZ19 RND19:RNI19 RNM19:RNR19 RNV19:ROA19 ROE19:ROJ19 RON19:ROS19 ROW19:RPB19 RPF19:RPK19 RPO19:RPT19 RPX19:RQC19 RQG19:RQL19 RQP19:RQU19 RQY19:RRD19 RRH19:RRM19 RRQ19:RRV19 RRZ19:RSE19 RSI19:RSN19 RSR19:RSW19 RTA19:RTF19 RTJ19:RTO19 RTS19:RTX19 RUB19:RUG19 RUK19:RUP19 RUT19:RUY19 RVC19:RVH19 RVL19:RVQ19 RVU19:RVZ19 RWD19:RWI19 RWM19:RWR19 RWV19:RXA19 RXE19:RXJ19 RXN19:RXS19 RXW19:RYB19 RYF19:RYK19 RYO19:RYT19 RYX19:RZC19 RZG19:RZL19 RZP19:RZU19 RZY19:SAD19 SAH19:SAM19 SAQ19:SAV19 SAZ19:SBE19 SBI19:SBN19 SBR19:SBW19 SCA19:SCF19 SCJ19:SCO19 SCS19:SCX19 SDB19:SDG19 SDK19:SDP19 SDT19:SDY19 SEC19:SEH19 SEL19:SEQ19 SEU19:SEZ19 SFD19:SFI19 SFM19:SFR19 SFV19:SGA19 SGE19:SGJ19 SGN19:SGS19 SGW19:SHB19 SHF19:SHK19 SHO19:SHT19 SHX19:SIC19 SIG19:SIL19 SIP19:SIU19 SIY19:SJD19 SJH19:SJM19 SJQ19:SJV19 SJZ19:SKE19 SKI19:SKN19 SKR19:SKW19 SLA19:SLF19 SLJ19:SLO19 SLS19:SLX19 SMB19:SMG19 SMK19:SMP19 SMT19:SMY19 SNC19:SNH19 SNL19:SNQ19 SNU19:SNZ19 SOD19:SOI19 SOM19:SOR19 SOV19:SPA19 SPE19:SPJ19 SPN19:SPS19 SPW19:SQB19 SQF19:SQK19 SQO19:SQT19 SQX19:SRC19 SRG19:SRL19 SRP19:SRU19 SRY19:SSD19 SSH19:SSM19 SSQ19:SSV19 SSZ19:STE19 STI19:STN19 STR19:STW19 SUA19:SUF19 SUJ19:SUO19 SUS19:SUX19 SVB19:SVG19 SVK19:SVP19 SVT19:SVY19 SWC19:SWH19 SWL19:SWQ19 SWU19:SWZ19 SXD19:SXI19 SXM19:SXR19 SXV19:SYA19 SYE19:SYJ19 SYN19:SYS19 SYW19:SZB19 SZF19:SZK19 SZO19:SZT19 SZX19:TAC19 TAG19:TAL19 TAP19:TAU19 TAY19:TBD19 TBH19:TBM19 TBQ19:TBV19 TBZ19:TCE19 TCI19:TCN19 TCR19:TCW19 TDA19:TDF19 TDJ19:TDO19 TDS19:TDX19 TEB19:TEG19 TEK19:TEP19 TET19:TEY19 TFC19:TFH19 TFL19:TFQ19 TFU19:TFZ19 TGD19:TGI19 TGM19:TGR19 TGV19:THA19 THE19:THJ19 THN19:THS19 THW19:TIB19 TIF19:TIK19 TIO19:TIT19 TIX19:TJC19 TJG19:TJL19 TJP19:TJU19 TJY19:TKD19 TKH19:TKM19 TKQ19:TKV19 TKZ19:TLE19 TLI19:TLN19 TLR19:TLW19 TMA19:TMF19 TMJ19:TMO19 TMS19:TMX19 TNB19:TNG19 TNK19:TNP19 TNT19:TNY19 TOC19:TOH19 TOL19:TOQ19 TOU19:TOZ19 TPD19:TPI19 TPM19:TPR19 TPV19:TQA19 TQE19:TQJ19 TQN19:TQS19 TQW19:TRB19 TRF19:TRK19 TRO19:TRT19 TRX19:TSC19 TSG19:TSL19 TSP19:TSU19 TSY19:TTD19 TTH19:TTM19 TTQ19:TTV19 TTZ19:TUE19 TUI19:TUN19 TUR19:TUW19 TVA19:TVF19 TVJ19:TVO19 TVS19:TVX19 TWB19:TWG19 TWK19:TWP19 TWT19:TWY19 TXC19:TXH19 TXL19:TXQ19 TXU19:TXZ19 TYD19:TYI19 TYM19:TYR19 TYV19:TZA19 TZE19:TZJ19 TZN19:TZS19 TZW19:UAB19 UAF19:UAK19 UAO19:UAT19 UAX19:UBC19 UBG19:UBL19 UBP19:UBU19 UBY19:UCD19 UCH19:UCM19 UCQ19:UCV19 UCZ19:UDE19 UDI19:UDN19 UDR19:UDW19 UEA19:UEF19 UEJ19:UEO19 UES19:UEX19 UFB19:UFG19 UFK19:UFP19 UFT19:UFY19 UGC19:UGH19 UGL19:UGQ19 UGU19:UGZ19 UHD19:UHI19 UHM19:UHR19 UHV19:UIA19 UIE19:UIJ19 UIN19:UIS19 UIW19:UJB19 UJF19:UJK19 UJO19:UJT19 UJX19:UKC19 UKG19:UKL19 UKP19:UKU19 UKY19:ULD19 ULH19:ULM19 ULQ19:ULV19 ULZ19:UME19 UMI19:UMN19 UMR19:UMW19 UNA19:UNF19 UNJ19:UNO19 UNS19:UNX19 UOB19:UOG19 UOK19:UOP19 UOT19:UOY19 UPC19:UPH19 UPL19:UPQ19 UPU19:UPZ19 UQD19:UQI19 UQM19:UQR19 UQV19:URA19 URE19:URJ19 URN19:URS19 URW19:USB19 USF19:USK19 USO19:UST19 USX19:UTC19 UTG19:UTL19 UTP19:UTU19 UTY19:UUD19 UUH19:UUM19 UUQ19:UUV19 UUZ19:UVE19 UVI19:UVN19 UVR19:UVW19 UWA19:UWF19 UWJ19:UWO19 UWS19:UWX19 UXB19:UXG19 UXK19:UXP19 UXT19:UXY19 UYC19:UYH19 UYL19:UYQ19 UYU19:UYZ19 UZD19:UZI19 UZM19:UZR19 UZV19:VAA19 VAE19:VAJ19 VAN19:VAS19 VAW19:VBB19 VBF19:VBK19 VBO19:VBT19 VBX19:VCC19 VCG19:VCL19 VCP19:VCU19 VCY19:VDD19 VDH19:VDM19 VDQ19:VDV19 VDZ19:VEE19 VEI19:VEN19 VER19:VEW19 VFA19:VFF19 VFJ19:VFO19 VFS19:VFX19 VGB19:VGG19 VGK19:VGP19 VGT19:VGY19 VHC19:VHH19 VHL19:VHQ19 VHU19:VHZ19 VID19:VII19 VIM19:VIR19 VIV19:VJA19 VJE19:VJJ19 VJN19:VJS19 VJW19:VKB19 VKF19:VKK19 VKO19:VKT19 VKX19:VLC19 VLG19:VLL19 VLP19:VLU19 VLY19:VMD19 VMH19:VMM19 VMQ19:VMV19 VMZ19:VNE19 VNI19:VNN19 VNR19:VNW19 VOA19:VOF19 VOJ19:VOO19 VOS19:VOX19 VPB19:VPG19 VPK19:VPP19 VPT19:VPY19 VQC19:VQH19 VQL19:VQQ19 VQU19:VQZ19 VRD19:VRI19 VRM19:VRR19 VRV19:VSA19 VSE19:VSJ19 VSN19:VSS19 VSW19:VTB19 VTF19:VTK19 VTO19:VTT19 VTX19:VUC19 VUG19:VUL19 VUP19:VUU19 VUY19:VVD19 VVH19:VVM19 VVQ19:VVV19 VVZ19:VWE19 VWI19:VWN19 VWR19:VWW19 VXA19:VXF19 VXJ19:VXO19 VXS19:VXX19 VYB19:VYG19 VYK19:VYP19 VYT19:VYY19 VZC19:VZH19 VZL19:VZQ19 VZU19:VZZ19 WAD19:WAI19 WAM19:WAR19 WAV19:WBA19 WBE19:WBJ19 WBN19:WBS19 WBW19:WCB19 WCF19:WCK19 WCO19:WCT19 WCX19:WDC19 WDG19:WDL19 WDP19:WDU19 WDY19:WED19 WEH19:WEM19 WEQ19:WEV19 WEZ19:WFE19 WFI19:WFN19 WFR19:WFW19 WGA19:WGF19 WGJ19:WGO19 WGS19:WGX19 WHB19:WHG19 WHK19:WHP19 WHT19:WHY19 WIC19:WIH19 WIL19:WIQ19 WIU19:WIZ19 WJD19:WJI19 WJM19:WJR19 WJV19:WKA19 WKE19:WKJ19 WKN19:WKS19 WKW19:WLB19 WLF19:WLK19 WLO19:WLT19 WLX19:WMC19 WMG19:WML19 WMP19:WMU19 WMY19:WND19 WNH19:WNM19 WNQ19:WNV19 WNZ19:WOE19 WOI19:WON19 WOR19:WOW19 WPA19:WPF19 WPJ19:WPO19 WPS19:WPX19 WQB19:WQG19 WQK19:WQP19 WQT19:WQY19 WRC19:WRH19 WRL19:WRQ19 WRU19:WRZ19 WSD19:WSI19 WSM19:WSR19 WSV19:WTA19 WTE19:WTJ19 WTN19:WTS19 WTW19:WUB19 WUF19:WUK19 WUO19:WUT19 WUX19:WVC19 WVG19:WVL19 WVP19:WVU19 WVY19:WWD19 WWH19:WWM19 WWQ19:WWV19 WWZ19:WXE19 WXI19:WXN19 WXR19:WXW19 WYA19:WYF19 WYJ19:WYO19 WYS19:WYX19 WZB19:WZG19 WZK19:WZP19 WZT19:WZY19 XAC19:XAH19 XAL19:XAQ19 XAU19:XAZ19 XBD19:XBI19 XBM19:XBR19 XBV19:XCA19 XCE19:XCJ19 XCN19:XCS19 XCW19:XDB19 XDF19:XDK19 XDO19:XDT19 XDX19:XEC19 XEG19:XEL19 XEP19:XEU19 XEY19:XFD19 H34:H38 H51:H53 H65:H68 H94:H96 H70 H98 B11:E11 B25:E25 H25 B27:E38 B26:C26 B13:E23 H13:H18 B44:E53 B58:E68 B76:E83 B88:E96 B40:E42 B55:E55 H55 H40:H42 H74 B72:E74 B70:E70 B85:E85 H85 B98:E98">
-    <cfRule type="expression" dxfId="199" priority="324">
+  <conditionalFormatting sqref="I20:I23 I28:I32 I45:I49 I59:I63 I77:I80 I82:I83 I89:I92 I11 R19:W19 AA19:AF19 AJ19:AO19 AS19:AX19 BB19:BG19 BK19:BP19 BT19:BY19 CC19:CH19 CL19:CQ19 CU19:CZ19 DD19:DI19 DM19:DR19 DV19:EA19 EE19:EJ19 EN19:ES19 EW19:FB19 FF19:FK19 FO19:FT19 FX19:GC19 GG19:GL19 GP19:GU19 GY19:HD19 HH19:HM19 HQ19:HV19 HZ19:IE19 II19:IN19 IR19:IW19 JA19:JF19 JJ19:JO19 JS19:JX19 KB19:KG19 KK19:KP19 KT19:KY19 LC19:LH19 LL19:LQ19 LU19:LZ19 MD19:MI19 MM19:MR19 MV19:NA19 NE19:NJ19 NN19:NS19 NW19:OB19 OF19:OK19 OO19:OT19 OX19:PC19 PG19:PL19 PP19:PU19 PY19:QD19 QH19:QM19 QQ19:QV19 QZ19:RE19 RI19:RN19 RR19:RW19 SA19:SF19 SJ19:SO19 SS19:SX19 TB19:TG19 TK19:TP19 TT19:TY19 UC19:UH19 UL19:UQ19 UU19:UZ19 VD19:VI19 VM19:VR19 VV19:WA19 WE19:WJ19 WN19:WS19 WW19:XB19 XF19:XK19 XO19:XT19 XX19:YC19 YG19:YL19 YP19:YU19 YY19:ZD19 ZH19:ZM19 ZQ19:ZV19 ZZ19:AAE19 AAI19:AAN19 AAR19:AAW19 ABA19:ABF19 ABJ19:ABO19 ABS19:ABX19 ACB19:ACG19 ACK19:ACP19 ACT19:ACY19 ADC19:ADH19 ADL19:ADQ19 ADU19:ADZ19 AED19:AEI19 AEM19:AER19 AEV19:AFA19 AFE19:AFJ19 AFN19:AFS19 AFW19:AGB19 AGF19:AGK19 AGO19:AGT19 AGX19:AHC19 AHG19:AHL19 AHP19:AHU19 AHY19:AID19 AIH19:AIM19 AIQ19:AIV19 AIZ19:AJE19 AJI19:AJN19 AJR19:AJW19 AKA19:AKF19 AKJ19:AKO19 AKS19:AKX19 ALB19:ALG19 ALK19:ALP19 ALT19:ALY19 AMC19:AMH19 AML19:AMQ19 AMU19:AMZ19 AND19:ANI19 ANM19:ANR19 ANV19:AOA19 AOE19:AOJ19 AON19:AOS19 AOW19:APB19 APF19:APK19 APO19:APT19 APX19:AQC19 AQG19:AQL19 AQP19:AQU19 AQY19:ARD19 ARH19:ARM19 ARQ19:ARV19 ARZ19:ASE19 ASI19:ASN19 ASR19:ASW19 ATA19:ATF19 ATJ19:ATO19 ATS19:ATX19 AUB19:AUG19 AUK19:AUP19 AUT19:AUY19 AVC19:AVH19 AVL19:AVQ19 AVU19:AVZ19 AWD19:AWI19 AWM19:AWR19 AWV19:AXA19 AXE19:AXJ19 AXN19:AXS19 AXW19:AYB19 AYF19:AYK19 AYO19:AYT19 AYX19:AZC19 AZG19:AZL19 AZP19:AZU19 AZY19:BAD19 BAH19:BAM19 BAQ19:BAV19 BAZ19:BBE19 BBI19:BBN19 BBR19:BBW19 BCA19:BCF19 BCJ19:BCO19 BCS19:BCX19 BDB19:BDG19 BDK19:BDP19 BDT19:BDY19 BEC19:BEH19 BEL19:BEQ19 BEU19:BEZ19 BFD19:BFI19 BFM19:BFR19 BFV19:BGA19 BGE19:BGJ19 BGN19:BGS19 BGW19:BHB19 BHF19:BHK19 BHO19:BHT19 BHX19:BIC19 BIG19:BIL19 BIP19:BIU19 BIY19:BJD19 BJH19:BJM19 BJQ19:BJV19 BJZ19:BKE19 BKI19:BKN19 BKR19:BKW19 BLA19:BLF19 BLJ19:BLO19 BLS19:BLX19 BMB19:BMG19 BMK19:BMP19 BMT19:BMY19 BNC19:BNH19 BNL19:BNQ19 BNU19:BNZ19 BOD19:BOI19 BOM19:BOR19 BOV19:BPA19 BPE19:BPJ19 BPN19:BPS19 BPW19:BQB19 BQF19:BQK19 BQO19:BQT19 BQX19:BRC19 BRG19:BRL19 BRP19:BRU19 BRY19:BSD19 BSH19:BSM19 BSQ19:BSV19 BSZ19:BTE19 BTI19:BTN19 BTR19:BTW19 BUA19:BUF19 BUJ19:BUO19 BUS19:BUX19 BVB19:BVG19 BVK19:BVP19 BVT19:BVY19 BWC19:BWH19 BWL19:BWQ19 BWU19:BWZ19 BXD19:BXI19 BXM19:BXR19 BXV19:BYA19 BYE19:BYJ19 BYN19:BYS19 BYW19:BZB19 BZF19:BZK19 BZO19:BZT19 BZX19:CAC19 CAG19:CAL19 CAP19:CAU19 CAY19:CBD19 CBH19:CBM19 CBQ19:CBV19 CBZ19:CCE19 CCI19:CCN19 CCR19:CCW19 CDA19:CDF19 CDJ19:CDO19 CDS19:CDX19 CEB19:CEG19 CEK19:CEP19 CET19:CEY19 CFC19:CFH19 CFL19:CFQ19 CFU19:CFZ19 CGD19:CGI19 CGM19:CGR19 CGV19:CHA19 CHE19:CHJ19 CHN19:CHS19 CHW19:CIB19 CIF19:CIK19 CIO19:CIT19 CIX19:CJC19 CJG19:CJL19 CJP19:CJU19 CJY19:CKD19 CKH19:CKM19 CKQ19:CKV19 CKZ19:CLE19 CLI19:CLN19 CLR19:CLW19 CMA19:CMF19 CMJ19:CMO19 CMS19:CMX19 CNB19:CNG19 CNK19:CNP19 CNT19:CNY19 COC19:COH19 COL19:COQ19 COU19:COZ19 CPD19:CPI19 CPM19:CPR19 CPV19:CQA19 CQE19:CQJ19 CQN19:CQS19 CQW19:CRB19 CRF19:CRK19 CRO19:CRT19 CRX19:CSC19 CSG19:CSL19 CSP19:CSU19 CSY19:CTD19 CTH19:CTM19 CTQ19:CTV19 CTZ19:CUE19 CUI19:CUN19 CUR19:CUW19 CVA19:CVF19 CVJ19:CVO19 CVS19:CVX19 CWB19:CWG19 CWK19:CWP19 CWT19:CWY19 CXC19:CXH19 CXL19:CXQ19 CXU19:CXZ19 CYD19:CYI19 CYM19:CYR19 CYV19:CZA19 CZE19:CZJ19 CZN19:CZS19 CZW19:DAB19 DAF19:DAK19 DAO19:DAT19 DAX19:DBC19 DBG19:DBL19 DBP19:DBU19 DBY19:DCD19 DCH19:DCM19 DCQ19:DCV19 DCZ19:DDE19 DDI19:DDN19 DDR19:DDW19 DEA19:DEF19 DEJ19:DEO19 DES19:DEX19 DFB19:DFG19 DFK19:DFP19 DFT19:DFY19 DGC19:DGH19 DGL19:DGQ19 DGU19:DGZ19 DHD19:DHI19 DHM19:DHR19 DHV19:DIA19 DIE19:DIJ19 DIN19:DIS19 DIW19:DJB19 DJF19:DJK19 DJO19:DJT19 DJX19:DKC19 DKG19:DKL19 DKP19:DKU19 DKY19:DLD19 DLH19:DLM19 DLQ19:DLV19 DLZ19:DME19 DMI19:DMN19 DMR19:DMW19 DNA19:DNF19 DNJ19:DNO19 DNS19:DNX19 DOB19:DOG19 DOK19:DOP19 DOT19:DOY19 DPC19:DPH19 DPL19:DPQ19 DPU19:DPZ19 DQD19:DQI19 DQM19:DQR19 DQV19:DRA19 DRE19:DRJ19 DRN19:DRS19 DRW19:DSB19 DSF19:DSK19 DSO19:DST19 DSX19:DTC19 DTG19:DTL19 DTP19:DTU19 DTY19:DUD19 DUH19:DUM19 DUQ19:DUV19 DUZ19:DVE19 DVI19:DVN19 DVR19:DVW19 DWA19:DWF19 DWJ19:DWO19 DWS19:DWX19 DXB19:DXG19 DXK19:DXP19 DXT19:DXY19 DYC19:DYH19 DYL19:DYQ19 DYU19:DYZ19 DZD19:DZI19 DZM19:DZR19 DZV19:EAA19 EAE19:EAJ19 EAN19:EAS19 EAW19:EBB19 EBF19:EBK19 EBO19:EBT19 EBX19:ECC19 ECG19:ECL19 ECP19:ECU19 ECY19:EDD19 EDH19:EDM19 EDQ19:EDV19 EDZ19:EEE19 EEI19:EEN19 EER19:EEW19 EFA19:EFF19 EFJ19:EFO19 EFS19:EFX19 EGB19:EGG19 EGK19:EGP19 EGT19:EGY19 EHC19:EHH19 EHL19:EHQ19 EHU19:EHZ19 EID19:EII19 EIM19:EIR19 EIV19:EJA19 EJE19:EJJ19 EJN19:EJS19 EJW19:EKB19 EKF19:EKK19 EKO19:EKT19 EKX19:ELC19 ELG19:ELL19 ELP19:ELU19 ELY19:EMD19 EMH19:EMM19 EMQ19:EMV19 EMZ19:ENE19 ENI19:ENN19 ENR19:ENW19 EOA19:EOF19 EOJ19:EOO19 EOS19:EOX19 EPB19:EPG19 EPK19:EPP19 EPT19:EPY19 EQC19:EQH19 EQL19:EQQ19 EQU19:EQZ19 ERD19:ERI19 ERM19:ERR19 ERV19:ESA19 ESE19:ESJ19 ESN19:ESS19 ESW19:ETB19 ETF19:ETK19 ETO19:ETT19 ETX19:EUC19 EUG19:EUL19 EUP19:EUU19 EUY19:EVD19 EVH19:EVM19 EVQ19:EVV19 EVZ19:EWE19 EWI19:EWN19 EWR19:EWW19 EXA19:EXF19 EXJ19:EXO19 EXS19:EXX19 EYB19:EYG19 EYK19:EYP19 EYT19:EYY19 EZC19:EZH19 EZL19:EZQ19 EZU19:EZZ19 FAD19:FAI19 FAM19:FAR19 FAV19:FBA19 FBE19:FBJ19 FBN19:FBS19 FBW19:FCB19 FCF19:FCK19 FCO19:FCT19 FCX19:FDC19 FDG19:FDL19 FDP19:FDU19 FDY19:FED19 FEH19:FEM19 FEQ19:FEV19 FEZ19:FFE19 FFI19:FFN19 FFR19:FFW19 FGA19:FGF19 FGJ19:FGO19 FGS19:FGX19 FHB19:FHG19 FHK19:FHP19 FHT19:FHY19 FIC19:FIH19 FIL19:FIQ19 FIU19:FIZ19 FJD19:FJI19 FJM19:FJR19 FJV19:FKA19 FKE19:FKJ19 FKN19:FKS19 FKW19:FLB19 FLF19:FLK19 FLO19:FLT19 FLX19:FMC19 FMG19:FML19 FMP19:FMU19 FMY19:FND19 FNH19:FNM19 FNQ19:FNV19 FNZ19:FOE19 FOI19:FON19 FOR19:FOW19 FPA19:FPF19 FPJ19:FPO19 FPS19:FPX19 FQB19:FQG19 FQK19:FQP19 FQT19:FQY19 FRC19:FRH19 FRL19:FRQ19 FRU19:FRZ19 FSD19:FSI19 FSM19:FSR19 FSV19:FTA19 FTE19:FTJ19 FTN19:FTS19 FTW19:FUB19 FUF19:FUK19 FUO19:FUT19 FUX19:FVC19 FVG19:FVL19 FVP19:FVU19 FVY19:FWD19 FWH19:FWM19 FWQ19:FWV19 FWZ19:FXE19 FXI19:FXN19 FXR19:FXW19 FYA19:FYF19 FYJ19:FYO19 FYS19:FYX19 FZB19:FZG19 FZK19:FZP19 FZT19:FZY19 GAC19:GAH19 GAL19:GAQ19 GAU19:GAZ19 GBD19:GBI19 GBM19:GBR19 GBV19:GCA19 GCE19:GCJ19 GCN19:GCS19 GCW19:GDB19 GDF19:GDK19 GDO19:GDT19 GDX19:GEC19 GEG19:GEL19 GEP19:GEU19 GEY19:GFD19 GFH19:GFM19 GFQ19:GFV19 GFZ19:GGE19 GGI19:GGN19 GGR19:GGW19 GHA19:GHF19 GHJ19:GHO19 GHS19:GHX19 GIB19:GIG19 GIK19:GIP19 GIT19:GIY19 GJC19:GJH19 GJL19:GJQ19 GJU19:GJZ19 GKD19:GKI19 GKM19:GKR19 GKV19:GLA19 GLE19:GLJ19 GLN19:GLS19 GLW19:GMB19 GMF19:GMK19 GMO19:GMT19 GMX19:GNC19 GNG19:GNL19 GNP19:GNU19 GNY19:GOD19 GOH19:GOM19 GOQ19:GOV19 GOZ19:GPE19 GPI19:GPN19 GPR19:GPW19 GQA19:GQF19 GQJ19:GQO19 GQS19:GQX19 GRB19:GRG19 GRK19:GRP19 GRT19:GRY19 GSC19:GSH19 GSL19:GSQ19 GSU19:GSZ19 GTD19:GTI19 GTM19:GTR19 GTV19:GUA19 GUE19:GUJ19 GUN19:GUS19 GUW19:GVB19 GVF19:GVK19 GVO19:GVT19 GVX19:GWC19 GWG19:GWL19 GWP19:GWU19 GWY19:GXD19 GXH19:GXM19 GXQ19:GXV19 GXZ19:GYE19 GYI19:GYN19 GYR19:GYW19 GZA19:GZF19 GZJ19:GZO19 GZS19:GZX19 HAB19:HAG19 HAK19:HAP19 HAT19:HAY19 HBC19:HBH19 HBL19:HBQ19 HBU19:HBZ19 HCD19:HCI19 HCM19:HCR19 HCV19:HDA19 HDE19:HDJ19 HDN19:HDS19 HDW19:HEB19 HEF19:HEK19 HEO19:HET19 HEX19:HFC19 HFG19:HFL19 HFP19:HFU19 HFY19:HGD19 HGH19:HGM19 HGQ19:HGV19 HGZ19:HHE19 HHI19:HHN19 HHR19:HHW19 HIA19:HIF19 HIJ19:HIO19 HIS19:HIX19 HJB19:HJG19 HJK19:HJP19 HJT19:HJY19 HKC19:HKH19 HKL19:HKQ19 HKU19:HKZ19 HLD19:HLI19 HLM19:HLR19 HLV19:HMA19 HME19:HMJ19 HMN19:HMS19 HMW19:HNB19 HNF19:HNK19 HNO19:HNT19 HNX19:HOC19 HOG19:HOL19 HOP19:HOU19 HOY19:HPD19 HPH19:HPM19 HPQ19:HPV19 HPZ19:HQE19 HQI19:HQN19 HQR19:HQW19 HRA19:HRF19 HRJ19:HRO19 HRS19:HRX19 HSB19:HSG19 HSK19:HSP19 HST19:HSY19 HTC19:HTH19 HTL19:HTQ19 HTU19:HTZ19 HUD19:HUI19 HUM19:HUR19 HUV19:HVA19 HVE19:HVJ19 HVN19:HVS19 HVW19:HWB19 HWF19:HWK19 HWO19:HWT19 HWX19:HXC19 HXG19:HXL19 HXP19:HXU19 HXY19:HYD19 HYH19:HYM19 HYQ19:HYV19 HYZ19:HZE19 HZI19:HZN19 HZR19:HZW19 IAA19:IAF19 IAJ19:IAO19 IAS19:IAX19 IBB19:IBG19 IBK19:IBP19 IBT19:IBY19 ICC19:ICH19 ICL19:ICQ19 ICU19:ICZ19 IDD19:IDI19 IDM19:IDR19 IDV19:IEA19 IEE19:IEJ19 IEN19:IES19 IEW19:IFB19 IFF19:IFK19 IFO19:IFT19 IFX19:IGC19 IGG19:IGL19 IGP19:IGU19 IGY19:IHD19 IHH19:IHM19 IHQ19:IHV19 IHZ19:IIE19 III19:IIN19 IIR19:IIW19 IJA19:IJF19 IJJ19:IJO19 IJS19:IJX19 IKB19:IKG19 IKK19:IKP19 IKT19:IKY19 ILC19:ILH19 ILL19:ILQ19 ILU19:ILZ19 IMD19:IMI19 IMM19:IMR19 IMV19:INA19 INE19:INJ19 INN19:INS19 INW19:IOB19 IOF19:IOK19 IOO19:IOT19 IOX19:IPC19 IPG19:IPL19 IPP19:IPU19 IPY19:IQD19 IQH19:IQM19 IQQ19:IQV19 IQZ19:IRE19 IRI19:IRN19 IRR19:IRW19 ISA19:ISF19 ISJ19:ISO19 ISS19:ISX19 ITB19:ITG19 ITK19:ITP19 ITT19:ITY19 IUC19:IUH19 IUL19:IUQ19 IUU19:IUZ19 IVD19:IVI19 IVM19:IVR19 IVV19:IWA19 IWE19:IWJ19 IWN19:IWS19 IWW19:IXB19 IXF19:IXK19 IXO19:IXT19 IXX19:IYC19 IYG19:IYL19 IYP19:IYU19 IYY19:IZD19 IZH19:IZM19 IZQ19:IZV19 IZZ19:JAE19 JAI19:JAN19 JAR19:JAW19 JBA19:JBF19 JBJ19:JBO19 JBS19:JBX19 JCB19:JCG19 JCK19:JCP19 JCT19:JCY19 JDC19:JDH19 JDL19:JDQ19 JDU19:JDZ19 JED19:JEI19 JEM19:JER19 JEV19:JFA19 JFE19:JFJ19 JFN19:JFS19 JFW19:JGB19 JGF19:JGK19 JGO19:JGT19 JGX19:JHC19 JHG19:JHL19 JHP19:JHU19 JHY19:JID19 JIH19:JIM19 JIQ19:JIV19 JIZ19:JJE19 JJI19:JJN19 JJR19:JJW19 JKA19:JKF19 JKJ19:JKO19 JKS19:JKX19 JLB19:JLG19 JLK19:JLP19 JLT19:JLY19 JMC19:JMH19 JML19:JMQ19 JMU19:JMZ19 JND19:JNI19 JNM19:JNR19 JNV19:JOA19 JOE19:JOJ19 JON19:JOS19 JOW19:JPB19 JPF19:JPK19 JPO19:JPT19 JPX19:JQC19 JQG19:JQL19 JQP19:JQU19 JQY19:JRD19 JRH19:JRM19 JRQ19:JRV19 JRZ19:JSE19 JSI19:JSN19 JSR19:JSW19 JTA19:JTF19 JTJ19:JTO19 JTS19:JTX19 JUB19:JUG19 JUK19:JUP19 JUT19:JUY19 JVC19:JVH19 JVL19:JVQ19 JVU19:JVZ19 JWD19:JWI19 JWM19:JWR19 JWV19:JXA19 JXE19:JXJ19 JXN19:JXS19 JXW19:JYB19 JYF19:JYK19 JYO19:JYT19 JYX19:JZC19 JZG19:JZL19 JZP19:JZU19 JZY19:KAD19 KAH19:KAM19 KAQ19:KAV19 KAZ19:KBE19 KBI19:KBN19 KBR19:KBW19 KCA19:KCF19 KCJ19:KCO19 KCS19:KCX19 KDB19:KDG19 KDK19:KDP19 KDT19:KDY19 KEC19:KEH19 KEL19:KEQ19 KEU19:KEZ19 KFD19:KFI19 KFM19:KFR19 KFV19:KGA19 KGE19:KGJ19 KGN19:KGS19 KGW19:KHB19 KHF19:KHK19 KHO19:KHT19 KHX19:KIC19 KIG19:KIL19 KIP19:KIU19 KIY19:KJD19 KJH19:KJM19 KJQ19:KJV19 KJZ19:KKE19 KKI19:KKN19 KKR19:KKW19 KLA19:KLF19 KLJ19:KLO19 KLS19:KLX19 KMB19:KMG19 KMK19:KMP19 KMT19:KMY19 KNC19:KNH19 KNL19:KNQ19 KNU19:KNZ19 KOD19:KOI19 KOM19:KOR19 KOV19:KPA19 KPE19:KPJ19 KPN19:KPS19 KPW19:KQB19 KQF19:KQK19 KQO19:KQT19 KQX19:KRC19 KRG19:KRL19 KRP19:KRU19 KRY19:KSD19 KSH19:KSM19 KSQ19:KSV19 KSZ19:KTE19 KTI19:KTN19 KTR19:KTW19 KUA19:KUF19 KUJ19:KUO19 KUS19:KUX19 KVB19:KVG19 KVK19:KVP19 KVT19:KVY19 KWC19:KWH19 KWL19:KWQ19 KWU19:KWZ19 KXD19:KXI19 KXM19:KXR19 KXV19:KYA19 KYE19:KYJ19 KYN19:KYS19 KYW19:KZB19 KZF19:KZK19 KZO19:KZT19 KZX19:LAC19 LAG19:LAL19 LAP19:LAU19 LAY19:LBD19 LBH19:LBM19 LBQ19:LBV19 LBZ19:LCE19 LCI19:LCN19 LCR19:LCW19 LDA19:LDF19 LDJ19:LDO19 LDS19:LDX19 LEB19:LEG19 LEK19:LEP19 LET19:LEY19 LFC19:LFH19 LFL19:LFQ19 LFU19:LFZ19 LGD19:LGI19 LGM19:LGR19 LGV19:LHA19 LHE19:LHJ19 LHN19:LHS19 LHW19:LIB19 LIF19:LIK19 LIO19:LIT19 LIX19:LJC19 LJG19:LJL19 LJP19:LJU19 LJY19:LKD19 LKH19:LKM19 LKQ19:LKV19 LKZ19:LLE19 LLI19:LLN19 LLR19:LLW19 LMA19:LMF19 LMJ19:LMO19 LMS19:LMX19 LNB19:LNG19 LNK19:LNP19 LNT19:LNY19 LOC19:LOH19 LOL19:LOQ19 LOU19:LOZ19 LPD19:LPI19 LPM19:LPR19 LPV19:LQA19 LQE19:LQJ19 LQN19:LQS19 LQW19:LRB19 LRF19:LRK19 LRO19:LRT19 LRX19:LSC19 LSG19:LSL19 LSP19:LSU19 LSY19:LTD19 LTH19:LTM19 LTQ19:LTV19 LTZ19:LUE19 LUI19:LUN19 LUR19:LUW19 LVA19:LVF19 LVJ19:LVO19 LVS19:LVX19 LWB19:LWG19 LWK19:LWP19 LWT19:LWY19 LXC19:LXH19 LXL19:LXQ19 LXU19:LXZ19 LYD19:LYI19 LYM19:LYR19 LYV19:LZA19 LZE19:LZJ19 LZN19:LZS19 LZW19:MAB19 MAF19:MAK19 MAO19:MAT19 MAX19:MBC19 MBG19:MBL19 MBP19:MBU19 MBY19:MCD19 MCH19:MCM19 MCQ19:MCV19 MCZ19:MDE19 MDI19:MDN19 MDR19:MDW19 MEA19:MEF19 MEJ19:MEO19 MES19:MEX19 MFB19:MFG19 MFK19:MFP19 MFT19:MFY19 MGC19:MGH19 MGL19:MGQ19 MGU19:MGZ19 MHD19:MHI19 MHM19:MHR19 MHV19:MIA19 MIE19:MIJ19 MIN19:MIS19 MIW19:MJB19 MJF19:MJK19 MJO19:MJT19 MJX19:MKC19 MKG19:MKL19 MKP19:MKU19 MKY19:MLD19 MLH19:MLM19 MLQ19:MLV19 MLZ19:MME19 MMI19:MMN19 MMR19:MMW19 MNA19:MNF19 MNJ19:MNO19 MNS19:MNX19 MOB19:MOG19 MOK19:MOP19 MOT19:MOY19 MPC19:MPH19 MPL19:MPQ19 MPU19:MPZ19 MQD19:MQI19 MQM19:MQR19 MQV19:MRA19 MRE19:MRJ19 MRN19:MRS19 MRW19:MSB19 MSF19:MSK19 MSO19:MST19 MSX19:MTC19 MTG19:MTL19 MTP19:MTU19 MTY19:MUD19 MUH19:MUM19 MUQ19:MUV19 MUZ19:MVE19 MVI19:MVN19 MVR19:MVW19 MWA19:MWF19 MWJ19:MWO19 MWS19:MWX19 MXB19:MXG19 MXK19:MXP19 MXT19:MXY19 MYC19:MYH19 MYL19:MYQ19 MYU19:MYZ19 MZD19:MZI19 MZM19:MZR19 MZV19:NAA19 NAE19:NAJ19 NAN19:NAS19 NAW19:NBB19 NBF19:NBK19 NBO19:NBT19 NBX19:NCC19 NCG19:NCL19 NCP19:NCU19 NCY19:NDD19 NDH19:NDM19 NDQ19:NDV19 NDZ19:NEE19 NEI19:NEN19 NER19:NEW19 NFA19:NFF19 NFJ19:NFO19 NFS19:NFX19 NGB19:NGG19 NGK19:NGP19 NGT19:NGY19 NHC19:NHH19 NHL19:NHQ19 NHU19:NHZ19 NID19:NII19 NIM19:NIR19 NIV19:NJA19 NJE19:NJJ19 NJN19:NJS19 NJW19:NKB19 NKF19:NKK19 NKO19:NKT19 NKX19:NLC19 NLG19:NLL19 NLP19:NLU19 NLY19:NMD19 NMH19:NMM19 NMQ19:NMV19 NMZ19:NNE19 NNI19:NNN19 NNR19:NNW19 NOA19:NOF19 NOJ19:NOO19 NOS19:NOX19 NPB19:NPG19 NPK19:NPP19 NPT19:NPY19 NQC19:NQH19 NQL19:NQQ19 NQU19:NQZ19 NRD19:NRI19 NRM19:NRR19 NRV19:NSA19 NSE19:NSJ19 NSN19:NSS19 NSW19:NTB19 NTF19:NTK19 NTO19:NTT19 NTX19:NUC19 NUG19:NUL19 NUP19:NUU19 NUY19:NVD19 NVH19:NVM19 NVQ19:NVV19 NVZ19:NWE19 NWI19:NWN19 NWR19:NWW19 NXA19:NXF19 NXJ19:NXO19 NXS19:NXX19 NYB19:NYG19 NYK19:NYP19 NYT19:NYY19 NZC19:NZH19 NZL19:NZQ19 NZU19:NZZ19 OAD19:OAI19 OAM19:OAR19 OAV19:OBA19 OBE19:OBJ19 OBN19:OBS19 OBW19:OCB19 OCF19:OCK19 OCO19:OCT19 OCX19:ODC19 ODG19:ODL19 ODP19:ODU19 ODY19:OED19 OEH19:OEM19 OEQ19:OEV19 OEZ19:OFE19 OFI19:OFN19 OFR19:OFW19 OGA19:OGF19 OGJ19:OGO19 OGS19:OGX19 OHB19:OHG19 OHK19:OHP19 OHT19:OHY19 OIC19:OIH19 OIL19:OIQ19 OIU19:OIZ19 OJD19:OJI19 OJM19:OJR19 OJV19:OKA19 OKE19:OKJ19 OKN19:OKS19 OKW19:OLB19 OLF19:OLK19 OLO19:OLT19 OLX19:OMC19 OMG19:OML19 OMP19:OMU19 OMY19:OND19 ONH19:ONM19 ONQ19:ONV19 ONZ19:OOE19 OOI19:OON19 OOR19:OOW19 OPA19:OPF19 OPJ19:OPO19 OPS19:OPX19 OQB19:OQG19 OQK19:OQP19 OQT19:OQY19 ORC19:ORH19 ORL19:ORQ19 ORU19:ORZ19 OSD19:OSI19 OSM19:OSR19 OSV19:OTA19 OTE19:OTJ19 OTN19:OTS19 OTW19:OUB19 OUF19:OUK19 OUO19:OUT19 OUX19:OVC19 OVG19:OVL19 OVP19:OVU19 OVY19:OWD19 OWH19:OWM19 OWQ19:OWV19 OWZ19:OXE19 OXI19:OXN19 OXR19:OXW19 OYA19:OYF19 OYJ19:OYO19 OYS19:OYX19 OZB19:OZG19 OZK19:OZP19 OZT19:OZY19 PAC19:PAH19 PAL19:PAQ19 PAU19:PAZ19 PBD19:PBI19 PBM19:PBR19 PBV19:PCA19 PCE19:PCJ19 PCN19:PCS19 PCW19:PDB19 PDF19:PDK19 PDO19:PDT19 PDX19:PEC19 PEG19:PEL19 PEP19:PEU19 PEY19:PFD19 PFH19:PFM19 PFQ19:PFV19 PFZ19:PGE19 PGI19:PGN19 PGR19:PGW19 PHA19:PHF19 PHJ19:PHO19 PHS19:PHX19 PIB19:PIG19 PIK19:PIP19 PIT19:PIY19 PJC19:PJH19 PJL19:PJQ19 PJU19:PJZ19 PKD19:PKI19 PKM19:PKR19 PKV19:PLA19 PLE19:PLJ19 PLN19:PLS19 PLW19:PMB19 PMF19:PMK19 PMO19:PMT19 PMX19:PNC19 PNG19:PNL19 PNP19:PNU19 PNY19:POD19 POH19:POM19 POQ19:POV19 POZ19:PPE19 PPI19:PPN19 PPR19:PPW19 PQA19:PQF19 PQJ19:PQO19 PQS19:PQX19 PRB19:PRG19 PRK19:PRP19 PRT19:PRY19 PSC19:PSH19 PSL19:PSQ19 PSU19:PSZ19 PTD19:PTI19 PTM19:PTR19 PTV19:PUA19 PUE19:PUJ19 PUN19:PUS19 PUW19:PVB19 PVF19:PVK19 PVO19:PVT19 PVX19:PWC19 PWG19:PWL19 PWP19:PWU19 PWY19:PXD19 PXH19:PXM19 PXQ19:PXV19 PXZ19:PYE19 PYI19:PYN19 PYR19:PYW19 PZA19:PZF19 PZJ19:PZO19 PZS19:PZX19 QAB19:QAG19 QAK19:QAP19 QAT19:QAY19 QBC19:QBH19 QBL19:QBQ19 QBU19:QBZ19 QCD19:QCI19 QCM19:QCR19 QCV19:QDA19 QDE19:QDJ19 QDN19:QDS19 QDW19:QEB19 QEF19:QEK19 QEO19:QET19 QEX19:QFC19 QFG19:QFL19 QFP19:QFU19 QFY19:QGD19 QGH19:QGM19 QGQ19:QGV19 QGZ19:QHE19 QHI19:QHN19 QHR19:QHW19 QIA19:QIF19 QIJ19:QIO19 QIS19:QIX19 QJB19:QJG19 QJK19:QJP19 QJT19:QJY19 QKC19:QKH19 QKL19:QKQ19 QKU19:QKZ19 QLD19:QLI19 QLM19:QLR19 QLV19:QMA19 QME19:QMJ19 QMN19:QMS19 QMW19:QNB19 QNF19:QNK19 QNO19:QNT19 QNX19:QOC19 QOG19:QOL19 QOP19:QOU19 QOY19:QPD19 QPH19:QPM19 QPQ19:QPV19 QPZ19:QQE19 QQI19:QQN19 QQR19:QQW19 QRA19:QRF19 QRJ19:QRO19 QRS19:QRX19 QSB19:QSG19 QSK19:QSP19 QST19:QSY19 QTC19:QTH19 QTL19:QTQ19 QTU19:QTZ19 QUD19:QUI19 QUM19:QUR19 QUV19:QVA19 QVE19:QVJ19 QVN19:QVS19 QVW19:QWB19 QWF19:QWK19 QWO19:QWT19 QWX19:QXC19 QXG19:QXL19 QXP19:QXU19 QXY19:QYD19 QYH19:QYM19 QYQ19:QYV19 QYZ19:QZE19 QZI19:QZN19 QZR19:QZW19 RAA19:RAF19 RAJ19:RAO19 RAS19:RAX19 RBB19:RBG19 RBK19:RBP19 RBT19:RBY19 RCC19:RCH19 RCL19:RCQ19 RCU19:RCZ19 RDD19:RDI19 RDM19:RDR19 RDV19:REA19 REE19:REJ19 REN19:RES19 REW19:RFB19 RFF19:RFK19 RFO19:RFT19 RFX19:RGC19 RGG19:RGL19 RGP19:RGU19 RGY19:RHD19 RHH19:RHM19 RHQ19:RHV19 RHZ19:RIE19 RII19:RIN19 RIR19:RIW19 RJA19:RJF19 RJJ19:RJO19 RJS19:RJX19 RKB19:RKG19 RKK19:RKP19 RKT19:RKY19 RLC19:RLH19 RLL19:RLQ19 RLU19:RLZ19 RMD19:RMI19 RMM19:RMR19 RMV19:RNA19 RNE19:RNJ19 RNN19:RNS19 RNW19:ROB19 ROF19:ROK19 ROO19:ROT19 ROX19:RPC19 RPG19:RPL19 RPP19:RPU19 RPY19:RQD19 RQH19:RQM19 RQQ19:RQV19 RQZ19:RRE19 RRI19:RRN19 RRR19:RRW19 RSA19:RSF19 RSJ19:RSO19 RSS19:RSX19 RTB19:RTG19 RTK19:RTP19 RTT19:RTY19 RUC19:RUH19 RUL19:RUQ19 RUU19:RUZ19 RVD19:RVI19 RVM19:RVR19 RVV19:RWA19 RWE19:RWJ19 RWN19:RWS19 RWW19:RXB19 RXF19:RXK19 RXO19:RXT19 RXX19:RYC19 RYG19:RYL19 RYP19:RYU19 RYY19:RZD19 RZH19:RZM19 RZQ19:RZV19 RZZ19:SAE19 SAI19:SAN19 SAR19:SAW19 SBA19:SBF19 SBJ19:SBO19 SBS19:SBX19 SCB19:SCG19 SCK19:SCP19 SCT19:SCY19 SDC19:SDH19 SDL19:SDQ19 SDU19:SDZ19 SED19:SEI19 SEM19:SER19 SEV19:SFA19 SFE19:SFJ19 SFN19:SFS19 SFW19:SGB19 SGF19:SGK19 SGO19:SGT19 SGX19:SHC19 SHG19:SHL19 SHP19:SHU19 SHY19:SID19 SIH19:SIM19 SIQ19:SIV19 SIZ19:SJE19 SJI19:SJN19 SJR19:SJW19 SKA19:SKF19 SKJ19:SKO19 SKS19:SKX19 SLB19:SLG19 SLK19:SLP19 SLT19:SLY19 SMC19:SMH19 SML19:SMQ19 SMU19:SMZ19 SND19:SNI19 SNM19:SNR19 SNV19:SOA19 SOE19:SOJ19 SON19:SOS19 SOW19:SPB19 SPF19:SPK19 SPO19:SPT19 SPX19:SQC19 SQG19:SQL19 SQP19:SQU19 SQY19:SRD19 SRH19:SRM19 SRQ19:SRV19 SRZ19:SSE19 SSI19:SSN19 SSR19:SSW19 STA19:STF19 STJ19:STO19 STS19:STX19 SUB19:SUG19 SUK19:SUP19 SUT19:SUY19 SVC19:SVH19 SVL19:SVQ19 SVU19:SVZ19 SWD19:SWI19 SWM19:SWR19 SWV19:SXA19 SXE19:SXJ19 SXN19:SXS19 SXW19:SYB19 SYF19:SYK19 SYO19:SYT19 SYX19:SZC19 SZG19:SZL19 SZP19:SZU19 SZY19:TAD19 TAH19:TAM19 TAQ19:TAV19 TAZ19:TBE19 TBI19:TBN19 TBR19:TBW19 TCA19:TCF19 TCJ19:TCO19 TCS19:TCX19 TDB19:TDG19 TDK19:TDP19 TDT19:TDY19 TEC19:TEH19 TEL19:TEQ19 TEU19:TEZ19 TFD19:TFI19 TFM19:TFR19 TFV19:TGA19 TGE19:TGJ19 TGN19:TGS19 TGW19:THB19 THF19:THK19 THO19:THT19 THX19:TIC19 TIG19:TIL19 TIP19:TIU19 TIY19:TJD19 TJH19:TJM19 TJQ19:TJV19 TJZ19:TKE19 TKI19:TKN19 TKR19:TKW19 TLA19:TLF19 TLJ19:TLO19 TLS19:TLX19 TMB19:TMG19 TMK19:TMP19 TMT19:TMY19 TNC19:TNH19 TNL19:TNQ19 TNU19:TNZ19 TOD19:TOI19 TOM19:TOR19 TOV19:TPA19 TPE19:TPJ19 TPN19:TPS19 TPW19:TQB19 TQF19:TQK19 TQO19:TQT19 TQX19:TRC19 TRG19:TRL19 TRP19:TRU19 TRY19:TSD19 TSH19:TSM19 TSQ19:TSV19 TSZ19:TTE19 TTI19:TTN19 TTR19:TTW19 TUA19:TUF19 TUJ19:TUO19 TUS19:TUX19 TVB19:TVG19 TVK19:TVP19 TVT19:TVY19 TWC19:TWH19 TWL19:TWQ19 TWU19:TWZ19 TXD19:TXI19 TXM19:TXR19 TXV19:TYA19 TYE19:TYJ19 TYN19:TYS19 TYW19:TZB19 TZF19:TZK19 TZO19:TZT19 TZX19:UAC19 UAG19:UAL19 UAP19:UAU19 UAY19:UBD19 UBH19:UBM19 UBQ19:UBV19 UBZ19:UCE19 UCI19:UCN19 UCR19:UCW19 UDA19:UDF19 UDJ19:UDO19 UDS19:UDX19 UEB19:UEG19 UEK19:UEP19 UET19:UEY19 UFC19:UFH19 UFL19:UFQ19 UFU19:UFZ19 UGD19:UGI19 UGM19:UGR19 UGV19:UHA19 UHE19:UHJ19 UHN19:UHS19 UHW19:UIB19 UIF19:UIK19 UIO19:UIT19 UIX19:UJC19 UJG19:UJL19 UJP19:UJU19 UJY19:UKD19 UKH19:UKM19 UKQ19:UKV19 UKZ19:ULE19 ULI19:ULN19 ULR19:ULW19 UMA19:UMF19 UMJ19:UMO19 UMS19:UMX19 UNB19:UNG19 UNK19:UNP19 UNT19:UNY19 UOC19:UOH19 UOL19:UOQ19 UOU19:UOZ19 UPD19:UPI19 UPM19:UPR19 UPV19:UQA19 UQE19:UQJ19 UQN19:UQS19 UQW19:URB19 URF19:URK19 URO19:URT19 URX19:USC19 USG19:USL19 USP19:USU19 USY19:UTD19 UTH19:UTM19 UTQ19:UTV19 UTZ19:UUE19 UUI19:UUN19 UUR19:UUW19 UVA19:UVF19 UVJ19:UVO19 UVS19:UVX19 UWB19:UWG19 UWK19:UWP19 UWT19:UWY19 UXC19:UXH19 UXL19:UXQ19 UXU19:UXZ19 UYD19:UYI19 UYM19:UYR19 UYV19:UZA19 UZE19:UZJ19 UZN19:UZS19 UZW19:VAB19 VAF19:VAK19 VAO19:VAT19 VAX19:VBC19 VBG19:VBL19 VBP19:VBU19 VBY19:VCD19 VCH19:VCM19 VCQ19:VCV19 VCZ19:VDE19 VDI19:VDN19 VDR19:VDW19 VEA19:VEF19 VEJ19:VEO19 VES19:VEX19 VFB19:VFG19 VFK19:VFP19 VFT19:VFY19 VGC19:VGH19 VGL19:VGQ19 VGU19:VGZ19 VHD19:VHI19 VHM19:VHR19 VHV19:VIA19 VIE19:VIJ19 VIN19:VIS19 VIW19:VJB19 VJF19:VJK19 VJO19:VJT19 VJX19:VKC19 VKG19:VKL19 VKP19:VKU19 VKY19:VLD19 VLH19:VLM19 VLQ19:VLV19 VLZ19:VME19 VMI19:VMN19 VMR19:VMW19 VNA19:VNF19 VNJ19:VNO19 VNS19:VNX19 VOB19:VOG19 VOK19:VOP19 VOT19:VOY19 VPC19:VPH19 VPL19:VPQ19 VPU19:VPZ19 VQD19:VQI19 VQM19:VQR19 VQV19:VRA19 VRE19:VRJ19 VRN19:VRS19 VRW19:VSB19 VSF19:VSK19 VSO19:VST19 VSX19:VTC19 VTG19:VTL19 VTP19:VTU19 VTY19:VUD19 VUH19:VUM19 VUQ19:VUV19 VUZ19:VVE19 VVI19:VVN19 VVR19:VVW19 VWA19:VWF19 VWJ19:VWO19 VWS19:VWX19 VXB19:VXG19 VXK19:VXP19 VXT19:VXY19 VYC19:VYH19 VYL19:VYQ19 VYU19:VYZ19 VZD19:VZI19 VZM19:VZR19 VZV19:WAA19 WAE19:WAJ19 WAN19:WAS19 WAW19:WBB19 WBF19:WBK19 WBO19:WBT19 WBX19:WCC19 WCG19:WCL19 WCP19:WCU19 WCY19:WDD19 WDH19:WDM19 WDQ19:WDV19 WDZ19:WEE19 WEI19:WEN19 WER19:WEW19 WFA19:WFF19 WFJ19:WFO19 WFS19:WFX19 WGB19:WGG19 WGK19:WGP19 WGT19:WGY19 WHC19:WHH19 WHL19:WHQ19 WHU19:WHZ19 WID19:WII19 WIM19:WIR19 WIV19:WJA19 WJE19:WJJ19 WJN19:WJS19 WJW19:WKB19 WKF19:WKK19 WKO19:WKT19 WKX19:WLC19 WLG19:WLL19 WLP19:WLU19 WLY19:WMD19 WMH19:WMM19 WMQ19:WMV19 WMZ19:WNE19 WNI19:WNN19 WNR19:WNW19 WOA19:WOF19 WOJ19:WOO19 WOS19:WOX19 WPB19:WPG19 WPK19:WPP19 WPT19:WPY19 WQC19:WQH19 WQL19:WQQ19 WQU19:WQZ19 WRD19:WRI19 WRM19:WRR19 WRV19:WSA19 WSE19:WSJ19 WSN19:WSS19 WSW19:WTB19 WTF19:WTK19 WTO19:WTT19 WTX19:WUC19 WUG19:WUL19 WUP19:WUU19 WUY19:WVD19 WVH19:WVM19 WVQ19:WVV19 WVZ19:WWE19 WWI19:WWN19 WWR19:WWW19 WXA19:WXF19 WXJ19:WXO19 WXS19:WXX19 WYB19:WYG19 WYK19:WYP19 WYT19:WYY19 WZC19:WZH19 WZL19:WZQ19 WZU19:WZZ19 XAD19:XAI19 XAM19:XAR19 XAV19:XBA19 XBE19:XBJ19 XBN19:XBS19 XBW19:XCB19 XCF19:XCK19 XCO19:XCT19 XCX19:XDC19 XDG19:XDL19 XDP19:XDU19 XDY19:XED19 XEH19:XEM19 XEQ19:XEV19 XEZ19:XFD19 I34:I38 I51:I53 I65:I68 I94:I96 I70 I98 B11:F11 B25:F25 I25 B27:F38 B26:C26 B13:F23 I13:I18 B44:F53 B58:F68 B76:F83 B88:F96 B40:F42 B55:F55 I55 I40:I42 I74 B72:F74 B70:F70 B85:F85 I85 B98:F98 F69">
+    <cfRule type="expression" dxfId="1" priority="324">
       <formula>LEN($C11)&gt;30</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="198" priority="325">
+    <cfRule type="expression" dxfId="0" priority="325">
       <formula>OR(LEN($D11)&gt;50,LEN(#REF!)&gt;150)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="expression" dxfId="197" priority="244">
+  <conditionalFormatting sqref="E6:I6">
+    <cfRule type="expression" dxfId="170" priority="244">
       <formula>LEN($C6)&gt;30</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="196" priority="245">
+    <cfRule type="expression" dxfId="169" priority="245">
       <formula>OR(LEN($D6)&gt;50,LEN(#REF!)&gt;150)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11 C20:C23 C28:C32 C34:C36 C45:C49 C51:C52 C59:C63 C65:C67 C77:C80 C82 C89:C92 C94:C95 C38 C74 C40:C42 C25 C13:C18">
-    <cfRule type="duplicateValues" dxfId="195" priority="326"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I19:M19">
-    <cfRule type="expression" dxfId="194" priority="242">
+    <cfRule type="duplicateValues" dxfId="168" priority="326"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J19:N19">
+    <cfRule type="expression" dxfId="167" priority="242">
       <formula>LEN($C19)&gt;30</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="193" priority="243">
+    <cfRule type="expression" dxfId="166" priority="243">
       <formula>OR(LEN($D19)&gt;50,LEN(#REF!)&gt;150)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H19">
-    <cfRule type="expression" dxfId="192" priority="238">
+  <conditionalFormatting sqref="I19">
+    <cfRule type="expression" dxfId="165" priority="238">
       <formula>LEN($C19)&gt;30</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="191" priority="239">
+    <cfRule type="expression" dxfId="164" priority="239">
       <formula>OR(LEN($D19)&gt;50,LEN(#REF!)&gt;150)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19">
-    <cfRule type="duplicateValues" dxfId="190" priority="240"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H27">
-    <cfRule type="expression" dxfId="189" priority="235">
+    <cfRule type="duplicateValues" dxfId="163" priority="240"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I27">
+    <cfRule type="expression" dxfId="162" priority="235">
       <formula>LEN($C27)&gt;30</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="188" priority="236">
+    <cfRule type="expression" dxfId="161" priority="236">
       <formula>OR(LEN($D27)&gt;50,LEN(#REF!)&gt;150)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27">
-    <cfRule type="duplicateValues" dxfId="187" priority="237"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H33">
-    <cfRule type="expression" dxfId="186" priority="232">
+    <cfRule type="duplicateValues" dxfId="160" priority="237"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I33">
+    <cfRule type="expression" dxfId="159" priority="232">
       <formula>LEN($C33)&gt;30</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="185" priority="233">
+    <cfRule type="expression" dxfId="158" priority="233">
       <formula>OR(LEN($D33)&gt;50,LEN(#REF!)&gt;150)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C33">
-    <cfRule type="duplicateValues" dxfId="184" priority="234"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H44">
-    <cfRule type="expression" dxfId="183" priority="229">
+    <cfRule type="duplicateValues" dxfId="157" priority="234"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I44">
+    <cfRule type="expression" dxfId="156" priority="229">
       <formula>LEN($C44)&gt;30</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="182" priority="230">
+    <cfRule type="expression" dxfId="155" priority="230">
       <formula>OR(LEN($D44)&gt;50,LEN(#REF!)&gt;150)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C44">
-    <cfRule type="duplicateValues" dxfId="181" priority="231"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H50">
-    <cfRule type="expression" dxfId="180" priority="226">
+    <cfRule type="duplicateValues" dxfId="154" priority="231"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I50">
+    <cfRule type="expression" dxfId="153" priority="226">
       <formula>LEN($C50)&gt;30</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="179" priority="227">
+    <cfRule type="expression" dxfId="152" priority="227">
       <formula>OR(LEN($D50)&gt;50,LEN(#REF!)&gt;150)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C50">
-    <cfRule type="duplicateValues" dxfId="178" priority="228"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H58">
-    <cfRule type="expression" dxfId="177" priority="223">
+    <cfRule type="duplicateValues" dxfId="151" priority="228"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I58">
+    <cfRule type="expression" dxfId="150" priority="223">
       <formula>LEN($C58)&gt;30</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="176" priority="224">
+    <cfRule type="expression" dxfId="149" priority="224">
       <formula>OR(LEN($D58)&gt;50,LEN(#REF!)&gt;150)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C58">
-    <cfRule type="duplicateValues" dxfId="175" priority="225"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H64">
-    <cfRule type="expression" dxfId="174" priority="220">
+    <cfRule type="duplicateValues" dxfId="148" priority="225"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I64">
+    <cfRule type="expression" dxfId="147" priority="220">
       <formula>LEN($C64)&gt;30</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="173" priority="221">
+    <cfRule type="expression" dxfId="146" priority="221">
       <formula>OR(LEN($D64)&gt;50,LEN(#REF!)&gt;150)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C64">
-    <cfRule type="duplicateValues" dxfId="172" priority="222"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H76">
-    <cfRule type="expression" dxfId="171" priority="217">
+    <cfRule type="duplicateValues" dxfId="145" priority="222"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I76">
+    <cfRule type="expression" dxfId="144" priority="217">
       <formula>LEN($C76)&gt;30</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="170" priority="218">
+    <cfRule type="expression" dxfId="143" priority="218">
       <formula>OR(LEN($D76)&gt;50,LEN(#REF!)&gt;150)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C76">
-    <cfRule type="duplicateValues" dxfId="169" priority="219"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H81">
-    <cfRule type="expression" dxfId="168" priority="214">
+    <cfRule type="duplicateValues" dxfId="142" priority="219"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I81">
+    <cfRule type="expression" dxfId="141" priority="214">
       <formula>LEN($C81)&gt;30</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="167" priority="215">
+    <cfRule type="expression" dxfId="140" priority="215">
       <formula>OR(LEN($D81)&gt;50,LEN(#REF!)&gt;150)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C81">
-    <cfRule type="duplicateValues" dxfId="166" priority="216"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H88">
-    <cfRule type="expression" dxfId="165" priority="211">
+    <cfRule type="duplicateValues" dxfId="139" priority="216"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I88">
+    <cfRule type="expression" dxfId="138" priority="211">
       <formula>LEN($C88)&gt;30</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="164" priority="212">
+    <cfRule type="expression" dxfId="137" priority="212">
       <formula>OR(LEN($D88)&gt;50,LEN(#REF!)&gt;150)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C88">
-    <cfRule type="duplicateValues" dxfId="163" priority="213"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H93">
-    <cfRule type="expression" dxfId="162" priority="208">
+    <cfRule type="duplicateValues" dxfId="136" priority="213"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I93">
+    <cfRule type="expression" dxfId="135" priority="208">
       <formula>LEN($C93)&gt;30</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="161" priority="209">
+    <cfRule type="expression" dxfId="134" priority="209">
       <formula>OR(LEN($D93)&gt;50,LEN(#REF!)&gt;150)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C93">
-    <cfRule type="duplicateValues" dxfId="160" priority="210"/>
+    <cfRule type="duplicateValues" dxfId="133" priority="210"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37">
-    <cfRule type="duplicateValues" dxfId="159" priority="207"/>
+    <cfRule type="duplicateValues" dxfId="132" priority="207"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C53">
-    <cfRule type="duplicateValues" dxfId="158" priority="204"/>
+    <cfRule type="duplicateValues" dxfId="131" priority="204"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C55">
-    <cfRule type="duplicateValues" dxfId="157" priority="201"/>
+    <cfRule type="duplicateValues" dxfId="130" priority="201"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C68">
-    <cfRule type="duplicateValues" dxfId="156" priority="198"/>
+    <cfRule type="duplicateValues" dxfId="129" priority="198"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C70">
-    <cfRule type="duplicateValues" dxfId="155" priority="195"/>
+    <cfRule type="duplicateValues" dxfId="128" priority="195"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C96">
-    <cfRule type="duplicateValues" dxfId="154" priority="192"/>
+    <cfRule type="duplicateValues" dxfId="127" priority="192"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C98">
-    <cfRule type="duplicateValues" dxfId="153" priority="189"/>
+    <cfRule type="duplicateValues" dxfId="126" priority="189"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26">
-    <cfRule type="duplicateValues" dxfId="152" priority="186"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H72:H73">
-    <cfRule type="expression" dxfId="151" priority="169">
+    <cfRule type="duplicateValues" dxfId="125" priority="186"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I72:I73">
+    <cfRule type="expression" dxfId="124" priority="169">
       <formula>LEN($C72)&gt;30</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="150" priority="170">
+    <cfRule type="expression" dxfId="123" priority="170">
       <formula>OR(LEN($D72)&gt;50,LEN(#REF!)&gt;150)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C72:C73">
-    <cfRule type="duplicateValues" dxfId="149" priority="171"/>
+    <cfRule type="duplicateValues" dxfId="122" priority="171"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C83">
-    <cfRule type="duplicateValues" dxfId="148" priority="147"/>
+    <cfRule type="duplicateValues" dxfId="121" priority="147"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C85">
-    <cfRule type="duplicateValues" dxfId="147" priority="144"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B24:E24">
-    <cfRule type="expression" dxfId="146" priority="130">
+    <cfRule type="duplicateValues" dxfId="120" priority="144"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B24:F24">
+    <cfRule type="expression" dxfId="119" priority="130">
       <formula>LEN($C24)&gt;30</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="145" priority="131">
+    <cfRule type="expression" dxfId="118" priority="131">
       <formula>OR(LEN($D24)&gt;50,LEN(#REF!)&gt;150)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24">
-    <cfRule type="duplicateValues" dxfId="144" priority="132"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H24">
-    <cfRule type="expression" dxfId="143" priority="128">
+    <cfRule type="duplicateValues" dxfId="117" priority="132"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I24">
+    <cfRule type="expression" dxfId="116" priority="128">
       <formula>LEN($C24)&gt;30</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="142" priority="129">
+    <cfRule type="expression" dxfId="115" priority="129">
       <formula>OR(LEN($D24)&gt;50,LEN(#REF!)&gt;150)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F39:G39">
-    <cfRule type="expression" dxfId="141" priority="80">
+  <conditionalFormatting sqref="G39:H39">
+    <cfRule type="expression" dxfId="114" priority="80">
       <formula>LEN($C39)&gt;30</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="140" priority="81">
+    <cfRule type="expression" dxfId="113" priority="81">
       <formula>OR(LEN($D39)&gt;50,LEN(#REF!)&gt;150)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F11:G11 F25:G25 F27:G38 F13:G23 F44:G53 F58:G68 F76:G83 F88:G96 F40:G42 F55:G55 F72:G74 F70:G70 F85:G85 F98:G98">
-    <cfRule type="expression" dxfId="139" priority="124">
+  <conditionalFormatting sqref="G11:H11 G25:H25 G27:H38 G13:H23 G44:H53 G58:H68 G76:H83 G88:H96 G40:H42 G55:H55 G72:H74 G70:H70 G85:H85 G98:H98">
+    <cfRule type="expression" dxfId="112" priority="124">
       <formula>LEN($C11)&gt;30</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="138" priority="125">
+    <cfRule type="expression" dxfId="111" priority="125">
       <formula>OR(LEN($D11)&gt;50,LEN(#REF!)&gt;150)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H39">
-    <cfRule type="expression" dxfId="137" priority="82">
+  <conditionalFormatting sqref="I39">
+    <cfRule type="expression" dxfId="110" priority="82">
       <formula>LEN($C39)&gt;30</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="136" priority="83">
+    <cfRule type="expression" dxfId="109" priority="83">
       <formula>OR(LEN($D39)&gt;50,LEN(#REF!)&gt;150)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F24:G24">
-    <cfRule type="expression" dxfId="135" priority="120">
+  <conditionalFormatting sqref="G24:H24">
+    <cfRule type="expression" dxfId="108" priority="120">
       <formula>LEN($C24)&gt;30</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="134" priority="121">
+    <cfRule type="expression" dxfId="107" priority="121">
       <formula>OR(LEN($D24)&gt;50,LEN(#REF!)&gt;150)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D26:H26">
-    <cfRule type="expression" dxfId="133" priority="118">
+  <conditionalFormatting sqref="D26:I26">
+    <cfRule type="expression" dxfId="106" priority="118">
       <formula>LEN($C26)&gt;30</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="132" priority="119">
+    <cfRule type="expression" dxfId="105" priority="119">
       <formula>OR(LEN($D26)&gt;50,LEN(#REF!)&gt;150)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D26:H26">
-    <cfRule type="duplicateValues" dxfId="131" priority="117"/>
+  <conditionalFormatting sqref="D26:I26">
+    <cfRule type="duplicateValues" dxfId="104" priority="117"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:C12">
-    <cfRule type="expression" dxfId="130" priority="115">
+    <cfRule type="expression" dxfId="103" priority="115">
       <formula>LEN($C12)&gt;30</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="129" priority="116">
+    <cfRule type="expression" dxfId="102" priority="116">
       <formula>OR(LEN($D12)&gt;50,LEN(#REF!)&gt;150)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="duplicateValues" dxfId="128" priority="114"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D12:H12">
-    <cfRule type="expression" dxfId="127" priority="112">
+    <cfRule type="duplicateValues" dxfId="101" priority="114"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12:I12">
+    <cfRule type="expression" dxfId="100" priority="112">
       <formula>LEN($C12)&gt;30</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="126" priority="113">
+    <cfRule type="expression" dxfId="99" priority="113">
       <formula>OR(LEN($D12)&gt;50,LEN(#REF!)&gt;150)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D12:H12">
-    <cfRule type="duplicateValues" dxfId="125" priority="111"/>
+  <conditionalFormatting sqref="D12:I12">
+    <cfRule type="duplicateValues" dxfId="98" priority="111"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B43:C43">
-    <cfRule type="expression" dxfId="124" priority="109">
+    <cfRule type="expression" dxfId="97" priority="109">
       <formula>LEN($C43)&gt;30</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="123" priority="110">
+    <cfRule type="expression" dxfId="96" priority="110">
       <formula>OR(LEN($D43)&gt;50,LEN(#REF!)&gt;150)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C43">
-    <cfRule type="duplicateValues" dxfId="122" priority="108"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D43:H43">
-    <cfRule type="expression" dxfId="121" priority="106">
+    <cfRule type="duplicateValues" dxfId="95" priority="108"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D43:I43">
+    <cfRule type="expression" dxfId="94" priority="106">
       <formula>LEN($C43)&gt;30</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="120" priority="107">
+    <cfRule type="expression" dxfId="93" priority="107">
       <formula>OR(LEN($D43)&gt;50,LEN(#REF!)&gt;150)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D43:H43">
-    <cfRule type="duplicateValues" dxfId="119" priority="105"/>
+  <conditionalFormatting sqref="D43:I43">
+    <cfRule type="duplicateValues" dxfId="92" priority="105"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B57:C57">
-    <cfRule type="expression" dxfId="118" priority="103">
+    <cfRule type="expression" dxfId="91" priority="103">
       <formula>LEN($C57)&gt;30</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="117" priority="104">
+    <cfRule type="expression" dxfId="90" priority="104">
       <formula>OR(LEN($D57)&gt;50,LEN(#REF!)&gt;150)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C57">
-    <cfRule type="duplicateValues" dxfId="116" priority="102"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D57:H57">
-    <cfRule type="expression" dxfId="115" priority="100">
+    <cfRule type="duplicateValues" dxfId="89" priority="102"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D57:I57">
+    <cfRule type="expression" dxfId="88" priority="100">
       <formula>LEN($C57)&gt;30</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="114" priority="101">
+    <cfRule type="expression" dxfId="87" priority="101">
       <formula>OR(LEN($D57)&gt;50,LEN(#REF!)&gt;150)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D57:H57">
-    <cfRule type="duplicateValues" dxfId="113" priority="99"/>
+  <conditionalFormatting sqref="D57:I57">
+    <cfRule type="duplicateValues" dxfId="86" priority="99"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B75:C75">
-    <cfRule type="expression" dxfId="112" priority="97">
+    <cfRule type="expression" dxfId="85" priority="97">
       <formula>LEN($C75)&gt;30</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="111" priority="98">
+    <cfRule type="expression" dxfId="84" priority="98">
       <formula>OR(LEN($D75)&gt;50,LEN(#REF!)&gt;150)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C75">
-    <cfRule type="duplicateValues" dxfId="110" priority="96"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D75:H75">
-    <cfRule type="expression" dxfId="109" priority="94">
+    <cfRule type="duplicateValues" dxfId="83" priority="96"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D75:I75">
+    <cfRule type="expression" dxfId="82" priority="94">
       <formula>LEN($C75)&gt;30</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="108" priority="95">
+    <cfRule type="expression" dxfId="81" priority="95">
       <formula>OR(LEN($D75)&gt;50,LEN(#REF!)&gt;150)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D75:H75">
-    <cfRule type="duplicateValues" dxfId="107" priority="93"/>
+  <conditionalFormatting sqref="D75:I75">
+    <cfRule type="duplicateValues" dxfId="80" priority="93"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B87:C87">
-    <cfRule type="expression" dxfId="106" priority="91">
+    <cfRule type="expression" dxfId="79" priority="91">
       <formula>LEN($C87)&gt;30</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="105" priority="92">
+    <cfRule type="expression" dxfId="78" priority="92">
       <formula>OR(LEN($D87)&gt;50,LEN(#REF!)&gt;150)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C87">
-    <cfRule type="duplicateValues" dxfId="104" priority="90"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D87:H87">
-    <cfRule type="expression" dxfId="103" priority="88">
+    <cfRule type="duplicateValues" dxfId="77" priority="90"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D87:I87">
+    <cfRule type="expression" dxfId="76" priority="88">
       <formula>LEN($C87)&gt;30</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="102" priority="89">
+    <cfRule type="expression" dxfId="75" priority="89">
       <formula>OR(LEN($D87)&gt;50,LEN(#REF!)&gt;150)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D87:H87">
-    <cfRule type="duplicateValues" dxfId="101" priority="87"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B39:E39">
-    <cfRule type="expression" dxfId="100" priority="84">
+  <conditionalFormatting sqref="D87:I87">
+    <cfRule type="duplicateValues" dxfId="74" priority="87"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B39:F39">
+    <cfRule type="expression" dxfId="73" priority="84">
       <formula>LEN($C39)&gt;30</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="99" priority="85">
+    <cfRule type="expression" dxfId="72" priority="85">
       <formula>OR(LEN($D39)&gt;50,LEN(#REF!)&gt;150)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C39">
-    <cfRule type="duplicateValues" dxfId="98" priority="86"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B54:E54">
-    <cfRule type="expression" dxfId="97" priority="77">
+    <cfRule type="duplicateValues" dxfId="71" priority="86"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B54:F54">
+    <cfRule type="expression" dxfId="70" priority="77">
       <formula>LEN($C54)&gt;30</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="96" priority="78">
+    <cfRule type="expression" dxfId="69" priority="78">
       <formula>OR(LEN($D54)&gt;50,LEN(#REF!)&gt;150)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C54">
-    <cfRule type="duplicateValues" dxfId="95" priority="79"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H54">
-    <cfRule type="expression" dxfId="94" priority="75">
+    <cfRule type="duplicateValues" dxfId="68" priority="79"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I54">
+    <cfRule type="expression" dxfId="67" priority="75">
       <formula>LEN($C54)&gt;30</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="93" priority="76">
+    <cfRule type="expression" dxfId="66" priority="76">
       <formula>OR(LEN($D54)&gt;50,LEN(#REF!)&gt;150)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F54:G54">
-    <cfRule type="expression" dxfId="92" priority="73">
+  <conditionalFormatting sqref="G54:H54">
+    <cfRule type="expression" dxfId="65" priority="73">
       <formula>LEN($C54)&gt;30</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="91" priority="74">
+    <cfRule type="expression" dxfId="64" priority="74">
       <formula>OR(LEN($D54)&gt;50,LEN(#REF!)&gt;150)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F71:G71">
-    <cfRule type="expression" dxfId="90" priority="66">
+  <conditionalFormatting sqref="G71:H71">
+    <cfRule type="expression" dxfId="63" priority="66">
       <formula>LEN($C71)&gt;30</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="89" priority="67">
+    <cfRule type="expression" dxfId="62" priority="67">
       <formula>OR(LEN($D71)&gt;50,LEN(#REF!)&gt;150)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H71">
-    <cfRule type="expression" dxfId="88" priority="68">
+  <conditionalFormatting sqref="I71">
+    <cfRule type="expression" dxfId="61" priority="68">
       <formula>LEN($C71)&gt;30</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="87" priority="69">
+    <cfRule type="expression" dxfId="60" priority="69">
       <formula>OR(LEN($D71)&gt;50,LEN(#REF!)&gt;150)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B71:C71 E71">
-    <cfRule type="expression" dxfId="86" priority="70">
+  <conditionalFormatting sqref="B71:C71 E71:F71">
+    <cfRule type="expression" dxfId="59" priority="70">
       <formula>LEN($C71)&gt;30</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="85" priority="71">
+    <cfRule type="expression" dxfId="58" priority="71">
       <formula>OR(LEN($D71)&gt;50,LEN(#REF!)&gt;150)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C71">
-    <cfRule type="duplicateValues" dxfId="84" priority="72"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B56:E56">
-    <cfRule type="expression" dxfId="83" priority="63">
+    <cfRule type="duplicateValues" dxfId="57" priority="72"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B56:F56">
+    <cfRule type="expression" dxfId="56" priority="63">
       <formula>LEN($C56)&gt;30</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="82" priority="64">
+    <cfRule type="expression" dxfId="55" priority="64">
       <formula>OR(LEN($D56)&gt;50,LEN(#REF!)&gt;150)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C56">
-    <cfRule type="duplicateValues" dxfId="81" priority="65"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H56">
-    <cfRule type="expression" dxfId="80" priority="61">
+    <cfRule type="duplicateValues" dxfId="54" priority="65"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I56">
+    <cfRule type="expression" dxfId="53" priority="61">
       <formula>LEN($C56)&gt;30</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="79" priority="62">
+    <cfRule type="expression" dxfId="52" priority="62">
       <formula>OR(LEN($D56)&gt;50,LEN(#REF!)&gt;150)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F56:G56">
-    <cfRule type="expression" dxfId="78" priority="59">
+  <conditionalFormatting sqref="G56:H56">
+    <cfRule type="expression" dxfId="51" priority="59">
       <formula>LEN($C56)&gt;30</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="77" priority="60">
+    <cfRule type="expression" dxfId="50" priority="60">
       <formula>OR(LEN($D56)&gt;50,LEN(#REF!)&gt;150)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B69:E69">
-    <cfRule type="expression" dxfId="76" priority="56">
+    <cfRule type="expression" dxfId="49" priority="56">
       <formula>LEN($C69)&gt;30</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="57">
+    <cfRule type="expression" dxfId="48" priority="57">
       <formula>OR(LEN($D69)&gt;50,LEN(#REF!)&gt;150)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C69">
-    <cfRule type="duplicateValues" dxfId="74" priority="58"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H69">
-    <cfRule type="expression" dxfId="73" priority="54">
+    <cfRule type="duplicateValues" dxfId="47" priority="58"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I69">
+    <cfRule type="expression" dxfId="46" priority="54">
       <formula>LEN($C69)&gt;30</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="55">
+    <cfRule type="expression" dxfId="45" priority="55">
       <formula>OR(LEN($D69)&gt;50,LEN(#REF!)&gt;150)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F69:G69">
-    <cfRule type="expression" dxfId="71" priority="52">
+  <conditionalFormatting sqref="G69:H69">
+    <cfRule type="expression" dxfId="44" priority="52">
       <formula>LEN($C69)&gt;30</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="53">
+    <cfRule type="expression" dxfId="43" priority="53">
       <formula>OR(LEN($D69)&gt;50,LEN(#REF!)&gt;150)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B84:E84">
-    <cfRule type="expression" dxfId="69" priority="49">
+  <conditionalFormatting sqref="B84:F84">
+    <cfRule type="expression" dxfId="42" priority="49">
       <formula>LEN($C84)&gt;30</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="68" priority="50">
+    <cfRule type="expression" dxfId="41" priority="50">
       <formula>OR(LEN($D84)&gt;50,LEN(#REF!)&gt;150)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C84">
-    <cfRule type="duplicateValues" dxfId="67" priority="51"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H84">
-    <cfRule type="expression" dxfId="66" priority="47">
+    <cfRule type="duplicateValues" dxfId="40" priority="51"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I84">
+    <cfRule type="expression" dxfId="39" priority="47">
       <formula>LEN($C84)&gt;30</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="65" priority="48">
+    <cfRule type="expression" dxfId="38" priority="48">
       <formula>OR(LEN($D84)&gt;50,LEN(#REF!)&gt;150)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F84:G84">
-    <cfRule type="expression" dxfId="64" priority="45">
+  <conditionalFormatting sqref="G84:H84">
+    <cfRule type="expression" dxfId="37" priority="45">
       <formula>LEN($C84)&gt;30</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="46">
+    <cfRule type="expression" dxfId="36" priority="46">
       <formula>OR(LEN($D84)&gt;50,LEN(#REF!)&gt;150)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E86">
-    <cfRule type="expression" dxfId="62" priority="42">
+  <conditionalFormatting sqref="E86:F86">
+    <cfRule type="expression" dxfId="35" priority="42">
       <formula>LEN($C86)&gt;30</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="43">
+    <cfRule type="expression" dxfId="34" priority="43">
       <formula>OR(LEN($D86)&gt;50,LEN(#REF!)&gt;150)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H86">
-    <cfRule type="expression" dxfId="60" priority="40">
+  <conditionalFormatting sqref="I86">
+    <cfRule type="expression" dxfId="33" priority="40">
       <formula>LEN($C86)&gt;30</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="59" priority="41">
+    <cfRule type="expression" dxfId="32" priority="41">
       <formula>OR(LEN($D86)&gt;50,LEN(#REF!)&gt;150)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F86:G86">
-    <cfRule type="expression" dxfId="58" priority="38">
+  <conditionalFormatting sqref="G86:H86">
+    <cfRule type="expression" dxfId="31" priority="38">
       <formula>LEN($C86)&gt;30</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="39">
+    <cfRule type="expression" dxfId="30" priority="39">
       <formula>OR(LEN($D86)&gt;50,LEN(#REF!)&gt;150)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H97">
-    <cfRule type="expression" dxfId="56" priority="33">
+  <conditionalFormatting sqref="I97">
+    <cfRule type="expression" dxfId="29" priority="33">
       <formula>LEN($C97)&gt;30</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="34">
+    <cfRule type="expression" dxfId="28" priority="34">
       <formula>OR(LEN($D97)&gt;50,LEN(#REF!)&gt;150)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H99">
-    <cfRule type="expression" dxfId="54" priority="26">
+  <conditionalFormatting sqref="I99">
+    <cfRule type="expression" dxfId="27" priority="26">
       <formula>LEN($C99)&gt;30</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="53" priority="27">
+    <cfRule type="expression" dxfId="26" priority="27">
       <formula>OR(LEN($D99)&gt;50,LEN(#REF!)&gt;150)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D71">
-    <cfRule type="expression" dxfId="52" priority="22">
+    <cfRule type="expression" dxfId="25" priority="22">
       <formula>LEN($C71)&gt;30</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="23">
+    <cfRule type="expression" dxfId="24" priority="23">
       <formula>OR(LEN($D71)&gt;50,LEN(#REF!)&gt;150)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D86">
-    <cfRule type="expression" dxfId="50" priority="20">
+    <cfRule type="expression" dxfId="23" priority="20">
       <formula>LEN($C86)&gt;30</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="21">
+    <cfRule type="expression" dxfId="22" priority="21">
       <formula>OR(LEN($D86)&gt;50,LEN(#REF!)&gt;150)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B86:C86">
-    <cfRule type="expression" dxfId="48" priority="15">
+    <cfRule type="expression" dxfId="21" priority="15">
       <formula>LEN($C86)&gt;30</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="47" priority="16">
+    <cfRule type="expression" dxfId="20" priority="16">
       <formula>OR(LEN($D86)&gt;50,LEN(#REF!)&gt;150)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C86">
-    <cfRule type="duplicateValues" dxfId="46" priority="17"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B97:E97">
-    <cfRule type="expression" dxfId="45" priority="12">
+    <cfRule type="duplicateValues" dxfId="19" priority="17"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B97:F97">
+    <cfRule type="expression" dxfId="18" priority="12">
       <formula>LEN($C97)&gt;30</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="13">
+    <cfRule type="expression" dxfId="17" priority="13">
       <formula>OR(LEN($D97)&gt;50,LEN(#REF!)&gt;150)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C97">
-    <cfRule type="duplicateValues" dxfId="43" priority="14"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F97:G97">
-    <cfRule type="expression" dxfId="42" priority="10">
+    <cfRule type="duplicateValues" dxfId="16" priority="14"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G97:H97">
+    <cfRule type="expression" dxfId="15" priority="10">
       <formula>LEN($C97)&gt;30</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="11">
+    <cfRule type="expression" dxfId="14" priority="11">
       <formula>OR(LEN($D97)&gt;50,LEN(#REF!)&gt;150)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E99">
-    <cfRule type="expression" dxfId="40" priority="8">
+  <conditionalFormatting sqref="E99:F99">
+    <cfRule type="expression" dxfId="13" priority="8">
       <formula>LEN($C99)&gt;30</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="9">
+    <cfRule type="expression" dxfId="12" priority="9">
       <formula>OR(LEN($D99)&gt;50,LEN(#REF!)&gt;150)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F99:G99">
-    <cfRule type="expression" dxfId="38" priority="6">
+  <conditionalFormatting sqref="G99:H99">
+    <cfRule type="expression" dxfId="11" priority="6">
       <formula>LEN($C99)&gt;30</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="7">
+    <cfRule type="expression" dxfId="10" priority="7">
       <formula>OR(LEN($D99)&gt;50,LEN(#REF!)&gt;150)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D99">
-    <cfRule type="expression" dxfId="36" priority="4">
+    <cfRule type="expression" dxfId="9" priority="4">
       <formula>LEN($C99)&gt;30</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="5">
+    <cfRule type="expression" dxfId="8" priority="5">
       <formula>OR(LEN($D99)&gt;50,LEN(#REF!)&gt;150)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B99:C99">
-    <cfRule type="expression" dxfId="34" priority="1">
+    <cfRule type="expression" dxfId="7" priority="1">
       <formula>LEN($C99)&gt;30</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="2">
+    <cfRule type="expression" dxfId="6" priority="2">
       <formula>OR(LEN($D99)&gt;50,LEN(#REF!)&gt;150)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C99">
-    <cfRule type="duplicateValues" dxfId="32" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6696,19 +6847,19 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" customWidth="1"/>
-    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.6640625" customWidth="1"/>
-    <col min="5" max="5" width="33.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.88671875" customWidth="1"/>
+    <col min="4" max="4" width="38.7109375" customWidth="1"/>
+    <col min="5" max="5" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="3" customFormat="1" ht="43.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>131</v>
       </c>
@@ -6746,7 +6897,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -6772,7 +6923,7 @@
       <c r="K2" s="9"/>
       <c r="L2" s="9"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -6798,7 +6949,7 @@
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
@@ -6824,7 +6975,7 @@
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
@@ -6850,7 +7001,7 @@
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>11</v>
       </c>
@@ -6876,7 +7027,7 @@
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
@@ -6902,7 +7053,7 @@
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>11</v>
       </c>
@@ -6928,7 +7079,7 @@
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>11</v>
       </c>
@@ -6954,7 +7105,7 @@
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>11</v>
       </c>
@@ -6980,7 +7131,7 @@
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>9</v>
       </c>
@@ -7006,7 +7157,7 @@
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>11</v>
       </c>
@@ -7032,7 +7183,7 @@
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>11</v>
       </c>
@@ -7058,7 +7209,7 @@
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>9</v>
       </c>
@@ -7084,7 +7235,7 @@
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>11</v>
       </c>
@@ -7110,7 +7261,7 @@
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>6</v>
       </c>
@@ -7136,7 +7287,7 @@
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>9</v>
       </c>
@@ -7162,7 +7313,7 @@
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>11</v>
       </c>
@@ -7188,7 +7339,7 @@
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>11</v>
       </c>
@@ -7214,7 +7365,7 @@
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>11</v>
       </c>
@@ -7240,7 +7391,7 @@
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>11</v>
       </c>
@@ -7266,7 +7417,7 @@
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>11</v>
       </c>
@@ -7292,7 +7443,7 @@
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>9</v>
       </c>
@@ -7318,7 +7469,7 @@
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>11</v>
       </c>
@@ -7344,7 +7495,7 @@
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>11</v>
       </c>
@@ -7370,7 +7521,7 @@
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>11</v>
       </c>
@@ -7396,7 +7547,7 @@
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>9</v>
       </c>
@@ -7422,7 +7573,7 @@
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>11</v>
       </c>
@@ -7448,7 +7599,7 @@
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>3</v>
       </c>
@@ -7474,7 +7625,7 @@
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>6</v>
       </c>
@@ -7500,7 +7651,7 @@
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>9</v>
       </c>
@@ -7526,7 +7677,7 @@
       <c r="K31" s="4"/>
       <c r="L31" s="4"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>11</v>
       </c>
@@ -7552,7 +7703,7 @@
       <c r="K32" s="4"/>
       <c r="L32" s="4"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>11</v>
       </c>
@@ -7578,7 +7729,7 @@
       <c r="K33" s="4"/>
       <c r="L33" s="4"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>11</v>
       </c>
@@ -7604,7 +7755,7 @@
       <c r="K34" s="4"/>
       <c r="L34" s="4"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>11</v>
       </c>
@@ -7630,7 +7781,7 @@
       <c r="K35" s="4"/>
       <c r="L35" s="4"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>11</v>
       </c>
@@ -7656,7 +7807,7 @@
       <c r="K36" s="4"/>
       <c r="L36" s="4"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>9</v>
       </c>
@@ -7682,7 +7833,7 @@
       <c r="K37" s="4"/>
       <c r="L37" s="4"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>11</v>
       </c>
@@ -7708,7 +7859,7 @@
       <c r="K38" s="4"/>
       <c r="L38" s="4"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>11</v>
       </c>
@@ -7734,7 +7885,7 @@
       <c r="K39" s="4"/>
       <c r="L39" s="4"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>9</v>
       </c>
@@ -7760,7 +7911,7 @@
       <c r="K40" s="4"/>
       <c r="L40" s="4"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>9</v>
       </c>
@@ -7786,7 +7937,7 @@
       <c r="K41" s="4"/>
       <c r="L41" s="4"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>6</v>
       </c>
@@ -7812,7 +7963,7 @@
       <c r="K42" s="4"/>
       <c r="L42" s="4"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>9</v>
       </c>
@@ -7838,7 +7989,7 @@
       <c r="K43" s="4"/>
       <c r="L43" s="4"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>11</v>
       </c>
@@ -7864,7 +8015,7 @@
       <c r="K44" s="4"/>
       <c r="L44" s="4"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>11</v>
       </c>
@@ -7890,7 +8041,7 @@
       <c r="K45" s="4"/>
       <c r="L45" s="4"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>11</v>
       </c>
@@ -7916,7 +8067,7 @@
       <c r="K46" s="4"/>
       <c r="L46" s="4"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>11</v>
       </c>
@@ -7942,7 +8093,7 @@
       <c r="K47" s="4"/>
       <c r="L47" s="4"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>11</v>
       </c>
@@ -7968,7 +8119,7 @@
       <c r="K48" s="4"/>
       <c r="L48" s="4"/>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>9</v>
       </c>
@@ -7994,7 +8145,7 @@
       <c r="K49" s="4"/>
       <c r="L49" s="4"/>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>11</v>
       </c>
@@ -8020,7 +8171,7 @@
       <c r="K50" s="4"/>
       <c r="L50" s="4"/>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>11</v>
       </c>
@@ -8046,7 +8197,7 @@
       <c r="K51" s="4"/>
       <c r="L51" s="4"/>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>11</v>
       </c>
@@ -8072,7 +8223,7 @@
       <c r="K52" s="4"/>
       <c r="L52" s="4"/>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>9</v>
       </c>
@@ -8098,7 +8249,7 @@
       <c r="K53" s="4"/>
       <c r="L53" s="4"/>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>9</v>
       </c>
@@ -8124,7 +8275,7 @@
       <c r="K54" s="4"/>
       <c r="L54" s="4"/>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>3</v>
       </c>
@@ -8150,7 +8301,7 @@
       <c r="K55" s="4"/>
       <c r="L55" s="4"/>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>6</v>
       </c>
@@ -8176,7 +8327,7 @@
       <c r="K56" s="4"/>
       <c r="L56" s="4"/>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>9</v>
       </c>
@@ -8202,7 +8353,7 @@
       <c r="K57" s="4"/>
       <c r="L57" s="4"/>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>11</v>
       </c>
@@ -8228,7 +8379,7 @@
       <c r="K58" s="4"/>
       <c r="L58" s="4"/>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>11</v>
       </c>
@@ -8254,7 +8405,7 @@
       <c r="K59" s="4"/>
       <c r="L59" s="4"/>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>11</v>
       </c>
@@ -8280,7 +8431,7 @@
       <c r="K60" s="4"/>
       <c r="L60" s="4"/>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
         <v>11</v>
       </c>
@@ -8306,7 +8457,7 @@
       <c r="K61" s="4"/>
       <c r="L61" s="4"/>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
         <v>9</v>
       </c>
@@ -8332,7 +8483,7 @@
       <c r="K62" s="4"/>
       <c r="L62" s="4"/>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
         <v>11</v>
       </c>
@@ -8358,7 +8509,7 @@
       <c r="K63" s="4"/>
       <c r="L63" s="4"/>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
         <v>9</v>
       </c>
@@ -8384,7 +8535,7 @@
       <c r="K64" s="4"/>
       <c r="L64" s="4"/>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
         <v>9</v>
       </c>
@@ -8410,7 +8561,7 @@
       <c r="K65" s="4"/>
       <c r="L65" s="4"/>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
         <v>6</v>
       </c>
@@ -8436,7 +8587,7 @@
       <c r="K66" s="4"/>
       <c r="L66" s="4"/>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
         <v>9</v>
       </c>
@@ -8462,7 +8613,7 @@
       <c r="K67" s="4"/>
       <c r="L67" s="4"/>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
         <v>11</v>
       </c>
@@ -8488,7 +8639,7 @@
       <c r="K68" s="4"/>
       <c r="L68" s="4"/>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
         <v>11</v>
       </c>
@@ -8514,7 +8665,7 @@
       <c r="K69" s="4"/>
       <c r="L69" s="4"/>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
         <v>11</v>
       </c>
@@ -8540,7 +8691,7 @@
       <c r="K70" s="4"/>
       <c r="L70" s="4"/>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
         <v>11</v>
       </c>
@@ -8566,7 +8717,7 @@
       <c r="K71" s="4"/>
       <c r="L71" s="4"/>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
         <v>9</v>
       </c>
@@ -8592,7 +8743,7 @@
       <c r="K72" s="4"/>
       <c r="L72" s="4"/>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
         <v>11</v>
       </c>
@@ -8618,7 +8769,7 @@
       <c r="K73" s="4"/>
       <c r="L73" s="4"/>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
         <v>11</v>
       </c>
@@ -8644,7 +8795,7 @@
       <c r="K74" s="4"/>
       <c r="L74" s="4"/>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
         <v>9</v>
       </c>
@@ -8670,7 +8821,7 @@
       <c r="K75" s="4"/>
       <c r="L75" s="4"/>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="s">
         <v>9</v>
       </c>
@@ -8699,15 +8850,15 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A2:G76">
-    <cfRule type="expression" dxfId="19" priority="71">
+    <cfRule type="expression" dxfId="4" priority="71">
       <formula>LEN($C2)&gt;30</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="72">
+    <cfRule type="expression" dxfId="3" priority="72">
       <formula>OR(LEN($D2)&gt;50,LEN($E2)&gt;150)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C76">
-    <cfRule type="duplicateValues" dxfId="17" priority="78"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="78"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/maquette-type.xlsx
+++ b/maquette-type.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\apereir\Desktop\En cours\En cours Maquettes\scripts\maquettes-xl2json\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60063C83-C132-4EE5-99EC-7A1BA257FBFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5D81A9C-C61F-422D-B590-140075185B8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{A6F31FBE-6D40-488E-B868-E7547D61F047}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A6F31FBE-6D40-488E-B868-E7547D61F047}"/>
   </bookViews>
   <sheets>
     <sheet name="Format complet sans décorations" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="191">
   <si>
     <t>EC</t>
   </si>
@@ -586,6 +586,36 @@
   </si>
   <si>
     <t>MED020</t>
+  </si>
+  <si>
+    <t>Structures porteuses</t>
+  </si>
+  <si>
+    <t>Formats - modalités</t>
+  </si>
+  <si>
+    <t>Formats - volume horaire</t>
+  </si>
+  <si>
+    <t>Selon référentiel (codes séparés par virgule)</t>
+  </si>
+  <si>
+    <t>Nombre entier (0 par défaut)</t>
+  </si>
+  <si>
+    <t>Format 12h30 ou 12:30</t>
+  </si>
+  <si>
+    <t>Formats - type heures</t>
+  </si>
+  <si>
+    <t>Formats - nombre groupes</t>
+  </si>
+  <si>
+    <t>Formats - seuil dédoublement</t>
+  </si>
+  <si>
+    <t>Selon référentiel (obligatoire si les modalités sont indiquées)</t>
   </si>
 </sst>
 </file>
@@ -593,9 +623,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="171" formatCode="[$-40C]General"/>
-    <numFmt numFmtId="172" formatCode="&quot; &quot;#,##0.00&quot;   &quot;;&quot;-&quot;#,##0.00&quot;   &quot;;&quot; -&quot;00&quot;   &quot;;@&quot; &quot;"/>
-    <numFmt numFmtId="173" formatCode="#,##0.00&quot; &quot;[$€-40C];[Red]&quot;-&quot;#,##0.00&quot; &quot;[$€-40C]"/>
+    <numFmt numFmtId="164" formatCode="[$-40C]General"/>
+    <numFmt numFmtId="165" formatCode="&quot; &quot;#,##0.00&quot;   &quot;;&quot;-&quot;#,##0.00&quot;   &quot;;&quot; -&quot;00&quot;   &quot;;@&quot; &quot;"/>
+    <numFmt numFmtId="166" formatCode="#,##0.00&quot; &quot;[$€-40C];[Red]&quot;-&quot;#,##0.00&quot; &quot;[$€-40C]"/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -958,8 +988,8 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
-    <xf numFmtId="172" fontId="16" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
       <alignment horizontal="center"/>
     </xf>
@@ -967,28 +997,28 @@
       <alignment horizontal="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="173" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="166" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="25" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="173" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="166" fontId="26" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1098,6 +1128,12 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="22" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="29">
     <cellStyle name="Excel Built-in Normal" xfId="3" xr:uid="{B5E05A5B-D7AC-4D1C-928B-A110500C8CDE}"/>
@@ -1130,7 +1166,761 @@
     <cellStyle name="Result2 2" xfId="25" xr:uid="{C89B0715-43C1-48F0-9C01-C019D6CCF141}"/>
     <cellStyle name="Texte explicatif 2" xfId="15" xr:uid="{F8296A05-B0FD-4A9C-A976-1DD3C341052F}"/>
   </cellStyles>
-  <dxfs count="54">
+  <dxfs count="46">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1165,856 +1955,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </left>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2029,48 +1969,54 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0F039B8D-4F73-4F71-816E-79D8DD07FF1D}" name="Tableau1" displayName="Tableau1" ref="A1:AM3" totalsRowShown="0" headerRowDxfId="53" dataDxfId="51" headerRowBorderDxfId="52" tableBorderDxfId="50" totalsRowBorderDxfId="49">
-  <autoFilter ref="A1:AM3" xr:uid="{0F039B8D-4F73-4F71-816E-79D8DD07FF1D}"/>
-  <tableColumns count="39">
-    <tableColumn id="1" xr3:uid="{BA1FF67E-A285-4DC9-A88A-D3161AF85CDF}" name="Type objet" dataDxfId="48"/>
-    <tableColumn id="3" xr3:uid="{7504398C-07C2-4F18-9E4F-B24B0EEFC607}" name="Nature objet" dataDxfId="47"/>
-    <tableColumn id="2" xr3:uid="{9465B86C-1C8A-47C9-8DE0-27C5143473B9}" name="Code objet" dataDxfId="46"/>
-    <tableColumn id="6" xr3:uid="{01197EF2-8F7E-416D-87BE-211104178B19}" name="Libellé" dataDxfId="45"/>
-    <tableColumn id="8" xr3:uid="{178F97CB-CD98-4DF4-9B3B-88D67784A1AA}" name="Libellé long" dataDxfId="14"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0F039B8D-4F73-4F71-816E-79D8DD07FF1D}" name="Tableau1" displayName="Tableau1" ref="A1:AS3" totalsRowShown="0" headerRowDxfId="42" dataDxfId="40" headerRowBorderDxfId="41" tableBorderDxfId="39" totalsRowBorderDxfId="38">
+  <autoFilter ref="A1:AS3" xr:uid="{0F039B8D-4F73-4F71-816E-79D8DD07FF1D}"/>
+  <tableColumns count="45">
+    <tableColumn id="1" xr3:uid="{BA1FF67E-A285-4DC9-A88A-D3161AF85CDF}" name="Type objet" dataDxfId="37"/>
+    <tableColumn id="3" xr3:uid="{7504398C-07C2-4F18-9E4F-B24B0EEFC607}" name="Nature objet" dataDxfId="36"/>
+    <tableColumn id="2" xr3:uid="{9465B86C-1C8A-47C9-8DE0-27C5143473B9}" name="Code objet" dataDxfId="35"/>
+    <tableColumn id="6" xr3:uid="{01197EF2-8F7E-416D-87BE-211104178B19}" name="Libellé" dataDxfId="34"/>
+    <tableColumn id="8" xr3:uid="{178F97CB-CD98-4DF4-9B3B-88D67784A1AA}" name="Libellé long" dataDxfId="33"/>
     <tableColumn id="13" xr3:uid="{E5AC1167-2E73-40D7-8183-D7484EA2F3AE}" name="PIA"/>
-    <tableColumn id="9" xr3:uid="{F8670986-ECED-46AC-BE3A-65280B926387}" name="ECTS objet" dataDxfId="16"/>
-    <tableColumn id="10" xr3:uid="{492B8453-2431-4BA1-9E89-D32C0957EDE0}" name="Code parent" dataDxfId="15"/>
-    <tableColumn id="20" xr3:uid="{26C11A25-FC98-4B71-B8A2-25788CD2B149}" name="Mutualisé" dataDxfId="17"/>
-    <tableColumn id="4" xr3:uid="{6813EE45-5417-475E-AC92-8D2734747C05}" name="Plage MIN" dataDxfId="44"/>
-    <tableColumn id="5" xr3:uid="{387629FB-EF79-4A94-AF68-1297523114CB}" name="Plage MAX" dataDxfId="43"/>
-    <tableColumn id="7" xr3:uid="{6487F377-EED9-48BA-A0F8-4A81D873DD01}" name="Distanciel" dataDxfId="42"/>
-    <tableColumn id="11" xr3:uid="{73D73693-FBE4-447E-87A3-B8013A93014D}" name="Stage" dataDxfId="41"/>
-    <tableColumn id="12" xr3:uid="{079EC281-2E43-49C5-BB70-8E623D48D2BB}" name="Capacité accueil" dataDxfId="40"/>
-    <tableColumn id="14" xr3:uid="{81B85A8A-5130-4E33-BEC7-14C40B480F8E}" name="Structure principale" dataDxfId="39"/>
-    <tableColumn id="19" xr3:uid="{1D4BC2ED-329F-4239-B9B3-B6178725F3C4}" name="Type formation" dataDxfId="38"/>
-    <tableColumn id="21" xr3:uid="{843B1EE6-D73E-42E2-9F41-34613C9BD26B}" name="Syllabus - objectifs" dataDxfId="37"/>
-    <tableColumn id="22" xr3:uid="{439B1D33-D1DA-42A4-97DD-0E7753B45ED7}" name="Syllabus - description" dataDxfId="36"/>
-    <tableColumn id="23" xr3:uid="{7CAE92B6-CB33-4DC4-979D-CFF975E75B01}" name="Syllabus - ouverture mobilité entrante" dataDxfId="35"/>
-    <tableColumn id="24" xr3:uid="{9503C41F-78D9-4DD7-BA1C-4A72C20CECBB}" name="Syllabus - langue enseignement" dataDxfId="34"/>
-    <tableColumn id="25" xr3:uid="{0F114DF4-A772-4246-BFA4-E5EADBF9FBC8}" name="Syllabus - prérequis" dataDxfId="33"/>
-    <tableColumn id="26" xr3:uid="{24945D32-A70D-4E65-900D-E45A82AB5A05}" name="Syllabus - bibliographie" dataDxfId="32"/>
-    <tableColumn id="27" xr3:uid="{C613C925-D074-4B70-BC6C-D7579D55942E}" name="Syllabus - contacts" dataDxfId="31"/>
-    <tableColumn id="28" xr3:uid="{F4FBD0B9-F6B1-4A70-9C69-08FE8BB374DA}" name="Syllabus - autres informations" dataDxfId="30"/>
-    <tableColumn id="29" xr3:uid="{25076670-8FBF-4B5A-BC03-AAB90E12326B}" name="Syllabus - modalités enseignement" dataDxfId="29"/>
-    <tableColumn id="30" xr3:uid="{B9BBA5EA-92C4-43C5-8B4E-9E9648E7B13E}" name="Syllabus - volume horaire" dataDxfId="28"/>
-    <tableColumn id="31" xr3:uid="{AAAE5565-606B-4E1C-9FD8-99E9CD898B38}" name="Syllabus - coefficient" dataDxfId="27"/>
-    <tableColumn id="32" xr3:uid="{5498CC05-730A-4838-ADF5-C8C1D9E79021}" name="Syllabus - modalités évaluation" dataDxfId="26"/>
-    <tableColumn id="33" xr3:uid="{926DEFC4-5CBB-45C6-9258-AB7C8F37849C}" name="SISE - type diplôme" dataDxfId="25"/>
+    <tableColumn id="9" xr3:uid="{F8670986-ECED-46AC-BE3A-65280B926387}" name="ECTS objet" dataDxfId="32"/>
+    <tableColumn id="10" xr3:uid="{492B8453-2431-4BA1-9E89-D32C0957EDE0}" name="Code parent" dataDxfId="31"/>
+    <tableColumn id="20" xr3:uid="{26C11A25-FC98-4B71-B8A2-25788CD2B149}" name="Mutualisé" dataDxfId="30"/>
+    <tableColumn id="4" xr3:uid="{6813EE45-5417-475E-AC92-8D2734747C05}" name="Plage MIN" dataDxfId="29"/>
+    <tableColumn id="5" xr3:uid="{387629FB-EF79-4A94-AF68-1297523114CB}" name="Plage MAX" dataDxfId="28"/>
+    <tableColumn id="7" xr3:uid="{6487F377-EED9-48BA-A0F8-4A81D873DD01}" name="Distanciel" dataDxfId="27"/>
+    <tableColumn id="11" xr3:uid="{73D73693-FBE4-447E-87A3-B8013A93014D}" name="Stage" dataDxfId="26"/>
+    <tableColumn id="12" xr3:uid="{079EC281-2E43-49C5-BB70-8E623D48D2BB}" name="Capacité accueil" dataDxfId="25"/>
+    <tableColumn id="14" xr3:uid="{81B85A8A-5130-4E33-BEC7-14C40B480F8E}" name="Structure principale" dataDxfId="24"/>
+    <tableColumn id="19" xr3:uid="{1D4BC2ED-329F-4239-B9B3-B6178725F3C4}" name="Type formation" dataDxfId="23"/>
+    <tableColumn id="15" xr3:uid="{C2B2490D-815D-40D6-9C11-63539FA4C1E7}" name="Structures porteuses"/>
+    <tableColumn id="16" xr3:uid="{711E9C20-D895-45E9-A114-2E14A75AE220}" name="Formats - modalités"/>
+    <tableColumn id="17" xr3:uid="{B0B68448-C1C4-4A12-99E8-817441FE3C16}" name="Formats - type heures"/>
+    <tableColumn id="18" xr3:uid="{47C56DB4-7A85-4F6B-B14E-0272B97C5BEB}" name="Formats - volume horaire"/>
+    <tableColumn id="44" xr3:uid="{0D4BBC6F-9FC2-4C24-B9A9-83D9B3E44FF0}" name="Formats - nombre groupes"/>
+    <tableColumn id="45" xr3:uid="{DD3743CA-AAA9-4694-BDB8-04B2A988F9CA}" name="Formats - seuil dédoublement"/>
+    <tableColumn id="21" xr3:uid="{843B1EE6-D73E-42E2-9F41-34613C9BD26B}" name="Syllabus - objectifs" dataDxfId="22"/>
+    <tableColumn id="22" xr3:uid="{439B1D33-D1DA-42A4-97DD-0E7753B45ED7}" name="Syllabus - description" dataDxfId="21"/>
+    <tableColumn id="23" xr3:uid="{7CAE92B6-CB33-4DC4-979D-CFF975E75B01}" name="Syllabus - ouverture mobilité entrante" dataDxfId="20"/>
+    <tableColumn id="24" xr3:uid="{9503C41F-78D9-4DD7-BA1C-4A72C20CECBB}" name="Syllabus - langue enseignement" dataDxfId="19"/>
+    <tableColumn id="25" xr3:uid="{0F114DF4-A772-4246-BFA4-E5EADBF9FBC8}" name="Syllabus - prérequis" dataDxfId="18"/>
+    <tableColumn id="26" xr3:uid="{24945D32-A70D-4E65-900D-E45A82AB5A05}" name="Syllabus - bibliographie" dataDxfId="17"/>
+    <tableColumn id="27" xr3:uid="{C613C925-D074-4B70-BC6C-D7579D55942E}" name="Syllabus - contacts" dataDxfId="16"/>
+    <tableColumn id="28" xr3:uid="{F4FBD0B9-F6B1-4A70-9C69-08FE8BB374DA}" name="Syllabus - autres informations" dataDxfId="15"/>
+    <tableColumn id="29" xr3:uid="{25076670-8FBF-4B5A-BC03-AAB90E12326B}" name="Syllabus - modalités enseignement" dataDxfId="14"/>
+    <tableColumn id="30" xr3:uid="{B9BBA5EA-92C4-43C5-8B4E-9E9648E7B13E}" name="Syllabus - volume horaire" dataDxfId="13"/>
+    <tableColumn id="31" xr3:uid="{AAAE5565-606B-4E1C-9FD8-99E9CD898B38}" name="Syllabus - coefficient" dataDxfId="12"/>
+    <tableColumn id="32" xr3:uid="{5498CC05-730A-4838-ADF5-C8C1D9E79021}" name="Syllabus - modalités évaluation" dataDxfId="11"/>
+    <tableColumn id="33" xr3:uid="{926DEFC4-5CBB-45C6-9258-AB7C8F37849C}" name="SISE - type diplôme" dataDxfId="10"/>
     <tableColumn id="34" xr3:uid="{EA4EA027-ED14-4DA3-A532-58D76A59190E}" name="SISE - code diplôme" dataDxfId="9"/>
-    <tableColumn id="35" xr3:uid="{1868BDEE-EAEC-4246-AA88-B45FC2F23CAB}" name="SISE - niveau diplôme SISE" dataDxfId="7"/>
-    <tableColumn id="36" xr3:uid="{44AEC1EA-EF1D-47CB-B98E-0964862967FF}" name="SISE - parcours-type" dataDxfId="8"/>
-    <tableColumn id="37" xr3:uid="{0BC82DF8-EF3F-46C6-9CE3-BF2F682E7EED}" name="SISE - domaine formation" dataDxfId="24"/>
-    <tableColumn id="38" xr3:uid="{257739AB-3A09-46A6-9600-44BC34413430}" name="SISE - mention" dataDxfId="23"/>
-    <tableColumn id="39" xr3:uid="{15F9D87A-1B9D-4A42-983C-5A9FE99D0322}" name="SISE - champ formation" dataDxfId="22"/>
-    <tableColumn id="40" xr3:uid="{D3C47171-A1B9-4104-88B8-596268A0FDEF}" name="SISE - niveau diplôme" dataDxfId="21"/>
-    <tableColumn id="41" xr3:uid="{C72D07E6-20C8-476F-9FD4-8D9791FB1C06}" name="SISE - déclinaison" dataDxfId="20"/>
-    <tableColumn id="42" xr3:uid="{94F15C63-346A-4FAE-B411-4BA84BEA21E7}" name="Aglae - habilité bourses" dataDxfId="19"/>
-    <tableColumn id="43" xr3:uid="{0E47B228-4380-4D0A-A175-FBF1292E0FC1}" name="Aglae - niveau" dataDxfId="18"/>
+    <tableColumn id="35" xr3:uid="{1868BDEE-EAEC-4246-AA88-B45FC2F23CAB}" name="SISE - niveau diplôme SISE" dataDxfId="8"/>
+    <tableColumn id="36" xr3:uid="{44AEC1EA-EF1D-47CB-B98E-0964862967FF}" name="SISE - parcours-type" dataDxfId="7"/>
+    <tableColumn id="37" xr3:uid="{0BC82DF8-EF3F-46C6-9CE3-BF2F682E7EED}" name="SISE - domaine formation" dataDxfId="6"/>
+    <tableColumn id="38" xr3:uid="{257739AB-3A09-46A6-9600-44BC34413430}" name="SISE - mention" dataDxfId="5"/>
+    <tableColumn id="39" xr3:uid="{15F9D87A-1B9D-4A42-983C-5A9FE99D0322}" name="SISE - champ formation" dataDxfId="4"/>
+    <tableColumn id="40" xr3:uid="{D3C47171-A1B9-4104-88B8-596268A0FDEF}" name="SISE - niveau diplôme" dataDxfId="3"/>
+    <tableColumn id="41" xr3:uid="{C72D07E6-20C8-476F-9FD4-8D9791FB1C06}" name="SISE - déclinaison" dataDxfId="2"/>
+    <tableColumn id="42" xr3:uid="{94F15C63-346A-4FAE-B411-4BA84BEA21E7}" name="Aglae - habilité bourses" dataDxfId="1"/>
+    <tableColumn id="43" xr3:uid="{0E47B228-4380-4D0A-A175-FBF1292E0FC1}" name="Aglae - niveau" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2373,20 +2319,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{344DF7D5-D639-4355-89FB-833EF1843A63}">
-  <dimension ref="A1:AM47"/>
+  <dimension ref="A1:AS47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AF5" sqref="AF5"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16.2" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="16.88671875" customWidth="1"/>
-    <col min="2" max="2" width="11.21875" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" customWidth="1"/>
     <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="55.33203125" customWidth="1"/>
     <col min="5" max="5" width="55.33203125" style="7" customWidth="1"/>
-    <col min="6" max="6" width="19.21875" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" customWidth="1"/>
     <col min="7" max="7" width="14.44140625" style="8" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="24.6640625" style="15" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20" customWidth="1"/>
@@ -2394,16 +2338,22 @@
     <col min="11" max="11" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="12" max="15" width="14.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="19.5546875" style="7" customWidth="1"/>
-    <col min="17" max="19" width="14.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="22.33203125" style="7" customWidth="1"/>
-    <col min="21" max="21" width="20.44140625" style="7" customWidth="1"/>
-    <col min="22" max="24" width="14.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="19.44140625" style="7" customWidth="1"/>
-    <col min="26" max="39" width="14.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="16.33203125" customWidth="1"/>
+    <col min="17" max="17" width="17.109375" style="7" customWidth="1"/>
+    <col min="18" max="18" width="19.5546875" style="7" customWidth="1"/>
+    <col min="19" max="19" width="17.44140625" style="7" customWidth="1"/>
+    <col min="20" max="20" width="19.5546875" style="7" customWidth="1"/>
+    <col min="21" max="22" width="17" style="7" customWidth="1"/>
+    <col min="23" max="24" width="14.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="18.109375" style="7" customWidth="1"/>
+    <col min="26" max="26" width="22.33203125" style="7" customWidth="1"/>
+    <col min="27" max="27" width="20.44140625" style="7" customWidth="1"/>
+    <col min="28" max="30" width="14.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="19.44140625" style="7" customWidth="1"/>
+    <col min="32" max="45" width="14.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" s="2" customFormat="1" ht="55.8" customHeight="1">
+    <row r="1" spans="1:45" s="2" customFormat="1" ht="55.95" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2453,76 +2403,94 @@
         <v>15</v>
       </c>
       <c r="Q1" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:39" s="2" customFormat="1" ht="61.8" customHeight="1">
+    <row r="2" spans="1:45" s="2" customFormat="1" ht="61.95" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>23</v>
       </c>
@@ -2572,22 +2540,22 @@
         <v>27</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>52</v>
+        <v>184</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>28</v>
+        <v>190</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>52</v>
+        <v>186</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>52</v>
+        <v>185</v>
       </c>
       <c r="W2" s="3" t="s">
         <v>52</v>
@@ -2596,34 +2564,34 @@
         <v>52</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="Z2" s="3" t="s">
         <v>52</v>
       </c>
       <c r="AA2" s="3" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="AB2" s="3" t="s">
         <v>52</v>
       </c>
       <c r="AC2" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AD2" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AE2" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AF2" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AG2" s="3" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="AH2" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AI2" s="3" t="s">
         <v>53</v>
@@ -2635,13 +2603,31 @@
         <v>53</v>
       </c>
       <c r="AL2" s="3" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="AM2" s="3" t="s">
         <v>53</v>
       </c>
+      <c r="AN2" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO2" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP2" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ2" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AS2" s="3" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="3" spans="1:39" s="2" customFormat="1" ht="16.2" customHeight="1">
+    <row r="3" spans="1:45" s="2" customFormat="1" ht="16.2" customHeight="1">
       <c r="A3" s="33"/>
       <c r="B3" s="33"/>
       <c r="C3" s="33"/>
@@ -2681,8 +2667,14 @@
       <c r="AK3" s="33"/>
       <c r="AL3" s="33"/>
       <c r="AM3" s="33"/>
+      <c r="AN3" s="33"/>
+      <c r="AO3" s="33"/>
+      <c r="AP3" s="33"/>
+      <c r="AQ3" s="33"/>
+      <c r="AR3" s="33"/>
+      <c r="AS3" s="33"/>
     </row>
-    <row r="4" spans="1:39" s="16" customFormat="1" ht="57.6" customHeight="1">
+    <row r="4" spans="1:45" s="16" customFormat="1" ht="57.6" customHeight="1">
       <c r="A4" s="37" t="s">
         <v>70</v>
       </c>
@@ -2715,78 +2707,84 @@
       <c r="P4" s="36">
         <v>0</v>
       </c>
-      <c r="Q4" s="37" t="s">
+      <c r="Q4" s="36"/>
+      <c r="R4" s="36"/>
+      <c r="S4" s="36"/>
+      <c r="T4" s="36"/>
+      <c r="U4" s="36"/>
+      <c r="V4" s="36"/>
+      <c r="W4" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="R4" s="37" t="s">
+      <c r="X4" s="37" t="s">
         <v>178</v>
       </c>
-      <c r="S4" s="37" t="b">
+      <c r="Y4" s="37" t="b">
         <v>1</v>
       </c>
-      <c r="T4" s="37" t="s">
+      <c r="Z4" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="U4" s="37" t="s">
+      <c r="AA4" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="V4" s="37" t="s">
+      <c r="AB4" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="W4" s="37" t="s">
+      <c r="AC4" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="X4" s="37" t="s">
+      <c r="AD4" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="Y4" s="37" t="s">
+      <c r="AE4" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="Z4" s="37" t="s">
+      <c r="AF4" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="AA4" s="36">
+      <c r="AG4" s="36">
         <v>4</v>
       </c>
-      <c r="AB4" s="37" t="s">
+      <c r="AH4" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="AC4" s="37" t="s">
+      <c r="AI4" s="37" t="s">
         <v>179</v>
       </c>
-      <c r="AD4" s="36">
+      <c r="AJ4" s="36">
         <v>1000218</v>
       </c>
-      <c r="AE4" s="36">
+      <c r="AK4" s="36">
         <v>2</v>
       </c>
-      <c r="AF4" s="36" t="s">
+      <c r="AL4" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="AG4" s="36" t="s">
+      <c r="AM4" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="AH4" s="36" t="s">
+      <c r="AN4" s="36" t="s">
         <v>180</v>
       </c>
-      <c r="AI4" s="36" t="s">
+      <c r="AO4" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="AJ4" s="36" t="s">
+      <c r="AP4" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="AK4" s="37" t="s">
+      <c r="AQ4" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="AL4" s="36" t="b">
+      <c r="AR4" s="36" t="b">
         <v>1</v>
       </c>
-      <c r="AM4" s="36" t="str">
+      <c r="AS4" s="36" t="str">
         <f>"02"</f>
         <v>02</v>
       </c>
     </row>
-    <row r="5" spans="1:39" ht="16.2" customHeight="1">
+    <row r="5" spans="1:45" ht="16.2" customHeight="1">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -2795,7 +2793,7 @@
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
     </row>
-    <row r="6" spans="1:39" ht="22.8" customHeight="1">
+    <row r="6" spans="1:45" ht="22.95" customHeight="1">
       <c r="A6" s="9" t="s">
         <v>73</v>
       </c>
@@ -2851,8 +2849,14 @@
       <c r="AK6" s="10"/>
       <c r="AL6" s="10"/>
       <c r="AM6" s="10"/>
+      <c r="AN6" s="10"/>
+      <c r="AO6" s="10"/>
+      <c r="AP6" s="10"/>
+      <c r="AQ6" s="10"/>
+      <c r="AR6" s="10"/>
+      <c r="AS6" s="10"/>
     </row>
-    <row r="7" spans="1:39" ht="24" customHeight="1">
+    <row r="7" spans="1:45" ht="24" customHeight="1">
       <c r="A7" s="11" t="s">
         <v>77</v>
       </c>
@@ -2906,8 +2910,14 @@
       <c r="AK7" s="12"/>
       <c r="AL7" s="12"/>
       <c r="AM7" s="12"/>
+      <c r="AN7" s="12"/>
+      <c r="AO7" s="12"/>
+      <c r="AP7" s="12"/>
+      <c r="AQ7" s="12"/>
+      <c r="AR7" s="12"/>
+      <c r="AS7" s="12"/>
     </row>
-    <row r="8" spans="1:39" ht="16.2" customHeight="1">
+    <row r="8" spans="1:45" ht="16.2" customHeight="1">
       <c r="A8" s="6" t="s">
         <v>68</v>
       </c>
@@ -2939,7 +2949,7 @@
       <c r="Q8" s="20"/>
       <c r="R8" s="20"/>
       <c r="S8" s="20"/>
-      <c r="T8" s="20"/>
+      <c r="T8" s="39"/>
       <c r="U8" s="20"/>
       <c r="V8" s="20"/>
       <c r="W8" s="20"/>
@@ -2959,8 +2969,14 @@
       <c r="AK8" s="20"/>
       <c r="AL8" s="20"/>
       <c r="AM8" s="20"/>
+      <c r="AN8" s="20"/>
+      <c r="AO8" s="20"/>
+      <c r="AP8" s="20"/>
+      <c r="AQ8" s="20"/>
+      <c r="AR8" s="20"/>
+      <c r="AS8" s="20"/>
     </row>
-    <row r="9" spans="1:39" ht="16.2" customHeight="1">
+    <row r="9" spans="1:45" ht="16.2" customHeight="1">
       <c r="A9" s="24" t="s">
         <v>0</v>
       </c>
@@ -2990,10 +3006,8 @@
       <c r="O9" s="21"/>
       <c r="P9" s="21"/>
       <c r="Q9" s="21"/>
-      <c r="R9" s="21"/>
       <c r="S9" s="21"/>
-      <c r="T9" s="21"/>
-      <c r="U9" s="21"/>
+      <c r="T9" s="40"/>
       <c r="V9" s="21"/>
       <c r="W9" s="21"/>
       <c r="X9" s="21"/>
@@ -3012,8 +3026,14 @@
       <c r="AK9" s="21"/>
       <c r="AL9" s="21"/>
       <c r="AM9" s="21"/>
+      <c r="AN9" s="21"/>
+      <c r="AO9" s="21"/>
+      <c r="AP9" s="21"/>
+      <c r="AQ9" s="21"/>
+      <c r="AR9" s="21"/>
+      <c r="AS9" s="21"/>
     </row>
-    <row r="10" spans="1:39" ht="16.2" customHeight="1">
+    <row r="10" spans="1:45" ht="16.2" customHeight="1">
       <c r="A10" s="24" t="s">
         <v>0</v>
       </c>
@@ -3067,8 +3087,14 @@
       <c r="AK10" s="21"/>
       <c r="AL10" s="21"/>
       <c r="AM10" s="21"/>
+      <c r="AN10" s="21"/>
+      <c r="AO10" s="21"/>
+      <c r="AP10" s="21"/>
+      <c r="AQ10" s="21"/>
+      <c r="AR10" s="21"/>
+      <c r="AS10" s="21"/>
     </row>
-    <row r="11" spans="1:39" ht="16.2" customHeight="1">
+    <row r="11" spans="1:45" ht="16.2" customHeight="1">
       <c r="A11" s="24" t="s">
         <v>0</v>
       </c>
@@ -3120,8 +3146,14 @@
       <c r="AK11" s="21"/>
       <c r="AL11" s="21"/>
       <c r="AM11" s="21"/>
+      <c r="AN11" s="21"/>
+      <c r="AO11" s="21"/>
+      <c r="AP11" s="21"/>
+      <c r="AQ11" s="21"/>
+      <c r="AR11" s="21"/>
+      <c r="AS11" s="21"/>
     </row>
-    <row r="12" spans="1:39" ht="16.2" customHeight="1">
+    <row r="12" spans="1:45" ht="16.2" customHeight="1">
       <c r="A12" s="24" t="s">
         <v>0</v>
       </c>
@@ -3175,8 +3207,14 @@
       <c r="AK12" s="21"/>
       <c r="AL12" s="21"/>
       <c r="AM12" s="21"/>
+      <c r="AN12" s="21"/>
+      <c r="AO12" s="21"/>
+      <c r="AP12" s="21"/>
+      <c r="AQ12" s="21"/>
+      <c r="AR12" s="21"/>
+      <c r="AS12" s="21"/>
     </row>
-    <row r="13" spans="1:39" ht="16.2" customHeight="1">
+    <row r="13" spans="1:45" ht="16.2" customHeight="1">
       <c r="A13" s="24" t="s">
         <v>0</v>
       </c>
@@ -3228,8 +3266,14 @@
       <c r="AK13" s="21"/>
       <c r="AL13" s="21"/>
       <c r="AM13" s="21"/>
+      <c r="AN13" s="21"/>
+      <c r="AO13" s="21"/>
+      <c r="AP13" s="21"/>
+      <c r="AQ13" s="21"/>
+      <c r="AR13" s="21"/>
+      <c r="AS13" s="21"/>
     </row>
-    <row r="14" spans="1:39" ht="16.2" customHeight="1">
+    <row r="14" spans="1:45" ht="16.2" customHeight="1">
       <c r="A14" s="24" t="s">
         <v>0</v>
       </c>
@@ -3281,8 +3325,14 @@
       <c r="AK14" s="21"/>
       <c r="AL14" s="21"/>
       <c r="AM14" s="21"/>
+      <c r="AN14" s="21"/>
+      <c r="AO14" s="21"/>
+      <c r="AP14" s="21"/>
+      <c r="AQ14" s="21"/>
+      <c r="AR14" s="21"/>
+      <c r="AS14" s="21"/>
     </row>
-    <row r="15" spans="1:39" ht="16.2" customHeight="1">
+    <row r="15" spans="1:45" ht="16.2" customHeight="1">
       <c r="A15" s="6" t="s">
         <v>68</v>
       </c>
@@ -3336,8 +3386,14 @@
       <c r="AK15" s="20"/>
       <c r="AL15" s="20"/>
       <c r="AM15" s="20"/>
+      <c r="AN15" s="20"/>
+      <c r="AO15" s="20"/>
+      <c r="AP15" s="20"/>
+      <c r="AQ15" s="20"/>
+      <c r="AR15" s="20"/>
+      <c r="AS15" s="20"/>
     </row>
-    <row r="16" spans="1:39" ht="16.2" customHeight="1">
+    <row r="16" spans="1:45" ht="16.2" customHeight="1">
       <c r="A16" s="24" t="s">
         <v>0</v>
       </c>
@@ -3391,8 +3447,14 @@
       <c r="AK16" s="21"/>
       <c r="AL16" s="21"/>
       <c r="AM16" s="21"/>
+      <c r="AN16" s="21"/>
+      <c r="AO16" s="21"/>
+      <c r="AP16" s="21"/>
+      <c r="AQ16" s="21"/>
+      <c r="AR16" s="21"/>
+      <c r="AS16" s="21"/>
     </row>
-    <row r="17" spans="1:39" ht="16.2" customHeight="1">
+    <row r="17" spans="1:45" ht="16.2" customHeight="1">
       <c r="A17" s="6" t="s">
         <v>68</v>
       </c>
@@ -3448,8 +3510,14 @@
       <c r="AK17" s="20"/>
       <c r="AL17" s="20"/>
       <c r="AM17" s="20"/>
+      <c r="AN17" s="20"/>
+      <c r="AO17" s="20"/>
+      <c r="AP17" s="20"/>
+      <c r="AQ17" s="20"/>
+      <c r="AR17" s="20"/>
+      <c r="AS17" s="20"/>
     </row>
-    <row r="18" spans="1:39" ht="16.2" customHeight="1">
+    <row r="18" spans="1:45" ht="16.2" customHeight="1">
       <c r="A18" s="26" t="s">
         <v>104</v>
       </c>
@@ -3503,8 +3571,14 @@
       <c r="AK18" s="21"/>
       <c r="AL18" s="21"/>
       <c r="AM18" s="21"/>
+      <c r="AN18" s="21"/>
+      <c r="AO18" s="21"/>
+      <c r="AP18" s="21"/>
+      <c r="AQ18" s="21"/>
+      <c r="AR18" s="21"/>
+      <c r="AS18" s="21"/>
     </row>
-    <row r="19" spans="1:39" ht="16.2" customHeight="1">
+    <row r="19" spans="1:45" ht="16.2" customHeight="1">
       <c r="A19" s="24" t="s">
         <v>0</v>
       </c>
@@ -3558,8 +3632,14 @@
       <c r="AK19" s="21"/>
       <c r="AL19" s="21"/>
       <c r="AM19" s="21"/>
+      <c r="AN19" s="21"/>
+      <c r="AO19" s="21"/>
+      <c r="AP19" s="21"/>
+      <c r="AQ19" s="21"/>
+      <c r="AR19" s="21"/>
+      <c r="AS19" s="21"/>
     </row>
-    <row r="20" spans="1:39" ht="16.2" customHeight="1">
+    <row r="20" spans="1:45" ht="16.2" customHeight="1">
       <c r="A20" s="24" t="s">
         <v>0</v>
       </c>
@@ -3611,8 +3691,14 @@
       <c r="AK20" s="21"/>
       <c r="AL20" s="21"/>
       <c r="AM20" s="21"/>
+      <c r="AN20" s="21"/>
+      <c r="AO20" s="21"/>
+      <c r="AP20" s="21"/>
+      <c r="AQ20" s="21"/>
+      <c r="AR20" s="21"/>
+      <c r="AS20" s="21"/>
     </row>
-    <row r="21" spans="1:39" ht="16.2" customHeight="1">
+    <row r="21" spans="1:45" ht="16.2" customHeight="1">
       <c r="A21" s="24" t="s">
         <v>0</v>
       </c>
@@ -3664,8 +3750,14 @@
       <c r="AK21" s="21"/>
       <c r="AL21" s="21"/>
       <c r="AM21" s="21"/>
+      <c r="AN21" s="21"/>
+      <c r="AO21" s="21"/>
+      <c r="AP21" s="21"/>
+      <c r="AQ21" s="21"/>
+      <c r="AR21" s="21"/>
+      <c r="AS21" s="21"/>
     </row>
-    <row r="22" spans="1:39" ht="16.2" customHeight="1">
+    <row r="22" spans="1:45" ht="16.2" customHeight="1">
       <c r="A22" s="24" t="s">
         <v>0</v>
       </c>
@@ -3717,8 +3809,14 @@
       <c r="AK22" s="21"/>
       <c r="AL22" s="21"/>
       <c r="AM22" s="21"/>
+      <c r="AN22" s="21"/>
+      <c r="AO22" s="21"/>
+      <c r="AP22" s="21"/>
+      <c r="AQ22" s="21"/>
+      <c r="AR22" s="21"/>
+      <c r="AS22" s="21"/>
     </row>
-    <row r="23" spans="1:39" ht="16.2" customHeight="1">
+    <row r="23" spans="1:45" ht="16.2" customHeight="1">
       <c r="A23" s="24" t="s">
         <v>0</v>
       </c>
@@ -3772,8 +3870,14 @@
       <c r="AK23" s="21"/>
       <c r="AL23" s="21"/>
       <c r="AM23" s="21"/>
+      <c r="AN23" s="21"/>
+      <c r="AO23" s="21"/>
+      <c r="AP23" s="21"/>
+      <c r="AQ23" s="21"/>
+      <c r="AR23" s="21"/>
+      <c r="AS23" s="21"/>
     </row>
-    <row r="24" spans="1:39" ht="24" customHeight="1">
+    <row r="24" spans="1:45" ht="24" customHeight="1">
       <c r="A24" s="11" t="s">
         <v>77</v>
       </c>
@@ -3827,8 +3931,14 @@
       <c r="AK24" s="12"/>
       <c r="AL24" s="12"/>
       <c r="AM24" s="12"/>
+      <c r="AN24" s="12"/>
+      <c r="AO24" s="12"/>
+      <c r="AP24" s="12"/>
+      <c r="AQ24" s="12"/>
+      <c r="AR24" s="12"/>
+      <c r="AS24" s="12"/>
     </row>
-    <row r="25" spans="1:39" ht="16.2" customHeight="1">
+    <row r="25" spans="1:45" ht="16.2" customHeight="1">
       <c r="A25" s="6" t="s">
         <v>68</v>
       </c>
@@ -3882,8 +3992,14 @@
       <c r="AK25" s="20"/>
       <c r="AL25" s="20"/>
       <c r="AM25" s="20"/>
+      <c r="AN25" s="20"/>
+      <c r="AO25" s="20"/>
+      <c r="AP25" s="20"/>
+      <c r="AQ25" s="20"/>
+      <c r="AR25" s="20"/>
+      <c r="AS25" s="20"/>
     </row>
-    <row r="26" spans="1:39" ht="16.2" customHeight="1">
+    <row r="26" spans="1:45" ht="16.2" customHeight="1">
       <c r="A26" s="24" t="s">
         <v>0</v>
       </c>
@@ -3935,8 +4051,14 @@
       <c r="AK26" s="21"/>
       <c r="AL26" s="21"/>
       <c r="AM26" s="21"/>
+      <c r="AN26" s="21"/>
+      <c r="AO26" s="21"/>
+      <c r="AP26" s="21"/>
+      <c r="AQ26" s="21"/>
+      <c r="AR26" s="21"/>
+      <c r="AS26" s="21"/>
     </row>
-    <row r="27" spans="1:39" ht="16.2" customHeight="1">
+    <row r="27" spans="1:45" ht="16.2" customHeight="1">
       <c r="A27" s="24" t="s">
         <v>0</v>
       </c>
@@ -3990,8 +4112,14 @@
       <c r="AK27" s="21"/>
       <c r="AL27" s="21"/>
       <c r="AM27" s="21"/>
+      <c r="AN27" s="21"/>
+      <c r="AO27" s="21"/>
+      <c r="AP27" s="21"/>
+      <c r="AQ27" s="21"/>
+      <c r="AR27" s="21"/>
+      <c r="AS27" s="21"/>
     </row>
-    <row r="28" spans="1:39" ht="16.2" customHeight="1">
+    <row r="28" spans="1:45" ht="16.2" customHeight="1">
       <c r="A28" s="24" t="s">
         <v>0</v>
       </c>
@@ -4043,8 +4171,14 @@
       <c r="AK28" s="21"/>
       <c r="AL28" s="21"/>
       <c r="AM28" s="21"/>
+      <c r="AN28" s="21"/>
+      <c r="AO28" s="21"/>
+      <c r="AP28" s="21"/>
+      <c r="AQ28" s="21"/>
+      <c r="AR28" s="21"/>
+      <c r="AS28" s="21"/>
     </row>
-    <row r="29" spans="1:39" ht="16.2" customHeight="1">
+    <row r="29" spans="1:45" ht="16.2" customHeight="1">
       <c r="A29" s="24" t="s">
         <v>0</v>
       </c>
@@ -4098,8 +4232,14 @@
       <c r="AK29" s="21"/>
       <c r="AL29" s="21"/>
       <c r="AM29" s="21"/>
+      <c r="AN29" s="21"/>
+      <c r="AO29" s="21"/>
+      <c r="AP29" s="21"/>
+      <c r="AQ29" s="21"/>
+      <c r="AR29" s="21"/>
+      <c r="AS29" s="21"/>
     </row>
-    <row r="30" spans="1:39" ht="16.2" customHeight="1">
+    <row r="30" spans="1:45" ht="16.2" customHeight="1">
       <c r="A30" s="24" t="s">
         <v>0</v>
       </c>
@@ -4151,8 +4291,14 @@
       <c r="AK30" s="21"/>
       <c r="AL30" s="21"/>
       <c r="AM30" s="21"/>
+      <c r="AN30" s="21"/>
+      <c r="AO30" s="21"/>
+      <c r="AP30" s="21"/>
+      <c r="AQ30" s="21"/>
+      <c r="AR30" s="21"/>
+      <c r="AS30" s="21"/>
     </row>
-    <row r="31" spans="1:39" ht="16.2" customHeight="1">
+    <row r="31" spans="1:45" ht="16.2" customHeight="1">
       <c r="A31" s="24" t="s">
         <v>0</v>
       </c>
@@ -4204,8 +4350,14 @@
       <c r="AK31" s="21"/>
       <c r="AL31" s="21"/>
       <c r="AM31" s="21"/>
+      <c r="AN31" s="21"/>
+      <c r="AO31" s="21"/>
+      <c r="AP31" s="21"/>
+      <c r="AQ31" s="21"/>
+      <c r="AR31" s="21"/>
+      <c r="AS31" s="21"/>
     </row>
-    <row r="32" spans="1:39" ht="16.2" customHeight="1">
+    <row r="32" spans="1:45" ht="16.2" customHeight="1">
       <c r="A32" s="6" t="s">
         <v>68</v>
       </c>
@@ -4259,8 +4411,14 @@
       <c r="AK32" s="20"/>
       <c r="AL32" s="20"/>
       <c r="AM32" s="20"/>
+      <c r="AN32" s="20"/>
+      <c r="AO32" s="20"/>
+      <c r="AP32" s="20"/>
+      <c r="AQ32" s="20"/>
+      <c r="AR32" s="20"/>
+      <c r="AS32" s="20"/>
     </row>
-    <row r="33" spans="1:39" ht="16.2" customHeight="1">
+    <row r="33" spans="1:45" ht="16.2" customHeight="1">
       <c r="A33" s="24" t="s">
         <v>0</v>
       </c>
@@ -4314,8 +4472,14 @@
       <c r="AK33" s="21"/>
       <c r="AL33" s="21"/>
       <c r="AM33" s="21"/>
+      <c r="AN33" s="21"/>
+      <c r="AO33" s="21"/>
+      <c r="AP33" s="21"/>
+      <c r="AQ33" s="21"/>
+      <c r="AR33" s="21"/>
+      <c r="AS33" s="21"/>
     </row>
-    <row r="34" spans="1:39" ht="16.2" customHeight="1">
+    <row r="34" spans="1:45" ht="16.2" customHeight="1">
       <c r="A34" s="24" t="s">
         <v>0</v>
       </c>
@@ -4369,8 +4533,14 @@
       <c r="AK34" s="21"/>
       <c r="AL34" s="21"/>
       <c r="AM34" s="21"/>
+      <c r="AN34" s="21"/>
+      <c r="AO34" s="21"/>
+      <c r="AP34" s="21"/>
+      <c r="AQ34" s="21"/>
+      <c r="AR34" s="21"/>
+      <c r="AS34" s="21"/>
     </row>
-    <row r="35" spans="1:39" ht="16.2" customHeight="1">
+    <row r="35" spans="1:45" ht="16.2" customHeight="1">
       <c r="A35" s="6" t="s">
         <v>68</v>
       </c>
@@ -4426,8 +4596,14 @@
       <c r="AK35" s="20"/>
       <c r="AL35" s="20"/>
       <c r="AM35" s="20"/>
+      <c r="AN35" s="20"/>
+      <c r="AO35" s="20"/>
+      <c r="AP35" s="20"/>
+      <c r="AQ35" s="20"/>
+      <c r="AR35" s="20"/>
+      <c r="AS35" s="20"/>
     </row>
-    <row r="36" spans="1:39" ht="16.2" customHeight="1">
+    <row r="36" spans="1:45" ht="16.2" customHeight="1">
       <c r="A36" s="26" t="s">
         <v>104</v>
       </c>
@@ -4481,8 +4657,14 @@
       <c r="AK36" s="21"/>
       <c r="AL36" s="21"/>
       <c r="AM36" s="21"/>
+      <c r="AN36" s="21"/>
+      <c r="AO36" s="21"/>
+      <c r="AP36" s="21"/>
+      <c r="AQ36" s="21"/>
+      <c r="AR36" s="21"/>
+      <c r="AS36" s="21"/>
     </row>
-    <row r="37" spans="1:39" ht="16.2" customHeight="1">
+    <row r="37" spans="1:45" ht="16.2" customHeight="1">
       <c r="A37" s="24" t="s">
         <v>0</v>
       </c>
@@ -4536,8 +4718,14 @@
       <c r="AK37" s="21"/>
       <c r="AL37" s="21"/>
       <c r="AM37" s="21"/>
+      <c r="AN37" s="21"/>
+      <c r="AO37" s="21"/>
+      <c r="AP37" s="21"/>
+      <c r="AQ37" s="21"/>
+      <c r="AR37" s="21"/>
+      <c r="AS37" s="21"/>
     </row>
-    <row r="38" spans="1:39" ht="16.2" customHeight="1">
+    <row r="38" spans="1:45" ht="16.2" customHeight="1">
       <c r="A38" s="24" t="s">
         <v>0</v>
       </c>
@@ -4591,8 +4779,14 @@
       <c r="AK38" s="21"/>
       <c r="AL38" s="21"/>
       <c r="AM38" s="21"/>
+      <c r="AN38" s="21"/>
+      <c r="AO38" s="21"/>
+      <c r="AP38" s="21"/>
+      <c r="AQ38" s="21"/>
+      <c r="AR38" s="21"/>
+      <c r="AS38" s="21"/>
     </row>
-    <row r="39" spans="1:39" ht="16.2" customHeight="1">
+    <row r="39" spans="1:45" ht="16.2" customHeight="1">
       <c r="A39" s="24" t="s">
         <v>0</v>
       </c>
@@ -4644,8 +4838,14 @@
       <c r="AK39" s="21"/>
       <c r="AL39" s="21"/>
       <c r="AM39" s="21"/>
+      <c r="AN39" s="21"/>
+      <c r="AO39" s="21"/>
+      <c r="AP39" s="21"/>
+      <c r="AQ39" s="21"/>
+      <c r="AR39" s="21"/>
+      <c r="AS39" s="21"/>
     </row>
-    <row r="40" spans="1:39" ht="16.2" customHeight="1">
+    <row r="40" spans="1:45" ht="16.2" customHeight="1">
       <c r="A40" s="24" t="s">
         <v>0</v>
       </c>
@@ -4697,8 +4897,14 @@
       <c r="AK40" s="21"/>
       <c r="AL40" s="21"/>
       <c r="AM40" s="21"/>
+      <c r="AN40" s="21"/>
+      <c r="AO40" s="21"/>
+      <c r="AP40" s="21"/>
+      <c r="AQ40" s="21"/>
+      <c r="AR40" s="21"/>
+      <c r="AS40" s="21"/>
     </row>
-    <row r="41" spans="1:39" ht="16.2" customHeight="1">
+    <row r="41" spans="1:45" ht="16.2" customHeight="1">
       <c r="A41" s="24" t="s">
         <v>0</v>
       </c>
@@ -4750,8 +4956,14 @@
       <c r="AK41" s="21"/>
       <c r="AL41" s="21"/>
       <c r="AM41" s="21"/>
+      <c r="AN41" s="21"/>
+      <c r="AO41" s="21"/>
+      <c r="AP41" s="21"/>
+      <c r="AQ41" s="21"/>
+      <c r="AR41" s="21"/>
+      <c r="AS41" s="21"/>
     </row>
-    <row r="42" spans="1:39" ht="16.2" customHeight="1">
+    <row r="42" spans="1:45" ht="16.2" customHeight="1">
       <c r="A42" s="24" t="s">
         <v>0</v>
       </c>
@@ -4803,8 +5015,14 @@
       <c r="AK42" s="21"/>
       <c r="AL42" s="21"/>
       <c r="AM42" s="21"/>
+      <c r="AN42" s="21"/>
+      <c r="AO42" s="21"/>
+      <c r="AP42" s="21"/>
+      <c r="AQ42" s="21"/>
+      <c r="AR42" s="21"/>
+      <c r="AS42" s="21"/>
     </row>
-    <row r="43" spans="1:39" ht="16.2" customHeight="1">
+    <row r="43" spans="1:45" ht="16.2" customHeight="1">
       <c r="A43" s="27" t="s">
         <v>0</v>
       </c>
@@ -4856,8 +5074,14 @@
       <c r="AK43" s="22"/>
       <c r="AL43" s="22"/>
       <c r="AM43" s="22"/>
+      <c r="AN43" s="22"/>
+      <c r="AO43" s="22"/>
+      <c r="AP43" s="22"/>
+      <c r="AQ43" s="22"/>
+      <c r="AR43" s="22"/>
+      <c r="AS43" s="22"/>
     </row>
-    <row r="44" spans="1:39" ht="16.2" customHeight="1">
+    <row r="44" spans="1:45" ht="16.2" customHeight="1">
       <c r="A44" s="7"/>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
@@ -4866,7 +5090,7 @@
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
     </row>
-    <row r="45" spans="1:39" ht="22.8" customHeight="1">
+    <row r="45" spans="1:45" ht="22.95" customHeight="1">
       <c r="A45" s="9" t="s">
         <v>73</v>
       </c>
@@ -4922,8 +5146,14 @@
       <c r="AK45" s="10"/>
       <c r="AL45" s="10"/>
       <c r="AM45" s="10"/>
+      <c r="AN45" s="10"/>
+      <c r="AO45" s="10"/>
+      <c r="AP45" s="10"/>
+      <c r="AQ45" s="10"/>
+      <c r="AR45" s="10"/>
+      <c r="AS45" s="10"/>
     </row>
-    <row r="46" spans="1:39" ht="16.2" customHeight="1">
+    <row r="46" spans="1:45" ht="16.2" customHeight="1">
       <c r="A46" s="7"/>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
@@ -4932,7 +5162,7 @@
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
     </row>
-    <row r="47" spans="1:39" ht="22.8" customHeight="1">
+    <row r="47" spans="1:45" ht="22.95" customHeight="1">
       <c r="A47" s="9" t="s">
         <v>73</v>
       </c>
@@ -4988,18 +5218,27 @@
       <c r="AK47" s="10"/>
       <c r="AL47" s="10"/>
       <c r="AM47" s="10"/>
+      <c r="AN47" s="10"/>
+      <c r="AO47" s="10"/>
+      <c r="AP47" s="10"/>
+      <c r="AQ47" s="10"/>
+      <c r="AR47" s="10"/>
+      <c r="AS47" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="F4:H32 F34:H47">
-    <cfRule type="expression" dxfId="4" priority="4">
+    <cfRule type="expression" dxfId="45" priority="5">
       <formula>LEN(D4)&gt;150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F33:H33">
-    <cfRule type="expression" dxfId="3" priority="2">
+    <cfRule type="expression" dxfId="44" priority="3">
       <formula>LEN(D33)&gt;150</formula>
     </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1:C1048576">
+    <cfRule type="duplicateValues" dxfId="43" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
